--- a/datasets/Boston.xlsx
+++ b/datasets/Boston.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="-19760" windowWidth="25600" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="3600" yWindow="2720" windowWidth="25040" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N507"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -504,7 +504,7 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F2" s="2">
-        <v>6575</v>
+        <v>6.5750000000000002</v>
       </c>
       <c r="G2" s="1">
         <v>65.2</v>
@@ -548,13 +548,13 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="F3" s="2">
-        <v>6421</v>
+        <v>6.4210000000000003</v>
       </c>
       <c r="G3" s="1">
         <v>78.900000000000006</v>
       </c>
       <c r="H3" s="2">
-        <v>49671</v>
+        <v>4.9671000000000003</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -592,13 +592,13 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="F4" s="2">
-        <v>7185</v>
+        <v>7.1849999999999996</v>
       </c>
       <c r="G4" s="1">
         <v>61.1</v>
       </c>
       <c r="H4" s="2">
-        <v>49671</v>
+        <v>4.9671000000000003</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -636,13 +636,13 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="F5" s="2">
-        <v>6998</v>
+        <v>6.9980000000000002</v>
       </c>
       <c r="G5" s="1">
         <v>45.8</v>
       </c>
       <c r="H5" s="2">
-        <v>60622</v>
+        <v>6.0621999999999998</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -680,13 +680,13 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="F6" s="2">
-        <v>7147</v>
+        <v>7.1470000000000002</v>
       </c>
       <c r="G6" s="1">
         <v>54.2</v>
       </c>
       <c r="H6" s="2">
-        <v>60622</v>
+        <v>6.0621999999999998</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -730,7 +730,7 @@
         <v>58.7</v>
       </c>
       <c r="H7" s="2">
-        <v>60622</v>
+        <v>6.0621999999999998</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -768,13 +768,13 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F8" s="2">
-        <v>6012</v>
+        <v>6.0119999999999996</v>
       </c>
       <c r="G8" s="1">
         <v>66.599999999999994</v>
       </c>
       <c r="H8" s="2">
-        <v>55605</v>
+        <v>5.5605000000000002</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -812,13 +812,13 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F9" s="2">
-        <v>6172</v>
+        <v>6.1719999999999997</v>
       </c>
       <c r="G9" s="1">
         <v>96.1</v>
       </c>
       <c r="H9" s="2">
-        <v>59505</v>
+        <v>5.9504999999999999</v>
       </c>
       <c r="I9" s="1">
         <v>5</v>
@@ -856,13 +856,13 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F10" s="2">
-        <v>5631</v>
+        <v>5.6310000000000002</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
       </c>
       <c r="H10" s="2">
-        <v>60821</v>
+        <v>6.0820999999999996</v>
       </c>
       <c r="I10" s="1">
         <v>5</v>
@@ -900,13 +900,13 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F11" s="2">
-        <v>6004</v>
+        <v>6.0039999999999996</v>
       </c>
       <c r="G11" s="1">
         <v>85.9</v>
       </c>
       <c r="H11" s="2">
-        <v>65921</v>
+        <v>6.5921000000000003</v>
       </c>
       <c r="I11" s="1">
         <v>5</v>
@@ -944,13 +944,13 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F12" s="2">
-        <v>6377</v>
+        <v>6.3769999999999998</v>
       </c>
       <c r="G12" s="1">
         <v>94.3</v>
       </c>
       <c r="H12" s="2">
-        <v>63467</v>
+        <v>6.3467000000000002</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
@@ -988,13 +988,13 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F13" s="2">
-        <v>6009</v>
+        <v>6.0090000000000003</v>
       </c>
       <c r="G13" s="1">
         <v>82.9</v>
       </c>
       <c r="H13" s="2">
-        <v>62267</v>
+        <v>6.2267000000000001</v>
       </c>
       <c r="I13" s="1">
         <v>5</v>
@@ -1032,13 +1032,13 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F14" s="2">
-        <v>5889</v>
+        <v>5.8890000000000002</v>
       </c>
       <c r="G14" s="1">
         <v>39</v>
       </c>
       <c r="H14" s="2">
-        <v>54509</v>
+        <v>5.4508999999999999</v>
       </c>
       <c r="I14" s="1">
         <v>5</v>
@@ -1076,13 +1076,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F15" s="2">
-        <v>5949</v>
+        <v>5.9489999999999998</v>
       </c>
       <c r="G15" s="1">
         <v>61.8</v>
       </c>
       <c r="H15" s="2">
-        <v>47075</v>
+        <v>4.7074999999999996</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
@@ -1120,13 +1120,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F16" s="2">
-        <v>6096</v>
+        <v>6.0960000000000001</v>
       </c>
       <c r="G16" s="1">
         <v>84.5</v>
       </c>
       <c r="H16" s="2">
-        <v>44619</v>
+        <v>4.4619</v>
       </c>
       <c r="I16" s="1">
         <v>4</v>
@@ -1164,13 +1164,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F17" s="2">
-        <v>5834</v>
+        <v>5.8339999999999996</v>
       </c>
       <c r="G17" s="1">
         <v>56.5</v>
       </c>
       <c r="H17" s="2">
-        <v>44986</v>
+        <v>4.4985999999999997</v>
       </c>
       <c r="I17" s="1">
         <v>4</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>105393</v>
+        <v>1.05393</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1208,13 +1208,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F18" s="2">
-        <v>5935</v>
+        <v>5.9349999999999996</v>
       </c>
       <c r="G18" s="1">
         <v>29.3</v>
       </c>
       <c r="H18" s="2">
-        <v>44986</v>
+        <v>4.4985999999999997</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
@@ -1258,7 +1258,7 @@
         <v>81.7</v>
       </c>
       <c r="H19" s="2">
-        <v>42579</v>
+        <v>4.2579000000000002</v>
       </c>
       <c r="I19" s="1">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F20" s="2">
-        <v>5456</v>
+        <v>5.4560000000000004</v>
       </c>
       <c r="G20" s="1">
         <v>36.6</v>
       </c>
       <c r="H20" s="2">
-        <v>37965</v>
+        <v>3.7965</v>
       </c>
       <c r="I20" s="1">
         <v>4</v>
@@ -1340,13 +1340,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F21" s="2">
-        <v>5727</v>
+        <v>5.7270000000000003</v>
       </c>
       <c r="G21" s="1">
         <v>69.5</v>
       </c>
       <c r="H21" s="2">
-        <v>37965</v>
+        <v>3.7965</v>
       </c>
       <c r="I21" s="1">
         <v>4</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>125179</v>
+        <v>1.25179</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>98.1</v>
       </c>
       <c r="H22" s="2">
-        <v>37979</v>
+        <v>3.7978999999999998</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -1428,13 +1428,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F23" s="2">
-        <v>5965</v>
+        <v>5.9649999999999999</v>
       </c>
       <c r="G23" s="1">
         <v>89.2</v>
       </c>
       <c r="H23" s="2">
-        <v>40123</v>
+        <v>4.0122999999999998</v>
       </c>
       <c r="I23" s="1">
         <v>4</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>123247</v>
+        <v>1.23247</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F24" s="2">
-        <v>6142</v>
+        <v>6.1420000000000003</v>
       </c>
       <c r="G24" s="1">
         <v>91.7</v>
       </c>
       <c r="H24" s="2">
-        <v>39769</v>
+        <v>3.9769000000000001</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
@@ -1516,13 +1516,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F25" s="2">
-        <v>5813</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
       </c>
       <c r="H25" s="2">
-        <v>40952</v>
+        <v>4.0952000000000002</v>
       </c>
       <c r="I25" s="1">
         <v>4</v>
@@ -1560,13 +1560,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F26" s="2">
-        <v>5924</v>
+        <v>5.9240000000000004</v>
       </c>
       <c r="G26" s="1">
         <v>94.1</v>
       </c>
       <c r="H26" s="2">
-        <v>43996</v>
+        <v>4.3996000000000004</v>
       </c>
       <c r="I26" s="1">
         <v>4</v>
@@ -1604,13 +1604,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F27" s="2">
-        <v>5599</v>
+        <v>5.5990000000000002</v>
       </c>
       <c r="G27" s="1">
         <v>85.7</v>
       </c>
       <c r="H27" s="2">
-        <v>44546</v>
+        <v>4.4546000000000001</v>
       </c>
       <c r="I27" s="1">
         <v>4</v>
@@ -1648,13 +1648,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F28" s="2">
-        <v>5813</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="G28" s="1">
         <v>90.3</v>
       </c>
       <c r="H28" s="2">
-        <v>4682</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="I28" s="1">
         <v>4</v>
@@ -1692,13 +1692,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F29" s="2">
-        <v>6047</v>
+        <v>6.0469999999999997</v>
       </c>
       <c r="G29" s="1">
         <v>88.8</v>
       </c>
       <c r="H29" s="2">
-        <v>44534</v>
+        <v>4.4534000000000002</v>
       </c>
       <c r="I29" s="1">
         <v>4</v>
@@ -1736,13 +1736,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F30" s="2">
-        <v>6495</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="G30" s="1">
         <v>94.4</v>
       </c>
       <c r="H30" s="2">
-        <v>44547</v>
+        <v>4.4546999999999999</v>
       </c>
       <c r="I30" s="1">
         <v>4</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>100245</v>
+        <v>1.0024500000000001</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F31" s="2">
-        <v>6674</v>
+        <v>6.6740000000000004</v>
       </c>
       <c r="G31" s="1">
         <v>87.3</v>
       </c>
       <c r="H31" s="2">
-        <v>4239</v>
+        <v>4.2389999999999999</v>
       </c>
       <c r="I31" s="1">
         <v>4</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>113081</v>
+        <v>1.1308100000000001</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F32" s="2">
-        <v>5713</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="G32" s="1">
         <v>94.1</v>
       </c>
       <c r="H32" s="2">
-        <v>4233</v>
+        <v>4.2329999999999997</v>
       </c>
       <c r="I32" s="1">
         <v>4</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>135472</v>
+        <v>1.3547199999999999</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F33" s="2">
-        <v>6072</v>
+        <v>6.0720000000000001</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
       </c>
       <c r="H33" s="2">
-        <v>4175</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>138799</v>
+        <v>1.3879900000000001</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>115172</v>
+        <v>1.1517200000000001</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -1956,13 +1956,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F35" s="2">
-        <v>5701</v>
+        <v>5.7009999999999996</v>
       </c>
       <c r="G35" s="1">
         <v>95</v>
       </c>
       <c r="H35" s="2">
-        <v>37872</v>
+        <v>3.7871999999999999</v>
       </c>
       <c r="I35" s="1">
         <v>4</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>161282</v>
+        <v>1.6128199999999999</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -2000,13 +2000,13 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F36" s="2">
-        <v>6096</v>
+        <v>6.0960000000000001</v>
       </c>
       <c r="G36" s="1">
         <v>96.9</v>
       </c>
       <c r="H36" s="2">
-        <v>37598</v>
+        <v>3.7597999999999998</v>
       </c>
       <c r="I36" s="1">
         <v>4</v>
@@ -2044,13 +2044,13 @@
         <v>0.499</v>
       </c>
       <c r="F37" s="2">
-        <v>5933</v>
+        <v>5.9329999999999998</v>
       </c>
       <c r="G37" s="1">
         <v>68.2</v>
       </c>
       <c r="H37" s="2">
-        <v>33603</v>
+        <v>3.3603000000000001</v>
       </c>
       <c r="I37" s="1">
         <v>5</v>
@@ -2088,13 +2088,13 @@
         <v>0.499</v>
       </c>
       <c r="F38" s="2">
-        <v>5841</v>
+        <v>5.8410000000000002</v>
       </c>
       <c r="G38" s="1">
         <v>61.4</v>
       </c>
       <c r="H38" s="2">
-        <v>33779</v>
+        <v>3.3778999999999999</v>
       </c>
       <c r="I38" s="1">
         <v>5</v>
@@ -2138,7 +2138,7 @@
         <v>41.5</v>
       </c>
       <c r="H39" s="2">
-        <v>39342</v>
+        <v>3.9342000000000001</v>
       </c>
       <c r="I39" s="1">
         <v>5</v>
@@ -2176,13 +2176,13 @@
         <v>0.499</v>
       </c>
       <c r="F40" s="2">
-        <v>5966</v>
+        <v>5.9660000000000002</v>
       </c>
       <c r="G40" s="1">
         <v>30.2</v>
       </c>
       <c r="H40" s="2">
-        <v>38473</v>
+        <v>3.8473000000000002</v>
       </c>
       <c r="I40" s="1">
         <v>5</v>
@@ -2220,13 +2220,13 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="F41" s="2">
-        <v>6595</v>
+        <v>6.5949999999999998</v>
       </c>
       <c r="G41" s="1">
         <v>21.8</v>
       </c>
       <c r="H41" s="2">
-        <v>54011</v>
+        <v>5.4010999999999996</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
@@ -2264,13 +2264,13 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="F42" s="2">
-        <v>7024</v>
+        <v>7.024</v>
       </c>
       <c r="G42" s="1">
         <v>15.8</v>
       </c>
       <c r="H42" s="2">
-        <v>54011</v>
+        <v>5.4010999999999996</v>
       </c>
       <c r="I42" s="1">
         <v>3</v>
@@ -2314,7 +2314,7 @@
         <v>2.9</v>
       </c>
       <c r="H43" s="2">
-        <v>57209</v>
+        <v>5.7209000000000003</v>
       </c>
       <c r="I43" s="1">
         <v>3</v>
@@ -2352,13 +2352,13 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="F44" s="2">
-        <v>6169</v>
+        <v>6.1689999999999996</v>
       </c>
       <c r="G44" s="1">
         <v>6.6</v>
       </c>
       <c r="H44" s="2">
-        <v>57209</v>
+        <v>5.7209000000000003</v>
       </c>
       <c r="I44" s="1">
         <v>3</v>
@@ -2396,13 +2396,13 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="F45" s="2">
-        <v>6211</v>
+        <v>6.2110000000000003</v>
       </c>
       <c r="G45" s="1">
         <v>6.5</v>
       </c>
       <c r="H45" s="2">
-        <v>57209</v>
+        <v>5.7209000000000003</v>
       </c>
       <c r="I45" s="1">
         <v>3</v>
@@ -2440,13 +2440,13 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="F46" s="2">
-        <v>6069</v>
+        <v>6.069</v>
       </c>
       <c r="G46" s="1">
         <v>40</v>
       </c>
       <c r="H46" s="2">
-        <v>57209</v>
+        <v>5.7209000000000003</v>
       </c>
       <c r="I46" s="1">
         <v>3</v>
@@ -2484,13 +2484,13 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="F47" s="2">
-        <v>5682</v>
+        <v>5.6820000000000004</v>
       </c>
       <c r="G47" s="1">
         <v>33.799999999999997</v>
       </c>
       <c r="H47" s="2">
-        <v>51004</v>
+        <v>5.1003999999999996</v>
       </c>
       <c r="I47" s="1">
         <v>3</v>
@@ -2528,13 +2528,13 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="F48" s="2">
-        <v>5786</v>
+        <v>5.7859999999999996</v>
       </c>
       <c r="G48" s="1">
         <v>33.299999999999997</v>
       </c>
       <c r="H48" s="2">
-        <v>51004</v>
+        <v>5.1003999999999996</v>
       </c>
       <c r="I48" s="1">
         <v>3</v>
@@ -2578,7 +2578,7 @@
         <v>85.5</v>
       </c>
       <c r="H49" s="2">
-        <v>56894</v>
+        <v>5.6894</v>
       </c>
       <c r="I49" s="1">
         <v>3</v>
@@ -2616,7 +2616,7 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="F50" s="2">
-        <v>5399</v>
+        <v>5.399</v>
       </c>
       <c r="G50" s="1">
         <v>95.3</v>
@@ -2660,13 +2660,13 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="F51" s="2">
-        <v>5602</v>
+        <v>5.6020000000000003</v>
       </c>
       <c r="G51" s="1">
         <v>62</v>
       </c>
       <c r="H51" s="2">
-        <v>60877</v>
+        <v>6.0876999999999999</v>
       </c>
       <c r="I51" s="1">
         <v>3</v>
@@ -2704,13 +2704,13 @@
         <v>0.439</v>
       </c>
       <c r="F52" s="2">
-        <v>5963</v>
+        <v>5.9630000000000001</v>
       </c>
       <c r="G52" s="1">
         <v>45.7</v>
       </c>
       <c r="H52" s="2">
-        <v>68147</v>
+        <v>6.8147000000000002</v>
       </c>
       <c r="I52" s="1">
         <v>4</v>
@@ -2748,13 +2748,13 @@
         <v>0.439</v>
       </c>
       <c r="F53" s="2">
-        <v>6115</v>
+        <v>6.1150000000000002</v>
       </c>
       <c r="G53" s="1">
         <v>63</v>
       </c>
       <c r="H53" s="2">
-        <v>68147</v>
+        <v>6.8147000000000002</v>
       </c>
       <c r="I53" s="1">
         <v>4</v>
@@ -2792,13 +2792,13 @@
         <v>0.439</v>
       </c>
       <c r="F54" s="2">
-        <v>6511</v>
+        <v>6.5110000000000001</v>
       </c>
       <c r="G54" s="1">
         <v>21.1</v>
       </c>
       <c r="H54" s="2">
-        <v>68147</v>
+        <v>6.8147000000000002</v>
       </c>
       <c r="I54" s="1">
         <v>4</v>
@@ -2836,13 +2836,13 @@
         <v>0.439</v>
       </c>
       <c r="F55" s="2">
-        <v>5998</v>
+        <v>5.9980000000000002</v>
       </c>
       <c r="G55" s="1">
         <v>21.4</v>
       </c>
       <c r="H55" s="2">
-        <v>68147</v>
+        <v>6.8147000000000002</v>
       </c>
       <c r="I55" s="1">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>0.41</v>
       </c>
       <c r="F56" s="2">
-        <v>5888</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="G56" s="1">
         <v>47.6</v>
       </c>
       <c r="H56" s="2">
-        <v>73197</v>
+        <v>7.3197000000000001</v>
       </c>
       <c r="I56" s="1">
         <v>3</v>
@@ -2924,13 +2924,13 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F57" s="2">
-        <v>7249</v>
+        <v>7.2489999999999997</v>
       </c>
       <c r="G57" s="1">
         <v>21.9</v>
       </c>
       <c r="H57" s="2">
-        <v>86966</v>
+        <v>8.6966000000000001</v>
       </c>
       <c r="I57" s="1">
         <v>5</v>
@@ -2968,13 +2968,13 @@
         <v>0.41</v>
       </c>
       <c r="F58" s="2">
-        <v>6383</v>
+        <v>6.383</v>
       </c>
       <c r="G58" s="1">
         <v>35.700000000000003</v>
       </c>
       <c r="H58" s="2">
-        <v>91876</v>
+        <v>9.1875999999999998</v>
       </c>
       <c r="I58" s="1">
         <v>2</v>
@@ -3012,13 +3012,13 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="F59" s="2">
-        <v>6816</v>
+        <v>6.8159999999999998</v>
       </c>
       <c r="G59" s="1">
         <v>40.5</v>
       </c>
       <c r="H59" s="2">
-        <v>83248</v>
+        <v>8.3247999999999998</v>
       </c>
       <c r="I59" s="1">
         <v>5</v>
@@ -3056,13 +3056,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="F60" s="2">
-        <v>6145</v>
+        <v>6.1449999999999996</v>
       </c>
       <c r="G60" s="1">
         <v>29.2</v>
       </c>
       <c r="H60" s="2">
-        <v>78148</v>
+        <v>7.8148</v>
       </c>
       <c r="I60" s="1">
         <v>8</v>
@@ -3100,13 +3100,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="F61" s="2">
-        <v>5927</v>
+        <v>5.9269999999999996</v>
       </c>
       <c r="G61" s="1">
         <v>47.2</v>
       </c>
       <c r="H61" s="2">
-        <v>6932</v>
+        <v>6.9320000000000004</v>
       </c>
       <c r="I61" s="1">
         <v>8</v>
@@ -3144,13 +3144,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="F62" s="2">
-        <v>5741</v>
+        <v>5.7409999999999997</v>
       </c>
       <c r="G62" s="1">
         <v>66.2</v>
       </c>
       <c r="H62" s="2">
-        <v>72254</v>
+        <v>7.2253999999999996</v>
       </c>
       <c r="I62" s="1">
         <v>8</v>
@@ -3188,13 +3188,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="F63" s="2">
-        <v>5966</v>
+        <v>5.9660000000000002</v>
       </c>
       <c r="G63" s="1">
         <v>93.4</v>
       </c>
       <c r="H63" s="2">
-        <v>68185</v>
+        <v>6.8185000000000002</v>
       </c>
       <c r="I63" s="1">
         <v>8</v>
@@ -3232,13 +3232,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="F64" s="2">
-        <v>6456</v>
+        <v>6.4560000000000004</v>
       </c>
       <c r="G64" s="1">
         <v>67.8</v>
       </c>
       <c r="H64" s="2">
-        <v>72255</v>
+        <v>7.2255000000000003</v>
       </c>
       <c r="I64" s="1">
         <v>8</v>
@@ -3276,13 +3276,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="F65" s="2">
-        <v>6762</v>
+        <v>6.7619999999999996</v>
       </c>
       <c r="G65" s="1">
         <v>43.4</v>
       </c>
       <c r="H65" s="2">
-        <v>79809</v>
+        <v>7.9809000000000001</v>
       </c>
       <c r="I65" s="1">
         <v>8</v>
@@ -3320,13 +3320,13 @@
         <v>0.41610000000000003</v>
       </c>
       <c r="F66" s="2">
-        <v>7104</v>
+        <v>7.1040000000000001</v>
       </c>
       <c r="G66" s="1">
         <v>59.5</v>
       </c>
       <c r="H66" s="2">
-        <v>92229</v>
+        <v>9.2228999999999992</v>
       </c>
       <c r="I66" s="1">
         <v>3</v>
@@ -3370,7 +3370,7 @@
         <v>17.8</v>
       </c>
       <c r="H67" s="2">
-        <v>66115</v>
+        <v>6.6115000000000004</v>
       </c>
       <c r="I67" s="1">
         <v>4</v>
@@ -3408,13 +3408,13 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="F68" s="2">
-        <v>5787</v>
+        <v>5.7869999999999999</v>
       </c>
       <c r="G68" s="1">
         <v>31.1</v>
       </c>
       <c r="H68" s="2">
-        <v>66115</v>
+        <v>6.6115000000000004</v>
       </c>
       <c r="I68" s="1">
         <v>4</v>
@@ -3452,13 +3452,13 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="F69" s="2">
-        <v>5878</v>
+        <v>5.8780000000000001</v>
       </c>
       <c r="G69" s="1">
         <v>21.4</v>
       </c>
       <c r="H69" s="2">
-        <v>6498</v>
+        <v>6.4980000000000002</v>
       </c>
       <c r="I69" s="1">
         <v>4</v>
@@ -3496,13 +3496,13 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="F70" s="2">
-        <v>5594</v>
+        <v>5.5940000000000003</v>
       </c>
       <c r="G70" s="1">
         <v>36.799999999999997</v>
       </c>
       <c r="H70" s="2">
-        <v>6498</v>
+        <v>6.4980000000000002</v>
       </c>
       <c r="I70" s="1">
         <v>4</v>
@@ -3540,13 +3540,13 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="F71" s="2">
-        <v>5885</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="G71" s="1">
         <v>33</v>
       </c>
       <c r="H71" s="2">
-        <v>6498</v>
+        <v>6.4980000000000002</v>
       </c>
       <c r="I71" s="1">
         <v>4</v>
@@ -3584,13 +3584,13 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F72" s="2">
-        <v>6417</v>
+        <v>6.4169999999999998</v>
       </c>
       <c r="G72" s="1">
         <v>6.6</v>
       </c>
       <c r="H72" s="2">
-        <v>52873</v>
+        <v>5.2873000000000001</v>
       </c>
       <c r="I72" s="1">
         <v>4</v>
@@ -3628,13 +3628,13 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F73" s="2">
-        <v>5961</v>
+        <v>5.9610000000000003</v>
       </c>
       <c r="G73" s="1">
         <v>17.5</v>
       </c>
       <c r="H73" s="2">
-        <v>52873</v>
+        <v>5.2873000000000001</v>
       </c>
       <c r="I73" s="1">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F74" s="2">
-        <v>6065</v>
+        <v>6.0650000000000004</v>
       </c>
       <c r="G74" s="1">
         <v>7.8</v>
       </c>
       <c r="H74" s="2">
-        <v>52873</v>
+        <v>5.2873000000000001</v>
       </c>
       <c r="I74" s="1">
         <v>4</v>
@@ -3716,13 +3716,13 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F75" s="2">
-        <v>6245</v>
+        <v>6.2450000000000001</v>
       </c>
       <c r="G75" s="1">
         <v>6.2</v>
       </c>
       <c r="H75" s="2">
-        <v>52873</v>
+        <v>5.2873000000000001</v>
       </c>
       <c r="I75" s="1">
         <v>4</v>
@@ -3760,13 +3760,13 @@
         <v>0.437</v>
       </c>
       <c r="F76" s="2">
-        <v>6273</v>
+        <v>6.2729999999999997</v>
       </c>
       <c r="G76" s="1">
         <v>6</v>
       </c>
       <c r="H76" s="2">
-        <v>42515</v>
+        <v>4.2515000000000001</v>
       </c>
       <c r="I76" s="1">
         <v>5</v>
@@ -3804,13 +3804,13 @@
         <v>0.437</v>
       </c>
       <c r="F77" s="2">
-        <v>6286</v>
+        <v>6.2859999999999996</v>
       </c>
       <c r="G77" s="1">
         <v>45</v>
       </c>
       <c r="H77" s="2">
-        <v>45026</v>
+        <v>4.5026000000000002</v>
       </c>
       <c r="I77" s="1">
         <v>5</v>
@@ -3848,13 +3848,13 @@
         <v>0.437</v>
       </c>
       <c r="F78" s="2">
-        <v>6279</v>
+        <v>6.2789999999999999</v>
       </c>
       <c r="G78" s="1">
         <v>74.5</v>
       </c>
       <c r="H78" s="2">
-        <v>40522</v>
+        <v>4.0522</v>
       </c>
       <c r="I78" s="1">
         <v>5</v>
@@ -3898,7 +3898,7 @@
         <v>45.8</v>
       </c>
       <c r="H79" s="2">
-        <v>40905</v>
+        <v>4.0904999999999996</v>
       </c>
       <c r="I79" s="1">
         <v>5</v>
@@ -3936,13 +3936,13 @@
         <v>0.437</v>
       </c>
       <c r="F80" s="2">
-        <v>6232</v>
+        <v>6.2320000000000002</v>
       </c>
       <c r="G80" s="1">
         <v>53.7</v>
       </c>
       <c r="H80" s="2">
-        <v>50141</v>
+        <v>5.0141</v>
       </c>
       <c r="I80" s="1">
         <v>5</v>
@@ -3980,13 +3980,13 @@
         <v>0.437</v>
       </c>
       <c r="F81" s="2">
-        <v>5874</v>
+        <v>5.8739999999999997</v>
       </c>
       <c r="G81" s="1">
         <v>36.6</v>
       </c>
       <c r="H81" s="2">
-        <v>45026</v>
+        <v>4.5026000000000002</v>
       </c>
       <c r="I81" s="1">
         <v>5</v>
@@ -4024,13 +4024,13 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="F82" s="2">
-        <v>6727</v>
+        <v>6.7270000000000003</v>
       </c>
       <c r="G82" s="1">
         <v>33.5</v>
       </c>
       <c r="H82" s="2">
-        <v>54007</v>
+        <v>5.4006999999999996</v>
       </c>
       <c r="I82" s="1">
         <v>4</v>
@@ -4068,13 +4068,13 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="F83" s="2">
-        <v>6619</v>
+        <v>6.6189999999999998</v>
       </c>
       <c r="G83" s="1">
         <v>70.400000000000006</v>
       </c>
       <c r="H83" s="2">
-        <v>54007</v>
+        <v>5.4006999999999996</v>
       </c>
       <c r="I83" s="1">
         <v>4</v>
@@ -4112,13 +4112,13 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="F84" s="2">
-        <v>6302</v>
+        <v>6.3019999999999996</v>
       </c>
       <c r="G84" s="1">
         <v>32.200000000000003</v>
       </c>
       <c r="H84" s="2">
-        <v>54007</v>
+        <v>5.4006999999999996</v>
       </c>
       <c r="I84" s="1">
         <v>4</v>
@@ -4156,13 +4156,13 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="F85" s="2">
-        <v>6167</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="G85" s="1">
         <v>46.7</v>
       </c>
       <c r="H85" s="2">
-        <v>54007</v>
+        <v>5.4006999999999996</v>
       </c>
       <c r="I85" s="1">
         <v>4</v>
@@ -4200,13 +4200,13 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="F86" s="2">
-        <v>6389</v>
+        <v>6.3890000000000002</v>
       </c>
       <c r="G86" s="1">
         <v>48</v>
       </c>
       <c r="H86" s="2">
-        <v>47794</v>
+        <v>4.7793999999999999</v>
       </c>
       <c r="I86" s="1">
         <v>3</v>
@@ -4250,7 +4250,7 @@
         <v>56.1</v>
       </c>
       <c r="H87" s="2">
-        <v>44377</v>
+        <v>4.4377000000000004</v>
       </c>
       <c r="I87" s="1">
         <v>3</v>
@@ -4288,13 +4288,13 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="F88" s="2">
-        <v>6015</v>
+        <v>6.0149999999999997</v>
       </c>
       <c r="G88" s="1">
         <v>45.1</v>
       </c>
       <c r="H88" s="2">
-        <v>44272</v>
+        <v>4.4272</v>
       </c>
       <c r="I88" s="1">
         <v>3</v>
@@ -4332,13 +4332,13 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>6121</v>
+        <v>6.1210000000000004</v>
       </c>
       <c r="G89" s="1">
         <v>56.8</v>
       </c>
       <c r="H89" s="2">
-        <v>37476</v>
+        <v>3.7475999999999998</v>
       </c>
       <c r="I89" s="1">
         <v>3</v>
@@ -4376,13 +4376,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F90" s="2">
-        <v>7007</v>
+        <v>7.0069999999999997</v>
       </c>
       <c r="G90" s="1">
         <v>86.3</v>
       </c>
       <c r="H90" s="2">
-        <v>34217</v>
+        <v>3.4217</v>
       </c>
       <c r="I90" s="1">
         <v>2</v>
@@ -4420,13 +4420,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F91" s="2">
-        <v>7079</v>
+        <v>7.0789999999999997</v>
       </c>
       <c r="G91" s="1">
         <v>63.1</v>
       </c>
       <c r="H91" s="2">
-        <v>34145</v>
+        <v>3.4144999999999999</v>
       </c>
       <c r="I91" s="1">
         <v>2</v>
@@ -4464,13 +4464,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F92" s="2">
-        <v>6417</v>
+        <v>6.4169999999999998</v>
       </c>
       <c r="G92" s="1">
         <v>66.099999999999994</v>
       </c>
       <c r="H92" s="2">
-        <v>30923</v>
+        <v>3.0922999999999998</v>
       </c>
       <c r="I92" s="1">
         <v>2</v>
@@ -4508,13 +4508,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F93" s="2">
-        <v>6405</v>
+        <v>6.4050000000000002</v>
       </c>
       <c r="G93" s="1">
         <v>73.900000000000006</v>
       </c>
       <c r="H93" s="2">
-        <v>30921</v>
+        <v>3.0920999999999998</v>
       </c>
       <c r="I93" s="1">
         <v>2</v>
@@ -4552,13 +4552,13 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F94" s="2">
-        <v>6442</v>
+        <v>6.4420000000000002</v>
       </c>
       <c r="G94" s="1">
         <v>53.6</v>
       </c>
       <c r="H94" s="2">
-        <v>36659</v>
+        <v>3.6659000000000002</v>
       </c>
       <c r="I94" s="1">
         <v>4</v>
@@ -4596,13 +4596,13 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F95" s="2">
-        <v>6211</v>
+        <v>6.2110000000000003</v>
       </c>
       <c r="G95" s="1">
         <v>28.9</v>
       </c>
       <c r="H95" s="2">
-        <v>36659</v>
+        <v>3.6659000000000002</v>
       </c>
       <c r="I95" s="1">
         <v>4</v>
@@ -4640,13 +4640,13 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F96" s="2">
-        <v>6249</v>
+        <v>6.2489999999999997</v>
       </c>
       <c r="G96" s="1">
         <v>77.3</v>
       </c>
       <c r="H96" s="2">
-        <v>3615</v>
+        <v>3.6150000000000002</v>
       </c>
       <c r="I96" s="1">
         <v>4</v>
@@ -4684,13 +4684,13 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="F97" s="2">
-        <v>6625</v>
+        <v>6.625</v>
       </c>
       <c r="G97" s="1">
         <v>57.8</v>
       </c>
       <c r="H97" s="2">
-        <v>34952</v>
+        <v>3.4952000000000001</v>
       </c>
       <c r="I97" s="1">
         <v>2</v>
@@ -4728,13 +4728,13 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="F98" s="2">
-        <v>6163</v>
+        <v>6.1630000000000003</v>
       </c>
       <c r="G98" s="1">
         <v>69.599999999999994</v>
       </c>
       <c r="H98" s="2">
-        <v>34952</v>
+        <v>3.4952000000000001</v>
       </c>
       <c r="I98" s="1">
         <v>2</v>
@@ -4772,13 +4772,13 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="F99" s="2">
-        <v>8069</v>
+        <v>8.0690000000000008</v>
       </c>
       <c r="G99" s="1">
         <v>76</v>
       </c>
       <c r="H99" s="2">
-        <v>34952</v>
+        <v>3.4952000000000001</v>
       </c>
       <c r="I99" s="1">
         <v>2</v>
@@ -4822,7 +4822,7 @@
         <v>36.9</v>
       </c>
       <c r="H100" s="2">
-        <v>34952</v>
+        <v>3.4952000000000001</v>
       </c>
       <c r="I100" s="1">
         <v>2</v>
@@ -4860,13 +4860,13 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="F101" s="2">
-        <v>7416</v>
+        <v>7.4160000000000004</v>
       </c>
       <c r="G101" s="1">
         <v>62.5</v>
       </c>
       <c r="H101" s="2">
-        <v>34952</v>
+        <v>3.4952000000000001</v>
       </c>
       <c r="I101" s="1">
         <v>2</v>
@@ -4904,13 +4904,13 @@
         <v>0.52</v>
       </c>
       <c r="F102" s="2">
-        <v>6727</v>
+        <v>6.7270000000000003</v>
       </c>
       <c r="G102" s="1">
         <v>79.900000000000006</v>
       </c>
       <c r="H102" s="2">
-        <v>27778</v>
+        <v>2.7778</v>
       </c>
       <c r="I102" s="1">
         <v>5</v>
@@ -4948,13 +4948,13 @@
         <v>0.52</v>
       </c>
       <c r="F103" s="2">
-        <v>6781</v>
+        <v>6.7809999999999997</v>
       </c>
       <c r="G103" s="1">
         <v>71.3</v>
       </c>
       <c r="H103" s="2">
-        <v>28561</v>
+        <v>2.8561000000000001</v>
       </c>
       <c r="I103" s="1">
         <v>5</v>
@@ -4992,13 +4992,13 @@
         <v>0.52</v>
       </c>
       <c r="F104" s="2">
-        <v>6405</v>
+        <v>6.4050000000000002</v>
       </c>
       <c r="G104" s="1">
         <v>85.4</v>
       </c>
       <c r="H104" s="2">
-        <v>27147</v>
+        <v>2.7147000000000001</v>
       </c>
       <c r="I104" s="1">
         <v>5</v>
@@ -5036,13 +5036,13 @@
         <v>0.52</v>
       </c>
       <c r="F105" s="2">
-        <v>6137</v>
+        <v>6.1369999999999996</v>
       </c>
       <c r="G105" s="1">
         <v>87.4</v>
       </c>
       <c r="H105" s="2">
-        <v>27147</v>
+        <v>2.7147000000000001</v>
       </c>
       <c r="I105" s="1">
         <v>5</v>
@@ -5080,13 +5080,13 @@
         <v>0.52</v>
       </c>
       <c r="F106" s="2">
-        <v>6167</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="G106" s="1">
         <v>90</v>
       </c>
       <c r="H106" s="2">
-        <v>2421</v>
+        <v>2.4209999999999998</v>
       </c>
       <c r="I106" s="1">
         <v>5</v>
@@ -5124,13 +5124,13 @@
         <v>0.52</v>
       </c>
       <c r="F107" s="2">
-        <v>5851</v>
+        <v>5.851</v>
       </c>
       <c r="G107" s="1">
         <v>96.7</v>
       </c>
       <c r="H107" s="2">
-        <v>21069</v>
+        <v>2.1069</v>
       </c>
       <c r="I107" s="1">
         <v>5</v>
@@ -5168,13 +5168,13 @@
         <v>0.52</v>
       </c>
       <c r="F108" s="2">
-        <v>5836</v>
+        <v>5.8360000000000003</v>
       </c>
       <c r="G108" s="1">
         <v>91.9</v>
       </c>
       <c r="H108" s="2">
-        <v>2211</v>
+        <v>2.2109999999999999</v>
       </c>
       <c r="I108" s="1">
         <v>5</v>
@@ -5212,13 +5212,13 @@
         <v>0.52</v>
       </c>
       <c r="F109" s="2">
-        <v>6127</v>
+        <v>6.1269999999999998</v>
       </c>
       <c r="G109" s="1">
         <v>85.2</v>
       </c>
       <c r="H109" s="2">
-        <v>21224</v>
+        <v>2.1223999999999998</v>
       </c>
       <c r="I109" s="1">
         <v>5</v>
@@ -5256,13 +5256,13 @@
         <v>0.52</v>
       </c>
       <c r="F110" s="2">
-        <v>6474</v>
+        <v>6.4740000000000002</v>
       </c>
       <c r="G110" s="1">
         <v>97.1</v>
       </c>
       <c r="H110" s="2">
-        <v>24329</v>
+        <v>2.4329000000000001</v>
       </c>
       <c r="I110" s="1">
         <v>5</v>
@@ -5300,13 +5300,13 @@
         <v>0.52</v>
       </c>
       <c r="F111" s="2">
-        <v>6229</v>
+        <v>6.2290000000000001</v>
       </c>
       <c r="G111" s="1">
         <v>91.2</v>
       </c>
       <c r="H111" s="2">
-        <v>25451</v>
+        <v>2.5451000000000001</v>
       </c>
       <c r="I111" s="1">
         <v>5</v>
@@ -5344,13 +5344,13 @@
         <v>0.52</v>
       </c>
       <c r="F112" s="2">
-        <v>6195</v>
+        <v>6.1950000000000003</v>
       </c>
       <c r="G112" s="1">
         <v>54.4</v>
       </c>
       <c r="H112" s="2">
-        <v>27778</v>
+        <v>2.7778</v>
       </c>
       <c r="I112" s="1">
         <v>5</v>
@@ -5388,13 +5388,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F113" s="2">
-        <v>6715</v>
+        <v>6.7149999999999999</v>
       </c>
       <c r="G113" s="1">
         <v>81.599999999999994</v>
       </c>
       <c r="H113" s="2">
-        <v>26775</v>
+        <v>2.6775000000000002</v>
       </c>
       <c r="I113" s="1">
         <v>6</v>
@@ -5432,13 +5432,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F114" s="2">
-        <v>5913</v>
+        <v>5.9130000000000003</v>
       </c>
       <c r="G114" s="1">
         <v>92.9</v>
       </c>
       <c r="H114" s="2">
-        <v>23534</v>
+        <v>2.3534000000000002</v>
       </c>
       <c r="I114" s="1">
         <v>6</v>
@@ -5476,13 +5476,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F115" s="2">
-        <v>6092</v>
+        <v>6.0919999999999996</v>
       </c>
       <c r="G115" s="1">
         <v>95.4</v>
       </c>
       <c r="H115" s="2">
-        <v>2548</v>
+        <v>2.548</v>
       </c>
       <c r="I115" s="1">
         <v>6</v>
@@ -5520,13 +5520,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F116" s="2">
-        <v>6254</v>
+        <v>6.2539999999999996</v>
       </c>
       <c r="G116" s="1">
         <v>84.2</v>
       </c>
       <c r="H116" s="2">
-        <v>22565</v>
+        <v>2.2565</v>
       </c>
       <c r="I116" s="1">
         <v>6</v>
@@ -5564,13 +5564,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F117" s="2">
-        <v>5928</v>
+        <v>5.9279999999999999</v>
       </c>
       <c r="G117" s="1">
         <v>88.2</v>
       </c>
       <c r="H117" s="2">
-        <v>24631</v>
+        <v>2.4630999999999998</v>
       </c>
       <c r="I117" s="1">
         <v>6</v>
@@ -5608,13 +5608,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F118" s="2">
-        <v>6176</v>
+        <v>6.1760000000000002</v>
       </c>
       <c r="G118" s="1">
         <v>72.5</v>
       </c>
       <c r="H118" s="2">
-        <v>27301</v>
+        <v>2.7301000000000002</v>
       </c>
       <c r="I118" s="1">
         <v>6</v>
@@ -5652,13 +5652,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F119" s="2">
-        <v>6021</v>
+        <v>6.0209999999999999</v>
       </c>
       <c r="G119" s="1">
         <v>82.6</v>
       </c>
       <c r="H119" s="2">
-        <v>27474</v>
+        <v>2.7473999999999998</v>
       </c>
       <c r="I119" s="1">
         <v>6</v>
@@ -5696,13 +5696,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F120" s="2">
-        <v>5872</v>
+        <v>5.8719999999999999</v>
       </c>
       <c r="G120" s="1">
         <v>73.099999999999994</v>
       </c>
       <c r="H120" s="2">
-        <v>24775</v>
+        <v>2.4775</v>
       </c>
       <c r="I120" s="1">
         <v>6</v>
@@ -5740,13 +5740,13 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F121" s="2">
-        <v>5731</v>
+        <v>5.7309999999999999</v>
       </c>
       <c r="G121" s="1">
         <v>65.2</v>
       </c>
       <c r="H121" s="2">
-        <v>27592</v>
+        <v>2.7591999999999999</v>
       </c>
       <c r="I121" s="1">
         <v>6</v>
@@ -5790,7 +5790,7 @@
         <v>69.7</v>
       </c>
       <c r="H122" s="2">
-        <v>22577</v>
+        <v>2.2576999999999998</v>
       </c>
       <c r="I122" s="1">
         <v>2</v>
@@ -5828,13 +5828,13 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="F123" s="2">
-        <v>6004</v>
+        <v>6.0039999999999996</v>
       </c>
       <c r="G123" s="1">
         <v>84.1</v>
       </c>
       <c r="H123" s="2">
-        <v>21974</v>
+        <v>2.1974</v>
       </c>
       <c r="I123" s="1">
         <v>2</v>
@@ -5872,13 +5872,13 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="F124" s="2">
-        <v>5961</v>
+        <v>5.9610000000000003</v>
       </c>
       <c r="G124" s="1">
         <v>92.9</v>
       </c>
       <c r="H124" s="2">
-        <v>20869</v>
+        <v>2.0869</v>
       </c>
       <c r="I124" s="1">
         <v>2</v>
@@ -5916,13 +5916,13 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="F125" s="2">
-        <v>5856</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="G125" s="1">
         <v>97</v>
       </c>
       <c r="H125" s="2">
-        <v>19444</v>
+        <v>1.9443999999999999</v>
       </c>
       <c r="I125" s="1">
         <v>2</v>
@@ -5960,13 +5960,13 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="F126" s="2">
-        <v>5879</v>
+        <v>5.8789999999999996</v>
       </c>
       <c r="G126" s="1">
         <v>95.8</v>
       </c>
       <c r="H126" s="2">
-        <v>20063</v>
+        <v>2.0063</v>
       </c>
       <c r="I126" s="1">
         <v>2</v>
@@ -6004,13 +6004,13 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="F127" s="2">
-        <v>5986</v>
+        <v>5.9859999999999998</v>
       </c>
       <c r="G127" s="1">
         <v>88.4</v>
       </c>
       <c r="H127" s="2">
-        <v>19929</v>
+        <v>1.9928999999999999</v>
       </c>
       <c r="I127" s="1">
         <v>2</v>
@@ -6048,13 +6048,13 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="F128" s="2">
-        <v>5613</v>
+        <v>5.6130000000000004</v>
       </c>
       <c r="G128" s="1">
         <v>95.6</v>
       </c>
       <c r="H128" s="2">
-        <v>17572</v>
+        <v>1.7572000000000001</v>
       </c>
       <c r="I128" s="1">
         <v>2</v>
@@ -6092,13 +6092,13 @@
         <v>0.624</v>
       </c>
       <c r="F129" s="2">
-        <v>5693</v>
+        <v>5.6929999999999996</v>
       </c>
       <c r="G129" s="1">
         <v>96</v>
       </c>
       <c r="H129" s="2">
-        <v>17883</v>
+        <v>1.7883</v>
       </c>
       <c r="I129" s="1">
         <v>4</v>
@@ -6136,13 +6136,13 @@
         <v>0.624</v>
       </c>
       <c r="F130" s="2">
-        <v>6431</v>
+        <v>6.431</v>
       </c>
       <c r="G130" s="1">
         <v>98.8</v>
       </c>
       <c r="H130" s="2">
-        <v>18125</v>
+        <v>1.8125</v>
       </c>
       <c r="I130" s="1">
         <v>4</v>
@@ -6180,13 +6180,13 @@
         <v>0.624</v>
       </c>
       <c r="F131" s="2">
-        <v>5637</v>
+        <v>5.6369999999999996</v>
       </c>
       <c r="G131" s="1">
         <v>94.7</v>
       </c>
       <c r="H131" s="2">
-        <v>19799</v>
+        <v>1.9799</v>
       </c>
       <c r="I131" s="1">
         <v>4</v>
@@ -6224,13 +6224,13 @@
         <v>0.624</v>
       </c>
       <c r="F132" s="2">
-        <v>6458</v>
+        <v>6.4580000000000002</v>
       </c>
       <c r="G132" s="1">
         <v>98.9</v>
       </c>
       <c r="H132" s="2">
-        <v>21185</v>
+        <v>2.1185</v>
       </c>
       <c r="I132" s="1">
         <v>4</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="2">
-        <v>119294</v>
+        <v>1.1929399999999999</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -6268,13 +6268,13 @@
         <v>0.624</v>
       </c>
       <c r="F133" s="2">
-        <v>6326</v>
+        <v>6.3259999999999996</v>
       </c>
       <c r="G133" s="1">
         <v>97.7</v>
       </c>
       <c r="H133" s="2">
-        <v>2271</v>
+        <v>2.2709999999999999</v>
       </c>
       <c r="I133" s="1">
         <v>4</v>
@@ -6312,13 +6312,13 @@
         <v>0.624</v>
       </c>
       <c r="F134" s="2">
-        <v>6372</v>
+        <v>6.3719999999999999</v>
       </c>
       <c r="G134" s="1">
         <v>97.9</v>
       </c>
       <c r="H134" s="2">
-        <v>23274</v>
+        <v>2.3273999999999999</v>
       </c>
       <c r="I134" s="1">
         <v>4</v>
@@ -6356,13 +6356,13 @@
         <v>0.624</v>
       </c>
       <c r="F135" s="2">
-        <v>5822</v>
+        <v>5.8220000000000001</v>
       </c>
       <c r="G135" s="1">
         <v>95.4</v>
       </c>
       <c r="H135" s="2">
-        <v>24699</v>
+        <v>2.4699</v>
       </c>
       <c r="I135" s="1">
         <v>4</v>
@@ -6400,13 +6400,13 @@
         <v>0.624</v>
       </c>
       <c r="F136" s="2">
-        <v>5757</v>
+        <v>5.7569999999999997</v>
       </c>
       <c r="G136" s="1">
         <v>98.4</v>
       </c>
       <c r="H136" s="2">
-        <v>2346</v>
+        <v>2.3460000000000001</v>
       </c>
       <c r="I136" s="1">
         <v>4</v>
@@ -6444,13 +6444,13 @@
         <v>0.624</v>
       </c>
       <c r="F137" s="2">
-        <v>6335</v>
+        <v>6.335</v>
       </c>
       <c r="G137" s="1">
         <v>98.2</v>
       </c>
       <c r="H137" s="2">
-        <v>21107</v>
+        <v>2.1107</v>
       </c>
       <c r="I137" s="1">
         <v>4</v>
@@ -6488,13 +6488,13 @@
         <v>0.624</v>
       </c>
       <c r="F138" s="2">
-        <v>5942</v>
+        <v>5.9420000000000002</v>
       </c>
       <c r="G138" s="1">
         <v>93.5</v>
       </c>
       <c r="H138" s="2">
-        <v>19669</v>
+        <v>1.9669000000000001</v>
       </c>
       <c r="I138" s="1">
         <v>4</v>
@@ -6532,13 +6532,13 @@
         <v>0.624</v>
       </c>
       <c r="F139" s="2">
-        <v>6454</v>
+        <v>6.4539999999999997</v>
       </c>
       <c r="G139" s="1">
         <v>98.4</v>
       </c>
       <c r="H139" s="2">
-        <v>18498</v>
+        <v>1.8498000000000001</v>
       </c>
       <c r="I139" s="1">
         <v>4</v>
@@ -6576,13 +6576,13 @@
         <v>0.624</v>
       </c>
       <c r="F140" s="2">
-        <v>5857</v>
+        <v>5.8570000000000002</v>
       </c>
       <c r="G140" s="1">
         <v>98.2</v>
       </c>
       <c r="H140" s="2">
-        <v>16686</v>
+        <v>1.6686000000000001</v>
       </c>
       <c r="I140" s="1">
         <v>4</v>
@@ -6620,13 +6620,13 @@
         <v>0.624</v>
       </c>
       <c r="F141" s="2">
-        <v>6151</v>
+        <v>6.1509999999999998</v>
       </c>
       <c r="G141" s="1">
         <v>97.9</v>
       </c>
       <c r="H141" s="2">
-        <v>16687</v>
+        <v>1.6687000000000001</v>
       </c>
       <c r="I141" s="1">
         <v>4</v>
@@ -6664,13 +6664,13 @@
         <v>0.624</v>
       </c>
       <c r="F142" s="2">
-        <v>6174</v>
+        <v>6.1740000000000004</v>
       </c>
       <c r="G142" s="1">
         <v>93.6</v>
       </c>
       <c r="H142" s="2">
-        <v>16119</v>
+        <v>1.6119000000000001</v>
       </c>
       <c r="I142" s="1">
         <v>4</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="2">
-        <v>162864</v>
+        <v>1.6286400000000001</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -6708,13 +6708,13 @@
         <v>0.624</v>
       </c>
       <c r="F143" s="2">
-        <v>5019</v>
+        <v>5.0190000000000001</v>
       </c>
       <c r="G143" s="1">
         <v>100</v>
       </c>
       <c r="H143" s="2">
-        <v>14394</v>
+        <v>1.4394</v>
       </c>
       <c r="I143" s="1">
         <v>4</v>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="2">
-        <v>332105</v>
+        <v>3.3210500000000001</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -6752,13 +6752,13 @@
         <v>0.871</v>
       </c>
       <c r="F144" s="2">
-        <v>5403</v>
+        <v>5.4029999999999996</v>
       </c>
       <c r="G144" s="1">
         <v>100</v>
       </c>
       <c r="H144" s="2">
-        <v>13216</v>
+        <v>1.3216000000000001</v>
       </c>
       <c r="I144" s="1">
         <v>5</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="2">
-        <v>40974</v>
+        <v>4.0974000000000004</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -6796,13 +6796,13 @@
         <v>0.871</v>
       </c>
       <c r="F145" s="2">
-        <v>5468</v>
+        <v>5.468</v>
       </c>
       <c r="G145" s="1">
         <v>100</v>
       </c>
       <c r="H145" s="2">
-        <v>14118</v>
+        <v>1.4117999999999999</v>
       </c>
       <c r="I145" s="1">
         <v>5</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="2">
-        <v>277974</v>
+        <v>2.7797399999999999</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -6840,13 +6840,13 @@
         <v>0.871</v>
       </c>
       <c r="F146" s="2">
-        <v>4903</v>
+        <v>4.9029999999999996</v>
       </c>
       <c r="G146" s="1">
         <v>97.8</v>
       </c>
       <c r="H146" s="2">
-        <v>13459</v>
+        <v>1.3459000000000001</v>
       </c>
       <c r="I146" s="1">
         <v>5</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="2">
-        <v>237934</v>
+        <v>2.37934</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>100</v>
       </c>
       <c r="H147" s="2">
-        <v>14191</v>
+        <v>1.4191</v>
       </c>
       <c r="I147" s="1">
         <v>5</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="2">
-        <v>215505</v>
+        <v>2.1550500000000001</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -6928,13 +6928,13 @@
         <v>0.871</v>
       </c>
       <c r="F148" s="2">
-        <v>5628</v>
+        <v>5.6280000000000001</v>
       </c>
       <c r="G148" s="1">
         <v>100</v>
       </c>
       <c r="H148" s="2">
-        <v>15166</v>
+        <v>1.5165999999999999</v>
       </c>
       <c r="I148" s="1">
         <v>5</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2">
-        <v>236862</v>
+        <v>2.3686199999999999</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -6972,13 +6972,13 @@
         <v>0.871</v>
       </c>
       <c r="F149" s="2">
-        <v>4926</v>
+        <v>4.9260000000000002</v>
       </c>
       <c r="G149" s="1">
         <v>95.7</v>
       </c>
       <c r="H149" s="2">
-        <v>14608</v>
+        <v>1.4608000000000001</v>
       </c>
       <c r="I149" s="1">
         <v>5</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="2">
-        <v>233099</v>
+        <v>2.3309899999999999</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         <v>0.871</v>
       </c>
       <c r="F150" s="2">
-        <v>5186</v>
+        <v>5.1859999999999999</v>
       </c>
       <c r="G150" s="1">
         <v>93.8</v>
       </c>
       <c r="H150" s="2">
-        <v>15296</v>
+        <v>1.5296000000000001</v>
       </c>
       <c r="I150" s="1">
         <v>5</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2">
-        <v>273397</v>
+        <v>2.7339699999999998</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -7060,13 +7060,13 @@
         <v>0.871</v>
       </c>
       <c r="F151" s="2">
-        <v>5597</v>
+        <v>5.5970000000000004</v>
       </c>
       <c r="G151" s="1">
         <v>94.9</v>
       </c>
       <c r="H151" s="2">
-        <v>15257</v>
+        <v>1.5257000000000001</v>
       </c>
       <c r="I151" s="1">
         <v>5</v>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="2">
-        <v>16566</v>
+        <v>1.6566000000000001</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -7104,13 +7104,13 @@
         <v>0.871</v>
       </c>
       <c r="F152" s="2">
-        <v>6122</v>
+        <v>6.1219999999999999</v>
       </c>
       <c r="G152" s="1">
         <v>97.3</v>
       </c>
       <c r="H152" s="2">
-        <v>1618</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="I152" s="1">
         <v>5</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="2">
-        <v>149632</v>
+        <v>1.4963200000000001</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -7148,13 +7148,13 @@
         <v>0.871</v>
       </c>
       <c r="F153" s="2">
-        <v>5404</v>
+        <v>5.4039999999999999</v>
       </c>
       <c r="G153" s="1">
         <v>100</v>
       </c>
       <c r="H153" s="2">
-        <v>15916</v>
+        <v>1.5915999999999999</v>
       </c>
       <c r="I153" s="1">
         <v>5</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2">
-        <v>112658</v>
+        <v>1.1265799999999999</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -7192,13 +7192,13 @@
         <v>0.871</v>
       </c>
       <c r="F154" s="2">
-        <v>5012</v>
+        <v>5.0119999999999996</v>
       </c>
       <c r="G154" s="1">
         <v>88</v>
       </c>
       <c r="H154" s="2">
-        <v>16102</v>
+        <v>1.6102000000000001</v>
       </c>
       <c r="I154" s="1">
         <v>5</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="2">
-        <v>214918</v>
+        <v>2.1491799999999999</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -7236,13 +7236,13 @@
         <v>0.871</v>
       </c>
       <c r="F155" s="2">
-        <v>5709</v>
+        <v>5.7089999999999996</v>
       </c>
       <c r="G155" s="1">
         <v>98.5</v>
       </c>
       <c r="H155" s="2">
-        <v>16232</v>
+        <v>1.6232</v>
       </c>
       <c r="I155" s="1">
         <v>5</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="2">
-        <v>141385</v>
+        <v>1.4138500000000001</v>
       </c>
       <c r="B156" s="1">
         <v>0</v>
@@ -7280,13 +7280,13 @@
         <v>0.871</v>
       </c>
       <c r="F156" s="2">
-        <v>6129</v>
+        <v>6.1289999999999996</v>
       </c>
       <c r="G156" s="1">
         <v>96</v>
       </c>
       <c r="H156" s="2">
-        <v>17494</v>
+        <v>1.7494000000000001</v>
       </c>
       <c r="I156" s="1">
         <v>5</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="2">
-        <v>353501</v>
+        <v>3.5350100000000002</v>
       </c>
       <c r="B157" s="1">
         <v>0</v>
@@ -7324,13 +7324,13 @@
         <v>0.871</v>
       </c>
       <c r="F157" s="2">
-        <v>6152</v>
+        <v>6.1520000000000001</v>
       </c>
       <c r="G157" s="1">
         <v>82.6</v>
       </c>
       <c r="H157" s="2">
-        <v>17455</v>
+        <v>1.7455000000000001</v>
       </c>
       <c r="I157" s="1">
         <v>5</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="2">
-        <v>244668</v>
+        <v>2.4466800000000002</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -7368,13 +7368,13 @@
         <v>0.871</v>
       </c>
       <c r="F158" s="2">
-        <v>5272</v>
+        <v>5.2720000000000002</v>
       </c>
       <c r="G158" s="1">
         <v>94</v>
       </c>
       <c r="H158" s="2">
-        <v>17364</v>
+        <v>1.7363999999999999</v>
       </c>
       <c r="I158" s="1">
         <v>5</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="2">
-        <v>122358</v>
+        <v>1.2235799999999999</v>
       </c>
       <c r="B159" s="1">
         <v>0</v>
@@ -7412,13 +7412,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F159" s="2">
-        <v>6943</v>
+        <v>6.9429999999999996</v>
       </c>
       <c r="G159" s="1">
         <v>97.4</v>
       </c>
       <c r="H159" s="2">
-        <v>18773</v>
+        <v>1.8773</v>
       </c>
       <c r="I159" s="1">
         <v>5</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="2">
-        <v>134284</v>
+        <v>1.34284</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -7456,13 +7456,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F160" s="2">
-        <v>6066</v>
+        <v>6.0659999999999998</v>
       </c>
       <c r="G160" s="1">
         <v>100</v>
       </c>
       <c r="H160" s="2">
-        <v>17573</v>
+        <v>1.7573000000000001</v>
       </c>
       <c r="I160" s="1">
         <v>5</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="2">
-        <v>142502</v>
+        <v>1.42502</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>100</v>
       </c>
       <c r="H161" s="2">
-        <v>17659</v>
+        <v>1.7659</v>
       </c>
       <c r="I161" s="1">
         <v>5</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="2">
-        <v>127346</v>
+        <v>1.27346</v>
       </c>
       <c r="B162" s="1">
         <v>0</v>
@@ -7550,7 +7550,7 @@
         <v>92.6</v>
       </c>
       <c r="H162" s="2">
-        <v>17984</v>
+        <v>1.7984</v>
       </c>
       <c r="I162" s="1">
         <v>5</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="2">
-        <v>146336</v>
+        <v>1.46336</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
@@ -7588,13 +7588,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F163" s="2">
-        <v>7489</v>
+        <v>7.4889999999999999</v>
       </c>
       <c r="G163" s="1">
         <v>90.8</v>
       </c>
       <c r="H163" s="2">
-        <v>19709</v>
+        <v>1.9709000000000001</v>
       </c>
       <c r="I163" s="1">
         <v>5</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="2">
-        <v>183377</v>
+        <v>1.8337699999999999</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
@@ -7632,13 +7632,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F164" s="2">
-        <v>7802</v>
+        <v>7.8019999999999996</v>
       </c>
       <c r="G164" s="1">
         <v>98.2</v>
       </c>
       <c r="H164" s="2">
-        <v>20407</v>
+        <v>2.0407000000000002</v>
       </c>
       <c r="I164" s="1">
         <v>5</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="2">
-        <v>151902</v>
+        <v>1.51902</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -7676,13 +7676,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F165" s="2">
-        <v>8375</v>
+        <v>8.375</v>
       </c>
       <c r="G165" s="1">
         <v>93.9</v>
       </c>
       <c r="H165" s="2">
-        <v>2162</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="I165" s="1">
         <v>5</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="2">
-        <v>224236</v>
+        <v>2.2423600000000001</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -7720,13 +7720,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F166" s="2">
-        <v>5854</v>
+        <v>5.8540000000000001</v>
       </c>
       <c r="G166" s="1">
         <v>91.8</v>
       </c>
       <c r="H166" s="2">
-        <v>2422</v>
+        <v>2.4220000000000002</v>
       </c>
       <c r="I166" s="1">
         <v>5</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="2">
-        <v>2924</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -7764,13 +7764,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F167" s="2">
-        <v>6101</v>
+        <v>6.101</v>
       </c>
       <c r="G167" s="1">
         <v>93</v>
       </c>
       <c r="H167" s="2">
-        <v>22834</v>
+        <v>2.2833999999999999</v>
       </c>
       <c r="I167" s="1">
         <v>5</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="2">
-        <v>201019</v>
+        <v>2.0101900000000001</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -7808,13 +7808,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F168" s="2">
-        <v>7929</v>
+        <v>7.9290000000000003</v>
       </c>
       <c r="G168" s="1">
         <v>96.2</v>
       </c>
       <c r="H168" s="2">
-        <v>20459</v>
+        <v>2.0459000000000001</v>
       </c>
       <c r="I168" s="1">
         <v>5</v>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="2">
-        <v>180028</v>
+        <v>1.8002800000000001</v>
       </c>
       <c r="B169" s="1">
         <v>0</v>
@@ -7852,13 +7852,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F169" s="2">
-        <v>5877</v>
+        <v>5.8769999999999998</v>
       </c>
       <c r="G169" s="1">
         <v>79.2</v>
       </c>
       <c r="H169" s="2">
-        <v>24259</v>
+        <v>2.4258999999999999</v>
       </c>
       <c r="I169" s="1">
         <v>5</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="2">
-        <v>23004</v>
+        <v>2.3003999999999998</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F170" s="2">
-        <v>6319</v>
+        <v>6.319</v>
       </c>
       <c r="G170" s="1">
         <v>96.1</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="2">
-        <v>244953</v>
+        <v>2.4495300000000002</v>
       </c>
       <c r="B171" s="1">
         <v>0</v>
@@ -7940,13 +7940,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F171" s="2">
-        <v>6402</v>
+        <v>6.4020000000000001</v>
       </c>
       <c r="G171" s="1">
         <v>95.2</v>
       </c>
       <c r="H171" s="2">
-        <v>22625</v>
+        <v>2.2625000000000002</v>
       </c>
       <c r="I171" s="1">
         <v>5</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="2">
-        <v>120742</v>
+        <v>1.2074199999999999</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -7984,13 +7984,13 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="F172" s="2">
-        <v>5875</v>
+        <v>5.875</v>
       </c>
       <c r="G172" s="1">
         <v>94.6</v>
       </c>
       <c r="H172" s="2">
-        <v>24259</v>
+        <v>2.4258999999999999</v>
       </c>
       <c r="I172" s="1">
         <v>5</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="2">
-        <v>23139</v>
+        <v>2.3138999999999998</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>97.3</v>
       </c>
       <c r="H173" s="2">
-        <v>23887</v>
+        <v>2.3887</v>
       </c>
       <c r="I173" s="1">
         <v>5</v>
@@ -8072,13 +8072,13 @@
         <v>0.51</v>
       </c>
       <c r="F174" s="2">
-        <v>5572</v>
+        <v>5.5720000000000001</v>
       </c>
       <c r="G174" s="1">
         <v>88.5</v>
       </c>
       <c r="H174" s="2">
-        <v>25961</v>
+        <v>2.5960999999999999</v>
       </c>
       <c r="I174" s="1">
         <v>5</v>
@@ -8116,13 +8116,13 @@
         <v>0.51</v>
       </c>
       <c r="F175" s="2">
-        <v>6416</v>
+        <v>6.4160000000000004</v>
       </c>
       <c r="G175" s="1">
         <v>84.1</v>
       </c>
       <c r="H175" s="2">
-        <v>26463</v>
+        <v>2.6463000000000001</v>
       </c>
       <c r="I175" s="1">
         <v>5</v>
@@ -8160,13 +8160,13 @@
         <v>0.51</v>
       </c>
       <c r="F176" s="2">
-        <v>5859</v>
+        <v>5.859</v>
       </c>
       <c r="G176" s="1">
         <v>68.7</v>
       </c>
       <c r="H176" s="2">
-        <v>27019</v>
+        <v>2.7019000000000002</v>
       </c>
       <c r="I176" s="1">
         <v>5</v>
@@ -8204,13 +8204,13 @@
         <v>0.51</v>
       </c>
       <c r="F177" s="2">
-        <v>6546</v>
+        <v>6.5460000000000003</v>
       </c>
       <c r="G177" s="1">
         <v>33.1</v>
       </c>
       <c r="H177" s="2">
-        <v>31323</v>
+        <v>3.1322999999999999</v>
       </c>
       <c r="I177" s="1">
         <v>5</v>
@@ -8254,7 +8254,7 @@
         <v>47.2</v>
       </c>
       <c r="H178" s="2">
-        <v>35549</v>
+        <v>3.5548999999999999</v>
       </c>
       <c r="I178" s="1">
         <v>5</v>
@@ -8292,13 +8292,13 @@
         <v>0.51</v>
       </c>
       <c r="F179" s="2">
-        <v>6315</v>
+        <v>6.3150000000000004</v>
       </c>
       <c r="G179" s="1">
         <v>73.400000000000006</v>
       </c>
       <c r="H179" s="2">
-        <v>33175</v>
+        <v>3.3174999999999999</v>
       </c>
       <c r="I179" s="1">
         <v>5</v>
@@ -8342,7 +8342,7 @@
         <v>74.400000000000006</v>
       </c>
       <c r="H180" s="2">
-        <v>29153</v>
+        <v>2.9152999999999998</v>
       </c>
       <c r="I180" s="1">
         <v>5</v>
@@ -8386,7 +8386,7 @@
         <v>58.4</v>
       </c>
       <c r="H181" s="2">
-        <v>2829</v>
+        <v>2.8290000000000002</v>
       </c>
       <c r="I181" s="1">
         <v>3</v>
@@ -8424,13 +8424,13 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="F182" s="2">
-        <v>7765</v>
+        <v>7.7649999999999997</v>
       </c>
       <c r="G182" s="1">
         <v>83.3</v>
       </c>
       <c r="H182" s="2">
-        <v>2741</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="I182" s="1">
         <v>3</v>
@@ -8468,13 +8468,13 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="F183" s="2">
-        <v>6144</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="G183" s="1">
         <v>62.2</v>
       </c>
       <c r="H183" s="2">
-        <v>25979</v>
+        <v>2.5979000000000001</v>
       </c>
       <c r="I183" s="1">
         <v>3</v>
@@ -8512,13 +8512,13 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="F184" s="2">
-        <v>7155</v>
+        <v>7.1550000000000002</v>
       </c>
       <c r="G184" s="1">
         <v>92.2</v>
       </c>
       <c r="H184" s="2">
-        <v>27006</v>
+        <v>2.7006000000000001</v>
       </c>
       <c r="I184" s="1">
         <v>3</v>
@@ -8556,13 +8556,13 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="F185" s="2">
-        <v>6563</v>
+        <v>6.5629999999999997</v>
       </c>
       <c r="G185" s="1">
         <v>95.6</v>
       </c>
       <c r="H185" s="2">
-        <v>2847</v>
+        <v>2.847</v>
       </c>
       <c r="I185" s="1">
         <v>3</v>
@@ -8600,13 +8600,13 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="F186" s="2">
-        <v>5604</v>
+        <v>5.6040000000000001</v>
       </c>
       <c r="G186" s="1">
         <v>89.8</v>
       </c>
       <c r="H186" s="2">
-        <v>29879</v>
+        <v>2.9878999999999998</v>
       </c>
       <c r="I186" s="1">
         <v>3</v>
@@ -8644,13 +8644,13 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="F187" s="2">
-        <v>6153</v>
+        <v>6.1529999999999996</v>
       </c>
       <c r="G187" s="1">
         <v>68.8</v>
       </c>
       <c r="H187" s="2">
-        <v>32797</v>
+        <v>3.2797000000000001</v>
       </c>
       <c r="I187" s="1">
         <v>3</v>
@@ -8688,13 +8688,13 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="F188" s="2">
-        <v>7831</v>
+        <v>7.8310000000000004</v>
       </c>
       <c r="G188" s="1">
         <v>53.6</v>
       </c>
       <c r="H188" s="2">
-        <v>31992</v>
+        <v>3.1991999999999998</v>
       </c>
       <c r="I188" s="1">
         <v>3</v>
@@ -8732,13 +8732,13 @@
         <v>0.437</v>
       </c>
       <c r="F189" s="2">
-        <v>6782</v>
+        <v>6.782</v>
       </c>
       <c r="G189" s="1">
         <v>41.1</v>
       </c>
       <c r="H189" s="2">
-        <v>37886</v>
+        <v>3.7886000000000002</v>
       </c>
       <c r="I189" s="1">
         <v>5</v>
@@ -8776,13 +8776,13 @@
         <v>0.437</v>
       </c>
       <c r="F190" s="2">
-        <v>6556</v>
+        <v>6.556</v>
       </c>
       <c r="G190" s="1">
         <v>29.1</v>
       </c>
       <c r="H190" s="2">
-        <v>45667</v>
+        <v>4.5667</v>
       </c>
       <c r="I190" s="1">
         <v>5</v>
@@ -8820,13 +8820,13 @@
         <v>0.437</v>
       </c>
       <c r="F191" s="2">
-        <v>7185</v>
+        <v>7.1849999999999996</v>
       </c>
       <c r="G191" s="1">
         <v>38.9</v>
       </c>
       <c r="H191" s="2">
-        <v>45667</v>
+        <v>4.5667</v>
       </c>
       <c r="I191" s="1">
         <v>5</v>
@@ -8864,13 +8864,13 @@
         <v>0.437</v>
       </c>
       <c r="F192" s="2">
-        <v>6951</v>
+        <v>6.9509999999999996</v>
       </c>
       <c r="G192" s="1">
         <v>21.5</v>
       </c>
       <c r="H192" s="2">
-        <v>64798</v>
+        <v>6.4798</v>
       </c>
       <c r="I192" s="1">
         <v>5</v>
@@ -8908,13 +8908,13 @@
         <v>0.437</v>
       </c>
       <c r="F193" s="2">
-        <v>6739</v>
+        <v>6.7389999999999999</v>
       </c>
       <c r="G193" s="1">
         <v>30.8</v>
       </c>
       <c r="H193" s="2">
-        <v>64798</v>
+        <v>6.4798</v>
       </c>
       <c r="I193" s="1">
         <v>5</v>
@@ -8952,13 +8952,13 @@
         <v>0.437</v>
       </c>
       <c r="F194" s="2">
-        <v>7178</v>
+        <v>7.1779999999999999</v>
       </c>
       <c r="G194" s="1">
         <v>26.3</v>
       </c>
       <c r="H194" s="2">
-        <v>64798</v>
+        <v>6.4798</v>
       </c>
       <c r="I194" s="1">
         <v>5</v>
@@ -9002,7 +9002,7 @@
         <v>9.9</v>
       </c>
       <c r="H195" s="2">
-        <v>62196</v>
+        <v>6.2195999999999998</v>
       </c>
       <c r="I195" s="1">
         <v>1</v>
@@ -9040,13 +9040,13 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="F196" s="2">
-        <v>6604</v>
+        <v>6.6040000000000001</v>
       </c>
       <c r="G196" s="1">
         <v>18.8</v>
       </c>
       <c r="H196" s="2">
-        <v>62196</v>
+        <v>6.2195999999999998</v>
       </c>
       <c r="I196" s="1">
         <v>1</v>
@@ -9084,13 +9084,13 @@
         <v>0.42199999999999999</v>
       </c>
       <c r="F197" s="2">
-        <v>7875</v>
+        <v>7.875</v>
       </c>
       <c r="G197" s="1">
         <v>32</v>
       </c>
       <c r="H197" s="2">
-        <v>56484</v>
+        <v>5.6483999999999996</v>
       </c>
       <c r="I197" s="1">
         <v>4</v>
@@ -9128,13 +9128,13 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="F198" s="2">
-        <v>7287</v>
+        <v>7.2869999999999999</v>
       </c>
       <c r="G198" s="1">
         <v>34.1</v>
       </c>
       <c r="H198" s="2">
-        <v>7309</v>
+        <v>7.3090000000000002</v>
       </c>
       <c r="I198" s="1">
         <v>2</v>
@@ -9172,13 +9172,13 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="F199" s="2">
-        <v>7107</v>
+        <v>7.1070000000000002</v>
       </c>
       <c r="G199" s="1">
         <v>36.6</v>
       </c>
       <c r="H199" s="2">
-        <v>7309</v>
+        <v>7.3090000000000002</v>
       </c>
       <c r="I199" s="1">
         <v>2</v>
@@ -9216,13 +9216,13 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="F200" s="2">
-        <v>7274</v>
+        <v>7.274</v>
       </c>
       <c r="G200" s="1">
         <v>38.299999999999997</v>
       </c>
       <c r="H200" s="2">
-        <v>7309</v>
+        <v>7.3090000000000002</v>
       </c>
       <c r="I200" s="1">
         <v>2</v>
@@ -9260,13 +9260,13 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F201" s="2">
-        <v>6975</v>
+        <v>6.9749999999999996</v>
       </c>
       <c r="G201" s="1">
         <v>15.3</v>
       </c>
       <c r="H201" s="2">
-        <v>76534</v>
+        <v>7.6534000000000004</v>
       </c>
       <c r="I201" s="1">
         <v>3</v>
@@ -9304,13 +9304,13 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F202" s="2">
-        <v>7135</v>
+        <v>7.1349999999999998</v>
       </c>
       <c r="G202" s="1">
         <v>13.9</v>
       </c>
       <c r="H202" s="2">
-        <v>76534</v>
+        <v>7.6534000000000004</v>
       </c>
       <c r="I202" s="1">
         <v>3</v>
@@ -9348,7 +9348,7 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="F203" s="2">
-        <v>6162</v>
+        <v>6.1619999999999999</v>
       </c>
       <c r="G203" s="1">
         <v>38.4</v>
@@ -9436,13 +9436,13 @@
         <v>0.41610000000000003</v>
       </c>
       <c r="F205" s="2">
-        <v>7853</v>
+        <v>7.8529999999999998</v>
       </c>
       <c r="G205" s="1">
         <v>33.200000000000003</v>
       </c>
       <c r="H205" s="2">
-        <v>5118</v>
+        <v>5.1180000000000003</v>
       </c>
       <c r="I205" s="1">
         <v>4</v>
@@ -9480,13 +9480,13 @@
         <v>0.41610000000000003</v>
       </c>
       <c r="F206" s="2">
-        <v>8034</v>
+        <v>8.0340000000000007</v>
       </c>
       <c r="G206" s="1">
         <v>31.9</v>
       </c>
       <c r="H206" s="2">
-        <v>5118</v>
+        <v>5.1180000000000003</v>
       </c>
       <c r="I206" s="1">
         <v>4</v>
@@ -9524,13 +9524,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F207" s="2">
-        <v>5891</v>
+        <v>5.891</v>
       </c>
       <c r="G207" s="1">
         <v>22.3</v>
       </c>
       <c r="H207" s="2">
-        <v>39454</v>
+        <v>3.9453999999999998</v>
       </c>
       <c r="I207" s="1">
         <v>4</v>
@@ -9568,13 +9568,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F208" s="2">
-        <v>6326</v>
+        <v>6.3259999999999996</v>
       </c>
       <c r="G208" s="1">
         <v>52.5</v>
       </c>
       <c r="H208" s="2">
-        <v>43549</v>
+        <v>4.3548999999999998</v>
       </c>
       <c r="I208" s="1">
         <v>4</v>
@@ -9612,13 +9612,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F209" s="2">
-        <v>5783</v>
+        <v>5.7830000000000004</v>
       </c>
       <c r="G209" s="1">
         <v>72.7</v>
       </c>
       <c r="H209" s="2">
-        <v>43549</v>
+        <v>4.3548999999999998</v>
       </c>
       <c r="I209" s="1">
         <v>4</v>
@@ -9656,13 +9656,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F210" s="2">
-        <v>6064</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="G210" s="1">
         <v>59.1</v>
       </c>
       <c r="H210" s="2">
-        <v>42392</v>
+        <v>4.2392000000000003</v>
       </c>
       <c r="I210" s="1">
         <v>4</v>
@@ -9700,13 +9700,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F211" s="2">
-        <v>5344</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="G211" s="1">
         <v>100</v>
       </c>
       <c r="H211" s="2">
-        <v>3875</v>
+        <v>3.875</v>
       </c>
       <c r="I211" s="1">
         <v>4</v>
@@ -9750,7 +9750,7 @@
         <v>92.1</v>
       </c>
       <c r="H212" s="2">
-        <v>38771</v>
+        <v>3.8771</v>
       </c>
       <c r="I212" s="1">
         <v>4</v>
@@ -9788,13 +9788,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F213" s="2">
-        <v>5404</v>
+        <v>5.4039999999999999</v>
       </c>
       <c r="G213" s="1">
         <v>88.6</v>
       </c>
       <c r="H213" s="2">
-        <v>3665</v>
+        <v>3.665</v>
       </c>
       <c r="I213" s="1">
         <v>4</v>
@@ -9832,13 +9832,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F214" s="2">
-        <v>5807</v>
+        <v>5.8070000000000004</v>
       </c>
       <c r="G214" s="1">
         <v>53.8</v>
       </c>
       <c r="H214" s="2">
-        <v>36526</v>
+        <v>3.6526000000000001</v>
       </c>
       <c r="I214" s="1">
         <v>4</v>
@@ -9876,13 +9876,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F215" s="2">
-        <v>6375</v>
+        <v>6.375</v>
       </c>
       <c r="G215" s="1">
         <v>32.299999999999997</v>
       </c>
       <c r="H215" s="2">
-        <v>39454</v>
+        <v>3.9453999999999998</v>
       </c>
       <c r="I215" s="1">
         <v>4</v>
@@ -9920,13 +9920,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F216" s="2">
-        <v>5412</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="G216" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="H216" s="2">
-        <v>35875</v>
+        <v>3.5874999999999999</v>
       </c>
       <c r="I216" s="1">
         <v>4</v>
@@ -9964,13 +9964,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F217" s="2">
-        <v>6182</v>
+        <v>6.1820000000000004</v>
       </c>
       <c r="G217" s="1">
         <v>42.4</v>
       </c>
       <c r="H217" s="2">
-        <v>39454</v>
+        <v>3.9453999999999998</v>
       </c>
       <c r="I217" s="1">
         <v>4</v>
@@ -10008,13 +10008,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F218" s="2">
-        <v>5888</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="G218" s="1">
         <v>56</v>
       </c>
       <c r="H218" s="2">
-        <v>31121</v>
+        <v>3.1120999999999999</v>
       </c>
       <c r="I218" s="1">
         <v>5</v>
@@ -10052,13 +10052,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F219" s="2">
-        <v>6642</v>
+        <v>6.6420000000000003</v>
       </c>
       <c r="G219" s="1">
         <v>85.1</v>
       </c>
       <c r="H219" s="2">
-        <v>34211</v>
+        <v>3.4211</v>
       </c>
       <c r="I219" s="1">
         <v>5</v>
@@ -10096,13 +10096,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F220" s="2">
-        <v>5951</v>
+        <v>5.9509999999999996</v>
       </c>
       <c r="G220" s="1">
         <v>93.8</v>
       </c>
       <c r="H220" s="2">
-        <v>28893</v>
+        <v>2.8893</v>
       </c>
       <c r="I220" s="1">
         <v>5</v>
@@ -10140,13 +10140,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F221" s="2">
-        <v>6373</v>
+        <v>6.3730000000000002</v>
       </c>
       <c r="G221" s="1">
         <v>92.4</v>
       </c>
       <c r="H221" s="2">
-        <v>33633</v>
+        <v>3.3633000000000002</v>
       </c>
       <c r="I221" s="1">
         <v>5</v>
@@ -10184,13 +10184,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F222" s="2">
-        <v>6951</v>
+        <v>6.9509999999999996</v>
       </c>
       <c r="G222" s="1">
         <v>88.5</v>
       </c>
       <c r="H222" s="2">
-        <v>28617</v>
+        <v>2.8616999999999999</v>
       </c>
       <c r="I222" s="1">
         <v>8</v>
@@ -10228,13 +10228,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F223" s="2">
-        <v>6164</v>
+        <v>6.1639999999999997</v>
       </c>
       <c r="G223" s="1">
         <v>91.3</v>
       </c>
       <c r="H223" s="2">
-        <v>3048</v>
+        <v>3.048</v>
       </c>
       <c r="I223" s="1">
         <v>8</v>
@@ -10272,13 +10272,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F224" s="2">
-        <v>6879</v>
+        <v>6.8789999999999996</v>
       </c>
       <c r="G224" s="1">
         <v>77.7</v>
       </c>
       <c r="H224" s="2">
-        <v>32721</v>
+        <v>3.2721</v>
       </c>
       <c r="I224" s="1">
         <v>8</v>
@@ -10316,13 +10316,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F225" s="2">
-        <v>6618</v>
+        <v>6.6180000000000003</v>
       </c>
       <c r="G225" s="1">
         <v>80.8</v>
       </c>
       <c r="H225" s="2">
-        <v>32721</v>
+        <v>3.2721</v>
       </c>
       <c r="I225" s="1">
         <v>8</v>
@@ -10360,13 +10360,13 @@
         <v>0.504</v>
       </c>
       <c r="F226" s="2">
-        <v>8266</v>
+        <v>8.266</v>
       </c>
       <c r="G226" s="1">
         <v>78.3</v>
       </c>
       <c r="H226" s="2">
-        <v>28944</v>
+        <v>2.8944000000000001</v>
       </c>
       <c r="I226" s="1">
         <v>8</v>
@@ -10404,13 +10404,13 @@
         <v>0.504</v>
       </c>
       <c r="F227" s="2">
-        <v>8725</v>
+        <v>8.7249999999999996</v>
       </c>
       <c r="G227" s="1">
         <v>83</v>
       </c>
       <c r="H227" s="2">
-        <v>28944</v>
+        <v>2.8944000000000001</v>
       </c>
       <c r="I227" s="1">
         <v>8</v>
@@ -10454,7 +10454,7 @@
         <v>86.5</v>
       </c>
       <c r="H228" s="2">
-        <v>32157</v>
+        <v>3.2157</v>
       </c>
       <c r="I228" s="1">
         <v>8</v>
@@ -10492,13 +10492,13 @@
         <v>0.504</v>
       </c>
       <c r="F229" s="2">
-        <v>7163</v>
+        <v>7.1630000000000003</v>
       </c>
       <c r="G229" s="1">
         <v>79.900000000000006</v>
       </c>
       <c r="H229" s="2">
-        <v>32157</v>
+        <v>3.2157</v>
       </c>
       <c r="I229" s="1">
         <v>8</v>
@@ -10536,13 +10536,13 @@
         <v>0.504</v>
       </c>
       <c r="F230" s="2">
-        <v>7686</v>
+        <v>7.6859999999999999</v>
       </c>
       <c r="G230" s="1">
         <v>17</v>
       </c>
       <c r="H230" s="2">
-        <v>33751</v>
+        <v>3.3751000000000002</v>
       </c>
       <c r="I230" s="1">
         <v>8</v>
@@ -10580,13 +10580,13 @@
         <v>0.504</v>
       </c>
       <c r="F231" s="2">
-        <v>6552</v>
+        <v>6.5519999999999996</v>
       </c>
       <c r="G231" s="1">
         <v>21.4</v>
       </c>
       <c r="H231" s="2">
-        <v>33751</v>
+        <v>3.3751000000000002</v>
       </c>
       <c r="I231" s="1">
         <v>8</v>
@@ -10624,13 +10624,13 @@
         <v>0.504</v>
       </c>
       <c r="F232" s="2">
-        <v>5981</v>
+        <v>5.9809999999999999</v>
       </c>
       <c r="G232" s="1">
         <v>68.099999999999994</v>
       </c>
       <c r="H232" s="2">
-        <v>36715</v>
+        <v>3.6715</v>
       </c>
       <c r="I232" s="1">
         <v>8</v>
@@ -10668,13 +10668,13 @@
         <v>0.504</v>
       </c>
       <c r="F233" s="2">
-        <v>7412</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="G233" s="1">
         <v>76.900000000000006</v>
       </c>
       <c r="H233" s="2">
-        <v>36715</v>
+        <v>3.6715</v>
       </c>
       <c r="I233" s="1">
         <v>8</v>
@@ -10712,13 +10712,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F234" s="2">
-        <v>8337</v>
+        <v>8.3369999999999997</v>
       </c>
       <c r="G234" s="1">
         <v>73.3</v>
       </c>
       <c r="H234" s="2">
-        <v>38384</v>
+        <v>3.8384</v>
       </c>
       <c r="I234" s="1">
         <v>8</v>
@@ -10756,13 +10756,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F235" s="2">
-        <v>8247</v>
+        <v>8.2469999999999999</v>
       </c>
       <c r="G235" s="1">
         <v>70.400000000000006</v>
       </c>
       <c r="H235" s="2">
-        <v>36519</v>
+        <v>3.6518999999999999</v>
       </c>
       <c r="I235" s="1">
         <v>8</v>
@@ -10800,13 +10800,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F236" s="2">
-        <v>6726</v>
+        <v>6.726</v>
       </c>
       <c r="G236" s="1">
         <v>66.5</v>
       </c>
       <c r="H236" s="2">
-        <v>36519</v>
+        <v>3.6518999999999999</v>
       </c>
       <c r="I236" s="1">
         <v>8</v>
@@ -10844,13 +10844,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F237" s="2">
-        <v>6086</v>
+        <v>6.0860000000000003</v>
       </c>
       <c r="G237" s="1">
         <v>61.5</v>
       </c>
       <c r="H237" s="2">
-        <v>36519</v>
+        <v>3.6518999999999999</v>
       </c>
       <c r="I237" s="1">
         <v>8</v>
@@ -10888,13 +10888,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F238" s="2">
-        <v>6631</v>
+        <v>6.6310000000000002</v>
       </c>
       <c r="G238" s="1">
         <v>76.5</v>
       </c>
       <c r="H238" s="2">
-        <v>4148</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="I238" s="1">
         <v>8</v>
@@ -10932,13 +10932,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="F239" s="2">
-        <v>7358</v>
+        <v>7.3579999999999997</v>
       </c>
       <c r="G239" s="1">
         <v>71.599999999999994</v>
       </c>
       <c r="H239" s="2">
-        <v>4148</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="I239" s="1">
         <v>8</v>
@@ -10976,13 +10976,13 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="F240" s="2">
-        <v>6481</v>
+        <v>6.4809999999999999</v>
       </c>
       <c r="G240" s="1">
         <v>18.5</v>
       </c>
       <c r="H240" s="2">
-        <v>61899</v>
+        <v>6.1898999999999997</v>
       </c>
       <c r="I240" s="1">
         <v>6</v>
@@ -11020,13 +11020,13 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="F241" s="2">
-        <v>6606</v>
+        <v>6.6059999999999999</v>
       </c>
       <c r="G241" s="1">
         <v>42.2</v>
       </c>
       <c r="H241" s="2">
-        <v>61899</v>
+        <v>6.1898999999999997</v>
       </c>
       <c r="I241" s="1">
         <v>6</v>
@@ -11064,13 +11064,13 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="F242" s="2">
-        <v>6897</v>
+        <v>6.8970000000000002</v>
       </c>
       <c r="G242" s="1">
         <v>54.3</v>
       </c>
       <c r="H242" s="2">
-        <v>63361</v>
+        <v>6.3361000000000001</v>
       </c>
       <c r="I242" s="1">
         <v>6</v>
@@ -11108,13 +11108,13 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="F243" s="2">
-        <v>6095</v>
+        <v>6.0949999999999998</v>
       </c>
       <c r="G243" s="1">
         <v>65.099999999999994</v>
       </c>
       <c r="H243" s="2">
-        <v>63361</v>
+        <v>6.3361000000000001</v>
       </c>
       <c r="I243" s="1">
         <v>6</v>
@@ -11152,13 +11152,13 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="F244" s="2">
-        <v>6358</v>
+        <v>6.3579999999999997</v>
       </c>
       <c r="G244" s="1">
         <v>52.9</v>
       </c>
       <c r="H244" s="2">
-        <v>70355</v>
+        <v>7.0354999999999999</v>
       </c>
       <c r="I244" s="1">
         <v>6</v>
@@ -11196,13 +11196,13 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="F245" s="2">
-        <v>6393</v>
+        <v>6.3929999999999998</v>
       </c>
       <c r="G245" s="1">
         <v>7.8</v>
       </c>
       <c r="H245" s="2">
-        <v>70355</v>
+        <v>7.0354999999999999</v>
       </c>
       <c r="I245" s="1">
         <v>6</v>
@@ -11240,13 +11240,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F246" s="2">
-        <v>5593</v>
+        <v>5.593</v>
       </c>
       <c r="G246" s="1">
         <v>76.5</v>
       </c>
       <c r="H246" s="2">
-        <v>79549</v>
+        <v>7.9549000000000003</v>
       </c>
       <c r="I246" s="1">
         <v>7</v>
@@ -11284,13 +11284,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F247" s="2">
-        <v>5605</v>
+        <v>5.6050000000000004</v>
       </c>
       <c r="G247" s="1">
         <v>70.2</v>
       </c>
       <c r="H247" s="2">
-        <v>79549</v>
+        <v>7.9549000000000003</v>
       </c>
       <c r="I247" s="1">
         <v>7</v>
@@ -11328,13 +11328,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F248" s="2">
-        <v>6108</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="G248" s="1">
         <v>34.9</v>
       </c>
       <c r="H248" s="2">
-        <v>80555</v>
+        <v>8.0555000000000003</v>
       </c>
       <c r="I248" s="1">
         <v>7</v>
@@ -11372,13 +11372,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F249" s="2">
-        <v>6226</v>
+        <v>6.226</v>
       </c>
       <c r="G249" s="1">
         <v>79.2</v>
       </c>
       <c r="H249" s="2">
-        <v>80555</v>
+        <v>8.0555000000000003</v>
       </c>
       <c r="I249" s="1">
         <v>7</v>
@@ -11416,13 +11416,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F250" s="2">
-        <v>6433</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="G250" s="1">
         <v>49.1</v>
       </c>
       <c r="H250" s="2">
-        <v>78265</v>
+        <v>7.8265000000000002</v>
       </c>
       <c r="I250" s="1">
         <v>7</v>
@@ -11460,13 +11460,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F251" s="2">
-        <v>6718</v>
+        <v>6.718</v>
       </c>
       <c r="G251" s="1">
         <v>17.5</v>
       </c>
       <c r="H251" s="2">
-        <v>78265</v>
+        <v>7.8265000000000002</v>
       </c>
       <c r="I251" s="1">
         <v>7</v>
@@ -11504,13 +11504,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F252" s="2">
-        <v>6487</v>
+        <v>6.4870000000000001</v>
       </c>
       <c r="G252" s="1">
         <v>13</v>
       </c>
       <c r="H252" s="2">
-        <v>73967</v>
+        <v>7.3967000000000001</v>
       </c>
       <c r="I252" s="1">
         <v>7</v>
@@ -11548,13 +11548,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F253" s="2">
-        <v>6438</v>
+        <v>6.4379999999999997</v>
       </c>
       <c r="G253" s="1">
         <v>8.9</v>
       </c>
       <c r="H253" s="2">
-        <v>73967</v>
+        <v>7.3967000000000001</v>
       </c>
       <c r="I253" s="1">
         <v>7</v>
@@ -11592,13 +11592,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F254" s="2">
-        <v>6957</v>
+        <v>6.9569999999999999</v>
       </c>
       <c r="G254" s="1">
         <v>6.8</v>
       </c>
       <c r="H254" s="2">
-        <v>89067</v>
+        <v>8.9067000000000007</v>
       </c>
       <c r="I254" s="1">
         <v>7</v>
@@ -11636,13 +11636,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F255" s="2">
-        <v>8259</v>
+        <v>8.2590000000000003</v>
       </c>
       <c r="G255" s="1">
         <v>8.4</v>
       </c>
       <c r="H255" s="2">
-        <v>89067</v>
+        <v>8.9067000000000007</v>
       </c>
       <c r="I255" s="1">
         <v>7</v>
@@ -11680,13 +11680,13 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="F256" s="2">
-        <v>6108</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="G256" s="1">
         <v>32</v>
       </c>
       <c r="H256" s="2">
-        <v>92203</v>
+        <v>9.2202999999999999</v>
       </c>
       <c r="I256" s="1">
         <v>1</v>
@@ -11724,13 +11724,13 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="F257" s="2">
-        <v>5876</v>
+        <v>5.8760000000000003</v>
       </c>
       <c r="G257" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="H257" s="2">
-        <v>92203</v>
+        <v>9.2202999999999999</v>
       </c>
       <c r="I257" s="1">
         <v>1</v>
@@ -11768,13 +11768,13 @@
         <v>0.39400000000000002</v>
       </c>
       <c r="F258" s="2">
-        <v>7454</v>
+        <v>7.4539999999999997</v>
       </c>
       <c r="G258" s="1">
         <v>34.200000000000003</v>
       </c>
       <c r="H258" s="2">
-        <v>63361</v>
+        <v>6.3361000000000001</v>
       </c>
       <c r="I258" s="1">
         <v>3</v>
@@ -11812,13 +11812,13 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F259" s="2">
-        <v>8704</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="G259" s="1">
         <v>86.9</v>
       </c>
       <c r="H259" s="2">
-        <v>1801</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="I259" s="1">
         <v>5</v>
@@ -11856,13 +11856,13 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F260" s="2">
-        <v>7333</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="G260" s="1">
         <v>100</v>
       </c>
       <c r="H260" s="2">
-        <v>18946</v>
+        <v>1.8946000000000001</v>
       </c>
       <c r="I260" s="1">
         <v>5</v>
@@ -11900,13 +11900,13 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F261" s="2">
-        <v>6842</v>
+        <v>6.8419999999999996</v>
       </c>
       <c r="G261" s="1">
         <v>100</v>
       </c>
       <c r="H261" s="2">
-        <v>20107</v>
+        <v>2.0106999999999999</v>
       </c>
       <c r="I261" s="1">
         <v>5</v>
@@ -11944,13 +11944,13 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F262" s="2">
-        <v>7203</v>
+        <v>7.2030000000000003</v>
       </c>
       <c r="G262" s="1">
         <v>81.8</v>
       </c>
       <c r="H262" s="2">
-        <v>21121</v>
+        <v>2.1120999999999999</v>
       </c>
       <c r="I262" s="1">
         <v>5</v>
@@ -11994,7 +11994,7 @@
         <v>89.4</v>
       </c>
       <c r="H263" s="2">
-        <v>21398</v>
+        <v>2.1398000000000001</v>
       </c>
       <c r="I263" s="1">
         <v>5</v>
@@ -12032,13 +12032,13 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F264" s="2">
-        <v>8398</v>
+        <v>8.3979999999999997</v>
       </c>
       <c r="G264" s="1">
         <v>91.5</v>
       </c>
       <c r="H264" s="2">
-        <v>22885</v>
+        <v>2.2885</v>
       </c>
       <c r="I264" s="1">
         <v>5</v>
@@ -12076,13 +12076,13 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F265" s="2">
-        <v>7327</v>
+        <v>7.327</v>
       </c>
       <c r="G265" s="1">
         <v>94.5</v>
       </c>
       <c r="H265" s="2">
-        <v>20788</v>
+        <v>2.0788000000000002</v>
       </c>
       <c r="I265" s="1">
         <v>5</v>
@@ -12120,13 +12120,13 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F266" s="2">
-        <v>7206</v>
+        <v>7.2060000000000004</v>
       </c>
       <c r="G266" s="1">
         <v>91.6</v>
       </c>
       <c r="H266" s="2">
-        <v>19301</v>
+        <v>1.9300999999999999</v>
       </c>
       <c r="I266" s="1">
         <v>5</v>
@@ -12170,7 +12170,7 @@
         <v>62.8</v>
       </c>
       <c r="H267" s="2">
-        <v>19865</v>
+        <v>1.9864999999999999</v>
       </c>
       <c r="I267" s="1">
         <v>5</v>
@@ -12208,13 +12208,13 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F268" s="2">
-        <v>7014</v>
+        <v>7.0140000000000002</v>
       </c>
       <c r="G268" s="1">
         <v>84.6</v>
       </c>
       <c r="H268" s="2">
-        <v>21329</v>
+        <v>2.1328999999999998</v>
       </c>
       <c r="I268" s="1">
         <v>5</v>
@@ -12252,13 +12252,13 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="F269" s="2">
-        <v>8297</v>
+        <v>8.2970000000000006</v>
       </c>
       <c r="G269" s="1">
         <v>67</v>
       </c>
       <c r="H269" s="2">
-        <v>24216</v>
+        <v>2.4216000000000002</v>
       </c>
       <c r="I269" s="1">
         <v>5</v>
@@ -12302,7 +12302,7 @@
         <v>52.6</v>
       </c>
       <c r="H270" s="2">
-        <v>2872</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="I270" s="1">
         <v>5</v>
@@ -12346,7 +12346,7 @@
         <v>61.5</v>
       </c>
       <c r="H271" s="2">
-        <v>39175</v>
+        <v>3.9175</v>
       </c>
       <c r="I271" s="1">
         <v>3</v>
@@ -12384,13 +12384,13 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F272" s="2">
-        <v>5856</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="G272" s="1">
         <v>42.1</v>
       </c>
       <c r="H272" s="2">
-        <v>4429</v>
+        <v>4.4290000000000003</v>
       </c>
       <c r="I272" s="1">
         <v>3</v>
@@ -12434,7 +12434,7 @@
         <v>16.3</v>
       </c>
       <c r="H273" s="2">
-        <v>4429</v>
+        <v>4.4290000000000003</v>
       </c>
       <c r="I273" s="1">
         <v>3</v>
@@ -12472,13 +12472,13 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F274" s="2">
-        <v>6538</v>
+        <v>6.5380000000000003</v>
       </c>
       <c r="G274" s="1">
         <v>58.7</v>
       </c>
       <c r="H274" s="2">
-        <v>39175</v>
+        <v>3.9175</v>
       </c>
       <c r="I274" s="1">
         <v>3</v>
@@ -12516,13 +12516,13 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F275" s="2">
-        <v>7691</v>
+        <v>7.6909999999999998</v>
       </c>
       <c r="G275" s="1">
         <v>51.8</v>
       </c>
       <c r="H275" s="2">
-        <v>43665</v>
+        <v>4.3665000000000003</v>
       </c>
       <c r="I275" s="1">
         <v>3</v>
@@ -12560,13 +12560,13 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="F276" s="2">
-        <v>6758</v>
+        <v>6.758</v>
       </c>
       <c r="G276" s="1">
         <v>32.9</v>
       </c>
       <c r="H276" s="2">
-        <v>40776</v>
+        <v>4.0776000000000003</v>
       </c>
       <c r="I276" s="1">
         <v>4</v>
@@ -12604,13 +12604,13 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="F277" s="2">
-        <v>6854</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="G277" s="1">
         <v>42.8</v>
       </c>
       <c r="H277" s="2">
-        <v>42673</v>
+        <v>4.2672999999999996</v>
       </c>
       <c r="I277" s="1">
         <v>4</v>
@@ -12648,13 +12648,13 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="F278" s="2">
-        <v>7267</v>
+        <v>7.2670000000000003</v>
       </c>
       <c r="G278" s="1">
         <v>49</v>
       </c>
       <c r="H278" s="2">
-        <v>47872</v>
+        <v>4.7872000000000003</v>
       </c>
       <c r="I278" s="1">
         <v>4</v>
@@ -12692,13 +12692,13 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="F279" s="2">
-        <v>6826</v>
+        <v>6.8259999999999996</v>
       </c>
       <c r="G279" s="1">
         <v>27.6</v>
       </c>
       <c r="H279" s="2">
-        <v>48628</v>
+        <v>4.8628</v>
       </c>
       <c r="I279" s="1">
         <v>4</v>
@@ -12736,13 +12736,13 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="F280" s="2">
-        <v>6482</v>
+        <v>6.4820000000000002</v>
       </c>
       <c r="G280" s="1">
         <v>32.1</v>
       </c>
       <c r="H280" s="2">
-        <v>41403</v>
+        <v>4.1402999999999999</v>
       </c>
       <c r="I280" s="1">
         <v>4</v>
@@ -12780,13 +12780,13 @@
         <v>0.44290000000000002</v>
       </c>
       <c r="F281" s="2">
-        <v>6812</v>
+        <v>6.8120000000000003</v>
       </c>
       <c r="G281" s="1">
         <v>32.200000000000003</v>
       </c>
       <c r="H281" s="2">
-        <v>41007</v>
+        <v>4.1006999999999998</v>
       </c>
       <c r="I281" s="1">
         <v>5</v>
@@ -12830,7 +12830,7 @@
         <v>64.5</v>
       </c>
       <c r="H282" s="2">
-        <v>46947</v>
+        <v>4.6947000000000001</v>
       </c>
       <c r="I282" s="1">
         <v>5</v>
@@ -12868,13 +12868,13 @@
         <v>0.44290000000000002</v>
       </c>
       <c r="F283" s="2">
-        <v>6968</v>
+        <v>6.968</v>
       </c>
       <c r="G283" s="1">
         <v>37.200000000000003</v>
       </c>
       <c r="H283" s="2">
-        <v>52447</v>
+        <v>5.2446999999999999</v>
       </c>
       <c r="I283" s="1">
         <v>5</v>
@@ -12912,13 +12912,13 @@
         <v>0.44290000000000002</v>
       </c>
       <c r="F284" s="2">
-        <v>7645</v>
+        <v>7.6449999999999996</v>
       </c>
       <c r="G284" s="1">
         <v>49.7</v>
       </c>
       <c r="H284" s="2">
-        <v>52119</v>
+        <v>5.2119</v>
       </c>
       <c r="I284" s="1">
         <v>5</v>
@@ -12956,13 +12956,13 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="F285" s="2">
-        <v>7923</v>
+        <v>7.923</v>
       </c>
       <c r="G285" s="1">
         <v>24.8</v>
       </c>
       <c r="H285" s="2">
-        <v>5885</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="I285" s="1">
         <v>1</v>
@@ -13000,13 +13000,13 @@
         <v>0.4</v>
       </c>
       <c r="F286" s="2">
-        <v>7088</v>
+        <v>7.0880000000000001</v>
       </c>
       <c r="G286" s="1">
         <v>20.8</v>
       </c>
       <c r="H286" s="2">
-        <v>73073</v>
+        <v>7.3072999999999997</v>
       </c>
       <c r="I286" s="1">
         <v>1</v>
@@ -13044,13 +13044,13 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="F287" s="2">
-        <v>6453</v>
+        <v>6.4530000000000003</v>
       </c>
       <c r="G287" s="1">
         <v>31.9</v>
       </c>
       <c r="H287" s="2">
-        <v>73073</v>
+        <v>7.3072999999999997</v>
       </c>
       <c r="I287" s="1">
         <v>1</v>
@@ -13094,7 +13094,7 @@
         <v>31.5</v>
       </c>
       <c r="H288" s="2">
-        <v>90892</v>
+        <v>9.0891999999999999</v>
       </c>
       <c r="I288" s="1">
         <v>1</v>
@@ -13132,13 +13132,13 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="F289" s="2">
-        <v>6209</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="G289" s="1">
         <v>31.3</v>
       </c>
       <c r="H289" s="2">
-        <v>73172</v>
+        <v>7.3171999999999997</v>
       </c>
       <c r="I289" s="1">
         <v>6</v>
@@ -13176,13 +13176,13 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="F290" s="2">
-        <v>6315</v>
+        <v>6.3150000000000004</v>
       </c>
       <c r="G290" s="1">
         <v>45.6</v>
       </c>
       <c r="H290" s="2">
-        <v>73172</v>
+        <v>7.3171999999999997</v>
       </c>
       <c r="I290" s="1">
         <v>6</v>
@@ -13220,13 +13220,13 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="F291" s="2">
-        <v>6565</v>
+        <v>6.5650000000000004</v>
       </c>
       <c r="G291" s="1">
         <v>22.9</v>
       </c>
       <c r="H291" s="2">
-        <v>73172</v>
+        <v>7.3171999999999997</v>
       </c>
       <c r="I291" s="1">
         <v>6</v>
@@ -13264,13 +13264,13 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="F292" s="2">
-        <v>6861</v>
+        <v>6.8609999999999998</v>
       </c>
       <c r="G292" s="1">
         <v>27.9</v>
       </c>
       <c r="H292" s="2">
-        <v>51167</v>
+        <v>5.1166999999999998</v>
       </c>
       <c r="I292" s="1">
         <v>4</v>
@@ -13308,13 +13308,13 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="F293" s="2">
-        <v>7148</v>
+        <v>7.1479999999999997</v>
       </c>
       <c r="G293" s="1">
         <v>27.7</v>
       </c>
       <c r="H293" s="2">
-        <v>51167</v>
+        <v>5.1166999999999998</v>
       </c>
       <c r="I293" s="1">
         <v>4</v>
@@ -13358,7 +13358,7 @@
         <v>23.4</v>
       </c>
       <c r="H294" s="2">
-        <v>51167</v>
+        <v>5.1166999999999998</v>
       </c>
       <c r="I294" s="1">
         <v>4</v>
@@ -13396,13 +13396,13 @@
         <v>0.437</v>
       </c>
       <c r="F295" s="2">
-        <v>6127</v>
+        <v>6.1269999999999998</v>
       </c>
       <c r="G295" s="1">
         <v>18.399999999999999</v>
       </c>
       <c r="H295" s="2">
-        <v>55027</v>
+        <v>5.5026999999999999</v>
       </c>
       <c r="I295" s="1">
         <v>4</v>
@@ -13440,13 +13440,13 @@
         <v>0.437</v>
       </c>
       <c r="F296" s="2">
-        <v>6009</v>
+        <v>6.0090000000000003</v>
       </c>
       <c r="G296" s="1">
         <v>42.3</v>
       </c>
       <c r="H296" s="2">
-        <v>55027</v>
+        <v>5.5026999999999999</v>
       </c>
       <c r="I296" s="1">
         <v>4</v>
@@ -13484,13 +13484,13 @@
         <v>0.437</v>
       </c>
       <c r="F297" s="2">
-        <v>6678</v>
+        <v>6.6779999999999999</v>
       </c>
       <c r="G297" s="1">
         <v>31.1</v>
       </c>
       <c r="H297" s="2">
-        <v>59604</v>
+        <v>5.9603999999999999</v>
       </c>
       <c r="I297" s="1">
         <v>4</v>
@@ -13528,13 +13528,13 @@
         <v>0.437</v>
       </c>
       <c r="F298" s="2">
-        <v>6549</v>
+        <v>6.5490000000000004</v>
       </c>
       <c r="G298" s="1">
         <v>51</v>
       </c>
       <c r="H298" s="2">
-        <v>59604</v>
+        <v>5.9603999999999999</v>
       </c>
       <c r="I298" s="1">
         <v>4</v>
@@ -13616,13 +13616,13 @@
         <v>0.4</v>
       </c>
       <c r="F300" s="2">
-        <v>6345</v>
+        <v>6.3449999999999998</v>
       </c>
       <c r="G300" s="1">
         <v>20.100000000000001</v>
       </c>
       <c r="H300" s="2">
-        <v>78278</v>
+        <v>7.8277999999999999</v>
       </c>
       <c r="I300" s="1">
         <v>5</v>
@@ -13660,13 +13660,13 @@
         <v>0.4</v>
       </c>
       <c r="F301" s="2">
-        <v>7041</v>
+        <v>7.0410000000000004</v>
       </c>
       <c r="G301" s="1">
         <v>10</v>
       </c>
       <c r="H301" s="2">
-        <v>78278</v>
+        <v>7.8277999999999999</v>
       </c>
       <c r="I301" s="1">
         <v>5</v>
@@ -13704,13 +13704,13 @@
         <v>0.4</v>
       </c>
       <c r="F302" s="2">
-        <v>6871</v>
+        <v>6.8710000000000004</v>
       </c>
       <c r="G302" s="1">
         <v>47.4</v>
       </c>
       <c r="H302" s="2">
-        <v>78278</v>
+        <v>7.8277999999999999</v>
       </c>
       <c r="I302" s="1">
         <v>5</v>
@@ -13754,7 +13754,7 @@
         <v>40.4</v>
       </c>
       <c r="H303" s="2">
-        <v>54917</v>
+        <v>5.4916999999999998</v>
       </c>
       <c r="I303" s="1">
         <v>7</v>
@@ -13792,13 +13792,13 @@
         <v>0.433</v>
       </c>
       <c r="F304" s="2">
-        <v>6495</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="G304" s="1">
         <v>18.399999999999999</v>
       </c>
       <c r="H304" s="2">
-        <v>54917</v>
+        <v>5.4916999999999998</v>
       </c>
       <c r="I304" s="1">
         <v>7</v>
@@ -13836,13 +13836,13 @@
         <v>0.433</v>
       </c>
       <c r="F305" s="2">
-        <v>6982</v>
+        <v>6.9820000000000002</v>
       </c>
       <c r="G305" s="1">
         <v>17.7</v>
       </c>
       <c r="H305" s="2">
-        <v>54917</v>
+        <v>5.4916999999999998</v>
       </c>
       <c r="I305" s="1">
         <v>7</v>
@@ -13880,13 +13880,13 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="F306" s="2">
-        <v>7236</v>
+        <v>7.2359999999999998</v>
       </c>
       <c r="G306" s="1">
         <v>41.1</v>
       </c>
       <c r="H306" s="2">
-        <v>4022</v>
+        <v>4.0220000000000002</v>
       </c>
       <c r="I306" s="1">
         <v>7</v>
@@ -13924,7 +13924,7 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="F307" s="2">
-        <v>6616</v>
+        <v>6.6159999999999997</v>
       </c>
       <c r="G307" s="1">
         <v>58.1</v>
@@ -13974,7 +13974,7 @@
         <v>71.900000000000006</v>
       </c>
       <c r="H308" s="2">
-        <v>30992</v>
+        <v>3.0992000000000002</v>
       </c>
       <c r="I308" s="1">
         <v>7</v>
@@ -14012,13 +14012,13 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="F309" s="2">
-        <v>6849</v>
+        <v>6.8490000000000002</v>
       </c>
       <c r="G309" s="1">
         <v>70.3</v>
       </c>
       <c r="H309" s="2">
-        <v>31827</v>
+        <v>3.1827000000000001</v>
       </c>
       <c r="I309" s="1">
         <v>7</v>
@@ -14056,13 +14056,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F310" s="2">
-        <v>6635</v>
+        <v>6.6349999999999998</v>
       </c>
       <c r="G310" s="1">
         <v>82.5</v>
       </c>
       <c r="H310" s="2">
-        <v>33175</v>
+        <v>3.3174999999999999</v>
       </c>
       <c r="I310" s="1">
         <v>4</v>
@@ -14100,13 +14100,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F311" s="2">
-        <v>5972</v>
+        <v>5.9720000000000004</v>
       </c>
       <c r="G311" s="1">
         <v>76.7</v>
       </c>
       <c r="H311" s="2">
-        <v>31025</v>
+        <v>3.1025</v>
       </c>
       <c r="I311" s="1">
         <v>4</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="2">
-        <v>263548</v>
+        <v>2.6354799999999998</v>
       </c>
       <c r="B312" s="1">
         <v>0</v>
@@ -14144,13 +14144,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F312" s="2">
-        <v>4973</v>
+        <v>4.9729999999999999</v>
       </c>
       <c r="G312" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="H312" s="2">
-        <v>25194</v>
+        <v>2.5194000000000001</v>
       </c>
       <c r="I312" s="1">
         <v>4</v>
@@ -14188,13 +14188,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F313" s="2">
-        <v>6122</v>
+        <v>6.1219999999999999</v>
       </c>
       <c r="G313" s="1">
         <v>52.8</v>
       </c>
       <c r="H313" s="2">
-        <v>26403</v>
+        <v>2.6402999999999999</v>
       </c>
       <c r="I313" s="1">
         <v>4</v>
@@ -14232,13 +14232,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F314" s="2">
-        <v>6023</v>
+        <v>6.0229999999999997</v>
       </c>
       <c r="G314" s="1">
         <v>90.4</v>
       </c>
       <c r="H314" s="2">
-        <v>2834</v>
+        <v>2.8340000000000001</v>
       </c>
       <c r="I314" s="1">
         <v>4</v>
@@ -14276,13 +14276,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F315" s="2">
-        <v>6266</v>
+        <v>6.266</v>
       </c>
       <c r="G315" s="1">
         <v>82.8</v>
       </c>
       <c r="H315" s="2">
-        <v>32628</v>
+        <v>3.2627999999999999</v>
       </c>
       <c r="I315" s="1">
         <v>4</v>
@@ -14320,13 +14320,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F316" s="2">
-        <v>6567</v>
+        <v>6.5670000000000002</v>
       </c>
       <c r="G316" s="1">
         <v>87.3</v>
       </c>
       <c r="H316" s="2">
-        <v>36023</v>
+        <v>3.6023000000000001</v>
       </c>
       <c r="I316" s="1">
         <v>4</v>
@@ -14364,13 +14364,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F317" s="2">
-        <v>5705</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="G317" s="1">
         <v>77.7</v>
       </c>
       <c r="H317" s="2">
-        <v>3945</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="I317" s="1">
         <v>4</v>
@@ -14408,13 +14408,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F318" s="2">
-        <v>5914</v>
+        <v>5.9139999999999997</v>
       </c>
       <c r="G318" s="1">
         <v>83.2</v>
       </c>
       <c r="H318" s="2">
-        <v>39986</v>
+        <v>3.9986000000000002</v>
       </c>
       <c r="I318" s="1">
         <v>4</v>
@@ -14452,13 +14452,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F319" s="2">
-        <v>5782</v>
+        <v>5.782</v>
       </c>
       <c r="G319" s="1">
         <v>71.7</v>
       </c>
       <c r="H319" s="2">
-        <v>40317</v>
+        <v>4.0316999999999998</v>
       </c>
       <c r="I319" s="1">
         <v>4</v>
@@ -14496,13 +14496,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F320" s="2">
-        <v>6382</v>
+        <v>6.3819999999999997</v>
       </c>
       <c r="G320" s="1">
         <v>67.2</v>
       </c>
       <c r="H320" s="2">
-        <v>35325</v>
+        <v>3.5325000000000002</v>
       </c>
       <c r="I320" s="1">
         <v>4</v>
@@ -14540,13 +14540,13 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="F321" s="2">
-        <v>6113</v>
+        <v>6.1130000000000004</v>
       </c>
       <c r="G321" s="1">
         <v>58.8</v>
       </c>
       <c r="H321" s="2">
-        <v>40019</v>
+        <v>4.0019</v>
       </c>
       <c r="I321" s="1">
         <v>4</v>
@@ -14584,13 +14584,13 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F322" s="2">
-        <v>6426</v>
+        <v>6.4260000000000002</v>
       </c>
       <c r="G322" s="1">
         <v>52.3</v>
       </c>
       <c r="H322" s="2">
-        <v>45404</v>
+        <v>4.5404</v>
       </c>
       <c r="I322" s="1">
         <v>5</v>
@@ -14628,13 +14628,13 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F323" s="2">
-        <v>6376</v>
+        <v>6.3760000000000003</v>
       </c>
       <c r="G323" s="1">
         <v>54.3</v>
       </c>
       <c r="H323" s="2">
-        <v>45404</v>
+        <v>4.5404</v>
       </c>
       <c r="I323" s="1">
         <v>5</v>
@@ -14672,13 +14672,13 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F324" s="2">
-        <v>6041</v>
+        <v>6.0410000000000004</v>
       </c>
       <c r="G324" s="1">
         <v>49.9</v>
       </c>
       <c r="H324" s="2">
-        <v>47211</v>
+        <v>4.7210999999999999</v>
       </c>
       <c r="I324" s="1">
         <v>5</v>
@@ -14716,13 +14716,13 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F325" s="2">
-        <v>5708</v>
+        <v>5.7080000000000002</v>
       </c>
       <c r="G325" s="1">
         <v>74.3</v>
       </c>
       <c r="H325" s="2">
-        <v>47211</v>
+        <v>4.7210999999999999</v>
       </c>
       <c r="I325" s="1">
         <v>5</v>
@@ -14760,13 +14760,13 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F326" s="2">
-        <v>6415</v>
+        <v>6.415</v>
       </c>
       <c r="G326" s="1">
         <v>40.1</v>
       </c>
       <c r="H326" s="2">
-        <v>47211</v>
+        <v>4.7210999999999999</v>
       </c>
       <c r="I326" s="1">
         <v>5</v>
@@ -14804,13 +14804,13 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F327" s="2">
-        <v>6431</v>
+        <v>6.431</v>
       </c>
       <c r="G327" s="1">
         <v>14.7</v>
       </c>
       <c r="H327" s="2">
-        <v>54159</v>
+        <v>5.4158999999999997</v>
       </c>
       <c r="I327" s="1">
         <v>5</v>
@@ -14848,13 +14848,13 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F328" s="2">
-        <v>6312</v>
+        <v>6.3120000000000003</v>
       </c>
       <c r="G328" s="1">
         <v>28.9</v>
       </c>
       <c r="H328" s="2">
-        <v>54159</v>
+        <v>5.4158999999999997</v>
       </c>
       <c r="I328" s="1">
         <v>5</v>
@@ -14892,13 +14892,13 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F329" s="2">
-        <v>6083</v>
+        <v>6.0830000000000002</v>
       </c>
       <c r="G329" s="1">
         <v>43.7</v>
       </c>
       <c r="H329" s="2">
-        <v>54159</v>
+        <v>5.4158999999999997</v>
       </c>
       <c r="I329" s="1">
         <v>5</v>
@@ -14936,13 +14936,13 @@
         <v>0.46</v>
       </c>
       <c r="F330" s="2">
-        <v>5868</v>
+        <v>5.8680000000000003</v>
       </c>
       <c r="G330" s="1">
         <v>25.8</v>
       </c>
       <c r="H330" s="2">
-        <v>52146</v>
+        <v>5.2145999999999999</v>
       </c>
       <c r="I330" s="1">
         <v>4</v>
@@ -14980,13 +14980,13 @@
         <v>0.46</v>
       </c>
       <c r="F331" s="2">
-        <v>6333</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="G331" s="1">
         <v>17.2</v>
       </c>
       <c r="H331" s="2">
-        <v>52146</v>
+        <v>5.2145999999999999</v>
       </c>
       <c r="I331" s="1">
         <v>4</v>
@@ -15024,13 +15024,13 @@
         <v>0.46</v>
       </c>
       <c r="F332" s="2">
-        <v>6144</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="G332" s="1">
         <v>32.200000000000003</v>
       </c>
       <c r="H332" s="2">
-        <v>58736</v>
+        <v>5.8735999999999997</v>
       </c>
       <c r="I332" s="1">
         <v>4</v>
@@ -15068,13 +15068,13 @@
         <v>0.43790000000000001</v>
       </c>
       <c r="F333" s="2">
-        <v>5706</v>
+        <v>5.7060000000000004</v>
       </c>
       <c r="G333" s="1">
         <v>28.4</v>
       </c>
       <c r="H333" s="2">
-        <v>66407</v>
+        <v>6.6406999999999998</v>
       </c>
       <c r="I333" s="1">
         <v>1</v>
@@ -15112,13 +15112,13 @@
         <v>0.43790000000000001</v>
       </c>
       <c r="F334" s="2">
-        <v>6031</v>
+        <v>6.0309999999999997</v>
       </c>
       <c r="G334" s="1">
         <v>23.3</v>
       </c>
       <c r="H334" s="2">
-        <v>66407</v>
+        <v>6.6406999999999998</v>
       </c>
       <c r="I334" s="1">
         <v>1</v>
@@ -15156,13 +15156,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="F335" s="2">
-        <v>6316</v>
+        <v>6.3159999999999998</v>
       </c>
       <c r="G335" s="1">
         <v>38.1</v>
       </c>
       <c r="H335" s="2">
-        <v>64584</v>
+        <v>6.4584000000000001</v>
       </c>
       <c r="I335" s="1">
         <v>5</v>
@@ -15206,7 +15206,7 @@
         <v>38.5</v>
       </c>
       <c r="H336" s="2">
-        <v>64584</v>
+        <v>6.4584000000000001</v>
       </c>
       <c r="I336" s="1">
         <v>5</v>
@@ -15244,13 +15244,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="F337" s="2">
-        <v>6037</v>
+        <v>6.0369999999999999</v>
       </c>
       <c r="G337" s="1">
         <v>34.5</v>
       </c>
       <c r="H337" s="2">
-        <v>59853</v>
+        <v>5.9852999999999996</v>
       </c>
       <c r="I337" s="1">
         <v>5</v>
@@ -15288,13 +15288,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="F338" s="2">
-        <v>5869</v>
+        <v>5.8689999999999998</v>
       </c>
       <c r="G338" s="1">
         <v>46.3</v>
       </c>
       <c r="H338" s="2">
-        <v>52311</v>
+        <v>5.2310999999999996</v>
       </c>
       <c r="I338" s="1">
         <v>5</v>
@@ -15332,13 +15332,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="F339" s="2">
-        <v>5895</v>
+        <v>5.8949999999999996</v>
       </c>
       <c r="G339" s="1">
         <v>59.6</v>
       </c>
       <c r="H339" s="2">
-        <v>5615</v>
+        <v>5.6150000000000002</v>
       </c>
       <c r="I339" s="1">
         <v>5</v>
@@ -15376,13 +15376,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="F340" s="2">
-        <v>6059</v>
+        <v>6.0590000000000002</v>
       </c>
       <c r="G340" s="1">
         <v>37.299999999999997</v>
       </c>
       <c r="H340" s="2">
-        <v>48122</v>
+        <v>4.8121999999999998</v>
       </c>
       <c r="I340" s="1">
         <v>5</v>
@@ -15420,13 +15420,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="F341" s="2">
-        <v>5985</v>
+        <v>5.9850000000000003</v>
       </c>
       <c r="G341" s="1">
         <v>45.4</v>
       </c>
       <c r="H341" s="2">
-        <v>48122</v>
+        <v>4.8121999999999998</v>
       </c>
       <c r="I341" s="1">
         <v>5</v>
@@ -15464,13 +15464,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="F342" s="2">
-        <v>5968</v>
+        <v>5.968</v>
       </c>
       <c r="G342" s="1">
         <v>58.5</v>
       </c>
       <c r="H342" s="2">
-        <v>48122</v>
+        <v>4.8121999999999998</v>
       </c>
       <c r="I342" s="1">
         <v>5</v>
@@ -15508,13 +15508,13 @@
         <v>0.442</v>
       </c>
       <c r="F343" s="2">
-        <v>7241</v>
+        <v>7.2409999999999997</v>
       </c>
       <c r="G343" s="1">
         <v>49.3</v>
       </c>
       <c r="H343" s="2">
-        <v>70379</v>
+        <v>7.0378999999999996</v>
       </c>
       <c r="I343" s="1">
         <v>1</v>
@@ -15558,7 +15558,7 @@
         <v>59.7</v>
       </c>
       <c r="H344" s="2">
-        <v>62669</v>
+        <v>6.2668999999999997</v>
       </c>
       <c r="I344" s="1">
         <v>1</v>
@@ -15596,13 +15596,13 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="F345" s="2">
-        <v>6696</v>
+        <v>6.6959999999999997</v>
       </c>
       <c r="G345" s="1">
         <v>56.4</v>
       </c>
       <c r="H345" s="2">
-        <v>57321</v>
+        <v>5.7321</v>
       </c>
       <c r="I345" s="1">
         <v>5</v>
@@ -15640,13 +15640,13 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="F346" s="2">
-        <v>6874</v>
+        <v>6.8739999999999997</v>
       </c>
       <c r="G346" s="1">
         <v>28.1</v>
       </c>
       <c r="H346" s="2">
-        <v>64654</v>
+        <v>6.4653999999999998</v>
       </c>
       <c r="I346" s="1">
         <v>5</v>
@@ -15684,13 +15684,13 @@
         <v>0.442</v>
       </c>
       <c r="F347" s="2">
-        <v>6014</v>
+        <v>6.0140000000000002</v>
       </c>
       <c r="G347" s="1">
         <v>48.5</v>
       </c>
       <c r="H347" s="2">
-        <v>80136</v>
+        <v>8.0136000000000003</v>
       </c>
       <c r="I347" s="1">
         <v>3</v>
@@ -15728,13 +15728,13 @@
         <v>0.442</v>
       </c>
       <c r="F348" s="2">
-        <v>5898</v>
+        <v>5.8979999999999997</v>
       </c>
       <c r="G348" s="1">
         <v>52.3</v>
       </c>
       <c r="H348" s="2">
-        <v>80136</v>
+        <v>8.0136000000000003</v>
       </c>
       <c r="I348" s="1">
         <v>3</v>
@@ -15772,13 +15772,13 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="F349" s="2">
-        <v>6516</v>
+        <v>6.516</v>
       </c>
       <c r="G349" s="1">
         <v>27.7</v>
       </c>
       <c r="H349" s="2">
-        <v>85353</v>
+        <v>8.5352999999999994</v>
       </c>
       <c r="I349" s="1">
         <v>4</v>
@@ -15816,13 +15816,13 @@
         <v>0.435</v>
       </c>
       <c r="F350" s="2">
-        <v>6635</v>
+        <v>6.6349999999999998</v>
       </c>
       <c r="G350" s="1">
         <v>29.7</v>
       </c>
       <c r="H350" s="2">
-        <v>8344</v>
+        <v>8.3439999999999994</v>
       </c>
       <c r="I350" s="1">
         <v>4</v>
@@ -15860,13 +15860,13 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="F351" s="2">
-        <v>6939</v>
+        <v>6.9390000000000001</v>
       </c>
       <c r="G351" s="1">
         <v>34.5</v>
       </c>
       <c r="H351" s="2">
-        <v>87921</v>
+        <v>8.7920999999999996</v>
       </c>
       <c r="I351" s="1">
         <v>1</v>
@@ -15910,7 +15910,7 @@
         <v>44.4</v>
       </c>
       <c r="H352" s="2">
-        <v>87921</v>
+        <v>8.7920999999999996</v>
       </c>
       <c r="I352" s="1">
         <v>1</v>
@@ -15948,13 +15948,13 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="F353" s="2">
-        <v>6579</v>
+        <v>6.5789999999999997</v>
       </c>
       <c r="G353" s="1">
         <v>35.9</v>
       </c>
       <c r="H353" s="2">
-        <v>107103</v>
+        <v>10.7103</v>
       </c>
       <c r="I353" s="1">
         <v>4</v>
@@ -15992,13 +15992,13 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="F354" s="2">
-        <v>5884</v>
+        <v>5.8840000000000003</v>
       </c>
       <c r="G354" s="1">
         <v>18.5</v>
       </c>
       <c r="H354" s="2">
-        <v>107103</v>
+        <v>10.7103</v>
       </c>
       <c r="I354" s="1">
         <v>4</v>
@@ -16036,13 +16036,13 @@
         <v>0.41</v>
       </c>
       <c r="F355" s="2">
-        <v>6728</v>
+        <v>6.7279999999999998</v>
       </c>
       <c r="G355" s="1">
         <v>36.1</v>
       </c>
       <c r="H355" s="2">
-        <v>121265</v>
+        <v>12.1265</v>
       </c>
       <c r="I355" s="1">
         <v>5</v>
@@ -16080,13 +16080,13 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F356" s="2">
-        <v>5663</v>
+        <v>5.6630000000000003</v>
       </c>
       <c r="G356" s="1">
         <v>21.9</v>
       </c>
       <c r="H356" s="2">
-        <v>105857</v>
+        <v>10.585699999999999</v>
       </c>
       <c r="I356" s="1">
         <v>4</v>
@@ -16124,13 +16124,13 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F357" s="2">
-        <v>5936</v>
+        <v>5.9359999999999999</v>
       </c>
       <c r="G357" s="1">
         <v>19.5</v>
       </c>
       <c r="H357" s="2">
-        <v>105857</v>
+        <v>10.585699999999999</v>
       </c>
       <c r="I357" s="1">
         <v>4</v>
@@ -16153,7 +16153,7 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="2">
-        <v>898296</v>
+        <v>8.9829600000000003</v>
       </c>
       <c r="B358" s="1">
         <v>0</v>
@@ -16168,13 +16168,13 @@
         <v>0.77</v>
       </c>
       <c r="F358" s="2">
-        <v>6212</v>
+        <v>6.2119999999999997</v>
       </c>
       <c r="G358" s="1">
         <v>97.4</v>
       </c>
       <c r="H358" s="2">
-        <v>21222</v>
+        <v>2.1221999999999999</v>
       </c>
       <c r="I358" s="1">
         <v>24</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="2">
-        <v>38497</v>
+        <v>3.8496999999999999</v>
       </c>
       <c r="B359" s="1">
         <v>0</v>
@@ -16212,13 +16212,13 @@
         <v>0.77</v>
       </c>
       <c r="F359" s="2">
-        <v>6395</v>
+        <v>6.3949999999999996</v>
       </c>
       <c r="G359" s="1">
         <v>91</v>
       </c>
       <c r="H359" s="2">
-        <v>25052</v>
+        <v>2.5051999999999999</v>
       </c>
       <c r="I359" s="1">
         <v>24</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="2">
-        <v>520177</v>
+        <v>5.2017699999999998</v>
       </c>
       <c r="B360" s="1">
         <v>0</v>
@@ -16256,13 +16256,13 @@
         <v>0.77</v>
       </c>
       <c r="F360" s="2">
-        <v>6127</v>
+        <v>6.1269999999999998</v>
       </c>
       <c r="G360" s="1">
         <v>83.4</v>
       </c>
       <c r="H360" s="2">
-        <v>27227</v>
+        <v>2.7227000000000001</v>
       </c>
       <c r="I360" s="1">
         <v>24</v>
@@ -16285,7 +16285,7 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="2">
-        <v>426131</v>
+        <v>4.2613099999999999</v>
       </c>
       <c r="B361" s="1">
         <v>0</v>
@@ -16300,13 +16300,13 @@
         <v>0.77</v>
       </c>
       <c r="F361" s="2">
-        <v>6112</v>
+        <v>6.1120000000000001</v>
       </c>
       <c r="G361" s="1">
         <v>81.3</v>
       </c>
       <c r="H361" s="2">
-        <v>25091</v>
+        <v>2.5091000000000001</v>
       </c>
       <c r="I361" s="1">
         <v>24</v>
@@ -16329,7 +16329,7 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="2">
-        <v>454192</v>
+        <v>4.5419200000000002</v>
       </c>
       <c r="B362" s="1">
         <v>0</v>
@@ -16344,13 +16344,13 @@
         <v>0.77</v>
       </c>
       <c r="F362" s="2">
-        <v>6398</v>
+        <v>6.3979999999999997</v>
       </c>
       <c r="G362" s="1">
         <v>88</v>
       </c>
       <c r="H362" s="2">
-        <v>25182</v>
+        <v>2.5182000000000002</v>
       </c>
       <c r="I362" s="1">
         <v>24</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="2">
-        <v>383684</v>
+        <v>3.83684</v>
       </c>
       <c r="B363" s="1">
         <v>0</v>
@@ -16388,13 +16388,13 @@
         <v>0.77</v>
       </c>
       <c r="F363" s="2">
-        <v>6251</v>
+        <v>6.2510000000000003</v>
       </c>
       <c r="G363" s="1">
         <v>91.1</v>
       </c>
       <c r="H363" s="2">
-        <v>22955</v>
+        <v>2.2955000000000001</v>
       </c>
       <c r="I363" s="1">
         <v>24</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="2">
-        <v>367822</v>
+        <v>3.67822</v>
       </c>
       <c r="B364" s="1">
         <v>0</v>
@@ -16432,13 +16432,13 @@
         <v>0.77</v>
       </c>
       <c r="F364" s="2">
-        <v>5362</v>
+        <v>5.3620000000000001</v>
       </c>
       <c r="G364" s="1">
         <v>96.2</v>
       </c>
       <c r="H364" s="2">
-        <v>21036</v>
+        <v>2.1036000000000001</v>
       </c>
       <c r="I364" s="1">
         <v>24</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="2">
-        <v>422239</v>
+        <v>4.2223899999999999</v>
       </c>
       <c r="B365" s="1">
         <v>0</v>
@@ -16476,13 +16476,13 @@
         <v>0.77</v>
       </c>
       <c r="F365" s="2">
-        <v>5803</v>
+        <v>5.8029999999999999</v>
       </c>
       <c r="G365" s="1">
         <v>89</v>
       </c>
       <c r="H365" s="2">
-        <v>19047</v>
+        <v>1.9047000000000001</v>
       </c>
       <c r="I365" s="1">
         <v>24</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="2">
-        <v>347428</v>
+        <v>3.4742799999999998</v>
       </c>
       <c r="B366" s="1">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>82.9</v>
       </c>
       <c r="H366" s="2">
-        <v>19047</v>
+        <v>1.9047000000000001</v>
       </c>
       <c r="I366" s="1">
         <v>24</v>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="2">
-        <v>455587</v>
+        <v>4.5558699999999996</v>
       </c>
       <c r="B367" s="1">
         <v>0</v>
@@ -16564,13 +16564,13 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="F367" s="2">
-        <v>3561</v>
+        <v>3.5609999999999999</v>
       </c>
       <c r="G367" s="1">
         <v>87.9</v>
       </c>
       <c r="H367" s="2">
-        <v>16132</v>
+        <v>1.6132</v>
       </c>
       <c r="I367" s="1">
         <v>24</v>
@@ -16593,7 +16593,7 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="2">
-        <v>369695</v>
+        <v>3.6969500000000002</v>
       </c>
       <c r="B368" s="1">
         <v>0</v>
@@ -16608,13 +16608,13 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="F368" s="2">
-        <v>4963</v>
+        <v>4.9630000000000001</v>
       </c>
       <c r="G368" s="1">
         <v>91.4</v>
       </c>
       <c r="H368" s="2">
-        <v>17523</v>
+        <v>1.7523</v>
       </c>
       <c r="I368" s="1">
         <v>24</v>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="2">
-        <v>135222</v>
+        <v>13.5222</v>
       </c>
       <c r="B369" s="1">
         <v>0</v>
@@ -16652,13 +16652,13 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="F369" s="2">
-        <v>3863</v>
+        <v>3.863</v>
       </c>
       <c r="G369" s="1">
         <v>100</v>
       </c>
       <c r="H369" s="2">
-        <v>15106</v>
+        <v>1.5105999999999999</v>
       </c>
       <c r="I369" s="1">
         <v>24</v>
@@ -16681,7 +16681,7 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="2">
-        <v>489822</v>
+        <v>4.8982200000000002</v>
       </c>
       <c r="B370" s="1">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>100</v>
       </c>
       <c r="H370" s="2">
-        <v>13325</v>
+        <v>1.3325</v>
       </c>
       <c r="I370" s="1">
         <v>24</v>
@@ -16725,7 +16725,7 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="2">
-        <v>566998</v>
+        <v>5.6699799999999998</v>
       </c>
       <c r="B371" s="1">
         <v>0</v>
@@ -16740,13 +16740,13 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="F371" s="2">
-        <v>6683</v>
+        <v>6.6829999999999998</v>
       </c>
       <c r="G371" s="1">
         <v>96.8</v>
       </c>
       <c r="H371" s="2">
-        <v>13567</v>
+        <v>1.3567</v>
       </c>
       <c r="I371" s="1">
         <v>24</v>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="2">
-        <v>653876</v>
+        <v>6.5387599999999999</v>
       </c>
       <c r="B372" s="1">
         <v>0</v>
@@ -16784,13 +16784,13 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="F372" s="2">
-        <v>7016</v>
+        <v>7.016</v>
       </c>
       <c r="G372" s="1">
         <v>97.5</v>
       </c>
       <c r="H372" s="2">
-        <v>12024</v>
+        <v>1.2023999999999999</v>
       </c>
       <c r="I372" s="1">
         <v>24</v>
@@ -16813,7 +16813,7 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="2">
-        <v>92323</v>
+        <v>9.2323000000000004</v>
       </c>
       <c r="B373" s="1">
         <v>0</v>
@@ -16828,13 +16828,13 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="F373" s="2">
-        <v>6216</v>
+        <v>6.2160000000000002</v>
       </c>
       <c r="G373" s="1">
         <v>100</v>
       </c>
       <c r="H373" s="2">
-        <v>11691</v>
+        <v>1.1691</v>
       </c>
       <c r="I373" s="1">
         <v>24</v>
@@ -16857,7 +16857,7 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="2">
-        <v>826725</v>
+        <v>8.2672500000000007</v>
       </c>
       <c r="B374" s="1">
         <v>0</v>
@@ -16872,13 +16872,13 @@
         <v>0.66800000000000004</v>
       </c>
       <c r="F374" s="2">
-        <v>5875</v>
+        <v>5.875</v>
       </c>
       <c r="G374" s="1">
         <v>89.6</v>
       </c>
       <c r="H374" s="2">
-        <v>11296</v>
+        <v>1.1295999999999999</v>
       </c>
       <c r="I374" s="1">
         <v>24</v>
@@ -16901,7 +16901,7 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="2">
-        <v>111081</v>
+        <v>11.1081</v>
       </c>
       <c r="B375" s="1">
         <v>0</v>
@@ -16916,13 +16916,13 @@
         <v>0.66800000000000004</v>
       </c>
       <c r="F375" s="2">
-        <v>4906</v>
+        <v>4.9059999999999997</v>
       </c>
       <c r="G375" s="1">
         <v>100</v>
       </c>
       <c r="H375" s="2">
-        <v>11742</v>
+        <v>1.1741999999999999</v>
       </c>
       <c r="I375" s="1">
         <v>24</v>
@@ -16945,7 +16945,7 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="2">
-        <v>184982</v>
+        <v>18.498200000000001</v>
       </c>
       <c r="B376" s="1">
         <v>0</v>
@@ -16960,13 +16960,13 @@
         <v>0.66800000000000004</v>
       </c>
       <c r="F376" s="2">
-        <v>4138</v>
+        <v>4.1379999999999999</v>
       </c>
       <c r="G376" s="1">
         <v>100</v>
       </c>
       <c r="H376" s="2">
-        <v>1137</v>
+        <v>1.137</v>
       </c>
       <c r="I376" s="1">
         <v>24</v>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="2">
-        <v>196091</v>
+        <v>19.609100000000002</v>
       </c>
       <c r="B377" s="1">
         <v>0</v>
@@ -17004,13 +17004,13 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="F377" s="2">
-        <v>7313</v>
+        <v>7.3129999999999997</v>
       </c>
       <c r="G377" s="1">
         <v>97.9</v>
       </c>
       <c r="H377" s="2">
-        <v>13163</v>
+        <v>1.3163</v>
       </c>
       <c r="I377" s="1">
         <v>24</v>
@@ -17033,7 +17033,7 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="2">
-        <v>15288</v>
+        <v>15.288</v>
       </c>
       <c r="B378" s="1">
         <v>0</v>
@@ -17048,13 +17048,13 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="F378" s="2">
-        <v>6649</v>
+        <v>6.649</v>
       </c>
       <c r="G378" s="1">
         <v>93.3</v>
       </c>
       <c r="H378" s="2">
-        <v>13449</v>
+        <v>1.3449</v>
       </c>
       <c r="I378" s="1">
         <v>24</v>
@@ -17077,7 +17077,7 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="2">
-        <v>982349</v>
+        <v>9.8234899999999996</v>
       </c>
       <c r="B379" s="1">
         <v>0</v>
@@ -17092,13 +17092,13 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="F379" s="2">
-        <v>6794</v>
+        <v>6.7939999999999996</v>
       </c>
       <c r="G379" s="1">
         <v>98.8</v>
       </c>
       <c r="H379" s="2">
-        <v>1358</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="I379" s="1">
         <v>24</v>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="2">
-        <v>236482</v>
+        <v>23.648199999999999</v>
       </c>
       <c r="B380" s="1">
         <v>0</v>
@@ -17142,7 +17142,7 @@
         <v>96.2</v>
       </c>
       <c r="H380" s="2">
-        <v>13861</v>
+        <v>1.3861000000000001</v>
       </c>
       <c r="I380" s="1">
         <v>24</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="2">
-        <v>178667</v>
+        <v>17.866700000000002</v>
       </c>
       <c r="B381" s="1">
         <v>0</v>
@@ -17180,13 +17180,13 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="F381" s="2">
-        <v>6223</v>
+        <v>6.2229999999999999</v>
       </c>
       <c r="G381" s="1">
         <v>100</v>
       </c>
       <c r="H381" s="2">
-        <v>13861</v>
+        <v>1.3861000000000001</v>
       </c>
       <c r="I381" s="1">
         <v>24</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="2">
-        <v>889762</v>
+        <v>88.976200000000006</v>
       </c>
       <c r="B382" s="1">
         <v>0</v>
@@ -17224,13 +17224,13 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="F382" s="2">
-        <v>6968</v>
+        <v>6.968</v>
       </c>
       <c r="G382" s="1">
         <v>91.9</v>
       </c>
       <c r="H382" s="2">
-        <v>14165</v>
+        <v>1.4165000000000001</v>
       </c>
       <c r="I382" s="1">
         <v>24</v>
@@ -17253,7 +17253,7 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="2">
-        <v>158744</v>
+        <v>15.8744</v>
       </c>
       <c r="B383" s="1">
         <v>0</v>
@@ -17268,13 +17268,13 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="F383" s="2">
-        <v>6545</v>
+        <v>6.5449999999999999</v>
       </c>
       <c r="G383" s="1">
         <v>99.1</v>
       </c>
       <c r="H383" s="2">
-        <v>15192</v>
+        <v>1.5192000000000001</v>
       </c>
       <c r="I383" s="1">
         <v>24</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="2">
-        <v>918702</v>
+        <v>9.1870200000000004</v>
       </c>
       <c r="B384" s="1">
         <v>0</v>
@@ -17312,13 +17312,13 @@
         <v>0.7</v>
       </c>
       <c r="F384" s="2">
-        <v>5536</v>
+        <v>5.5359999999999996</v>
       </c>
       <c r="G384" s="1">
         <v>100</v>
       </c>
       <c r="H384" s="2">
-        <v>15804</v>
+        <v>1.5804</v>
       </c>
       <c r="I384" s="1">
         <v>24</v>
@@ -17341,7 +17341,7 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="2">
-        <v>799248</v>
+        <v>7.9924799999999996</v>
       </c>
       <c r="B385" s="1">
         <v>0</v>
@@ -17362,7 +17362,7 @@
         <v>100</v>
       </c>
       <c r="H385" s="2">
-        <v>15331</v>
+        <v>1.5330999999999999</v>
       </c>
       <c r="I385" s="1">
         <v>24</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="2">
-        <v>200849</v>
+        <v>20.084900000000001</v>
       </c>
       <c r="B386" s="1">
         <v>0</v>
@@ -17400,13 +17400,13 @@
         <v>0.7</v>
       </c>
       <c r="F386" s="2">
-        <v>4368</v>
+        <v>4.3680000000000003</v>
       </c>
       <c r="G386" s="1">
         <v>91.2</v>
       </c>
       <c r="H386" s="2">
-        <v>14395</v>
+        <v>1.4395</v>
       </c>
       <c r="I386" s="1">
         <v>24</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="2">
-        <v>168118</v>
+        <v>16.811800000000002</v>
       </c>
       <c r="B387" s="1">
         <v>0</v>
@@ -17444,13 +17444,13 @@
         <v>0.7</v>
       </c>
       <c r="F387" s="2">
-        <v>5277</v>
+        <v>5.2770000000000001</v>
       </c>
       <c r="G387" s="1">
         <v>98.1</v>
       </c>
       <c r="H387" s="2">
-        <v>14261</v>
+        <v>1.4260999999999999</v>
       </c>
       <c r="I387" s="1">
         <v>24</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="2">
-        <v>243938</v>
+        <v>24.393799999999999</v>
       </c>
       <c r="B388" s="1">
         <v>0</v>
@@ -17488,13 +17488,13 @@
         <v>0.7</v>
       </c>
       <c r="F388" s="2">
-        <v>4652</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="G388" s="1">
         <v>100</v>
       </c>
       <c r="H388" s="2">
-        <v>14672</v>
+        <v>1.4672000000000001</v>
       </c>
       <c r="I388" s="1">
         <v>24</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="2">
-        <v>225971</v>
+        <v>22.597100000000001</v>
       </c>
       <c r="B389" s="1">
         <v>0</v>
@@ -17538,7 +17538,7 @@
         <v>89.5</v>
       </c>
       <c r="H389" s="2">
-        <v>15184</v>
+        <v>1.5184</v>
       </c>
       <c r="I389" s="1">
         <v>24</v>
@@ -17561,7 +17561,7 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="2">
-        <v>143337</v>
+        <v>14.3337</v>
       </c>
       <c r="B390" s="1">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>100</v>
       </c>
       <c r="H390" s="2">
-        <v>15895</v>
+        <v>1.5894999999999999</v>
       </c>
       <c r="I390" s="1">
         <v>24</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="2">
-        <v>815174</v>
+        <v>8.1517400000000002</v>
       </c>
       <c r="B391" s="1">
         <v>0</v>
@@ -17626,7 +17626,7 @@
         <v>98.9</v>
       </c>
       <c r="H391" s="2">
-        <v>17281</v>
+        <v>1.7281</v>
       </c>
       <c r="I391" s="1">
         <v>24</v>
@@ -17649,7 +17649,7 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="2">
-        <v>696215</v>
+        <v>6.9621500000000003</v>
       </c>
       <c r="B392" s="1">
         <v>0</v>
@@ -17664,13 +17664,13 @@
         <v>0.7</v>
       </c>
       <c r="F392" s="2">
-        <v>5713</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="G392" s="1">
         <v>97</v>
       </c>
       <c r="H392" s="2">
-        <v>19265</v>
+        <v>1.9265000000000001</v>
       </c>
       <c r="I392" s="1">
         <v>24</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="2">
-        <v>529305</v>
+        <v>5.29305</v>
       </c>
       <c r="B393" s="1">
         <v>0</v>
@@ -17708,13 +17708,13 @@
         <v>0.7</v>
       </c>
       <c r="F393" s="2">
-        <v>6051</v>
+        <v>6.0510000000000002</v>
       </c>
       <c r="G393" s="1">
         <v>82.5</v>
       </c>
       <c r="H393" s="2">
-        <v>21678</v>
+        <v>2.1678000000000002</v>
       </c>
       <c r="I393" s="1">
         <v>24</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="2">
-        <v>115779</v>
+        <v>11.5779</v>
       </c>
       <c r="B394" s="1">
         <v>0</v>
@@ -17752,7 +17752,7 @@
         <v>0.7</v>
       </c>
       <c r="F394" s="2">
-        <v>5036</v>
+        <v>5.0359999999999996</v>
       </c>
       <c r="G394" s="1">
         <v>97</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="2">
-        <v>864476</v>
+        <v>8.6447599999999998</v>
       </c>
       <c r="B395" s="1">
         <v>0</v>
@@ -17796,13 +17796,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F395" s="2">
-        <v>6193</v>
+        <v>6.1929999999999996</v>
       </c>
       <c r="G395" s="1">
         <v>92.6</v>
       </c>
       <c r="H395" s="2">
-        <v>17912</v>
+        <v>1.7911999999999999</v>
       </c>
       <c r="I395" s="1">
         <v>24</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="2">
-        <v>133598</v>
+        <v>13.3598</v>
       </c>
       <c r="B396" s="1">
         <v>0</v>
@@ -17840,13 +17840,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F396" s="2">
-        <v>5887</v>
+        <v>5.8869999999999996</v>
       </c>
       <c r="G396" s="1">
         <v>94.7</v>
       </c>
       <c r="H396" s="2">
-        <v>17821</v>
+        <v>1.7821</v>
       </c>
       <c r="I396" s="1">
         <v>24</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="2">
-        <v>871675</v>
+        <v>8.7167499999999993</v>
       </c>
       <c r="B397" s="1">
         <v>0</v>
@@ -17884,13 +17884,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F397" s="2">
-        <v>6471</v>
+        <v>6.4710000000000001</v>
       </c>
       <c r="G397" s="1">
         <v>98.8</v>
       </c>
       <c r="H397" s="2">
-        <v>17257</v>
+        <v>1.7257</v>
       </c>
       <c r="I397" s="1">
         <v>24</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="2">
-        <v>587205</v>
+        <v>5.8720499999999998</v>
       </c>
       <c r="B398" s="1">
         <v>0</v>
@@ -17928,13 +17928,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F398" s="2">
-        <v>6405</v>
+        <v>6.4050000000000002</v>
       </c>
       <c r="G398" s="1">
         <v>96</v>
       </c>
       <c r="H398" s="2">
-        <v>16768</v>
+        <v>1.6768000000000001</v>
       </c>
       <c r="I398" s="1">
         <v>24</v>
@@ -17957,7 +17957,7 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="2">
-        <v>767202</v>
+        <v>7.6720199999999998</v>
       </c>
       <c r="B399" s="1">
         <v>0</v>
@@ -17972,13 +17972,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F399" s="2">
-        <v>5747</v>
+        <v>5.7469999999999999</v>
       </c>
       <c r="G399" s="1">
         <v>98.9</v>
       </c>
       <c r="H399" s="2">
-        <v>16334</v>
+        <v>1.6334</v>
       </c>
       <c r="I399" s="1">
         <v>24</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="2">
-        <v>383518</v>
+        <v>38.351799999999997</v>
       </c>
       <c r="B400" s="1">
         <v>0</v>
@@ -18016,13 +18016,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F400" s="2">
-        <v>5453</v>
+        <v>5.4530000000000003</v>
       </c>
       <c r="G400" s="1">
         <v>100</v>
       </c>
       <c r="H400" s="2">
-        <v>14896</v>
+        <v>1.4896</v>
       </c>
       <c r="I400" s="1">
         <v>24</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="2">
-        <v>991655</v>
+        <v>9.9165500000000009</v>
       </c>
       <c r="B401" s="1">
         <v>0</v>
@@ -18060,13 +18060,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F401" s="2">
-        <v>5852</v>
+        <v>5.8520000000000003</v>
       </c>
       <c r="G401" s="1">
         <v>77.8</v>
       </c>
       <c r="H401" s="2">
-        <v>15004</v>
+        <v>1.5004</v>
       </c>
       <c r="I401" s="1">
         <v>24</v>
@@ -18089,7 +18089,7 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="2">
-        <v>250461</v>
+        <v>25.046099999999999</v>
       </c>
       <c r="B402" s="1">
         <v>0</v>
@@ -18104,13 +18104,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F402" s="2">
-        <v>5987</v>
+        <v>5.9870000000000001</v>
       </c>
       <c r="G402" s="1">
         <v>100</v>
       </c>
       <c r="H402" s="2">
-        <v>15888</v>
+        <v>1.5888</v>
       </c>
       <c r="I402" s="1">
         <v>24</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="2">
-        <v>142362</v>
+        <v>14.2362</v>
       </c>
       <c r="B403" s="1">
         <v>0</v>
@@ -18148,13 +18148,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F403" s="2">
-        <v>6343</v>
+        <v>6.343</v>
       </c>
       <c r="G403" s="1">
         <v>100</v>
       </c>
       <c r="H403" s="2">
-        <v>15741</v>
+        <v>1.5741000000000001</v>
       </c>
       <c r="I403" s="1">
         <v>24</v>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="2">
-        <v>959571</v>
+        <v>9.5957100000000004</v>
       </c>
       <c r="B404" s="1">
         <v>0</v>
@@ -18192,13 +18192,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F404" s="2">
-        <v>6404</v>
+        <v>6.4039999999999999</v>
       </c>
       <c r="G404" s="1">
         <v>100</v>
       </c>
       <c r="H404" s="2">
-        <v>1639</v>
+        <v>1.639</v>
       </c>
       <c r="I404" s="1">
         <v>24</v>
@@ -18221,7 +18221,7 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="2">
-        <v>248017</v>
+        <v>24.8017</v>
       </c>
       <c r="B405" s="1">
         <v>0</v>
@@ -18236,13 +18236,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F405" s="2">
-        <v>5349</v>
+        <v>5.3490000000000002</v>
       </c>
       <c r="G405" s="1">
         <v>96</v>
       </c>
       <c r="H405" s="2">
-        <v>17028</v>
+        <v>1.7028000000000001</v>
       </c>
       <c r="I405" s="1">
         <v>24</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="2">
-        <v>415292</v>
+        <v>41.529200000000003</v>
       </c>
       <c r="B406" s="1">
         <v>0</v>
@@ -18280,13 +18280,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F406" s="2">
-        <v>5531</v>
+        <v>5.5309999999999997</v>
       </c>
       <c r="G406" s="1">
         <v>85.4</v>
       </c>
       <c r="H406" s="2">
-        <v>16074</v>
+        <v>1.6073999999999999</v>
       </c>
       <c r="I406" s="1">
         <v>24</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="2">
-        <v>679208</v>
+        <v>67.9208</v>
       </c>
       <c r="B407" s="1">
         <v>0</v>
@@ -18324,13 +18324,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F407" s="2">
-        <v>5683</v>
+        <v>5.6829999999999998</v>
       </c>
       <c r="G407" s="1">
         <v>100</v>
       </c>
       <c r="H407" s="2">
-        <v>14254</v>
+        <v>1.4254</v>
       </c>
       <c r="I407" s="1">
         <v>24</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="2">
-        <v>207162</v>
+        <v>20.716200000000001</v>
       </c>
       <c r="B408" s="1">
         <v>0</v>
@@ -18368,13 +18368,13 @@
         <v>0.65900000000000003</v>
       </c>
       <c r="F408" s="2">
-        <v>4138</v>
+        <v>4.1379999999999999</v>
       </c>
       <c r="G408" s="1">
         <v>100</v>
       </c>
       <c r="H408" s="2">
-        <v>11781</v>
+        <v>1.1780999999999999</v>
       </c>
       <c r="I408" s="1">
         <v>24</v>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="2">
-        <v>119511</v>
+        <v>11.9511</v>
       </c>
       <c r="B409" s="1">
         <v>0</v>
@@ -18412,13 +18412,13 @@
         <v>0.65900000000000003</v>
       </c>
       <c r="F409" s="2">
-        <v>5608</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="G409" s="1">
         <v>100</v>
       </c>
       <c r="H409" s="2">
-        <v>12852</v>
+        <v>1.2851999999999999</v>
       </c>
       <c r="I409" s="1">
         <v>24</v>
@@ -18441,7 +18441,7 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="2">
-        <v>740389</v>
+        <v>7.4038899999999996</v>
       </c>
       <c r="B410" s="1">
         <v>0</v>
@@ -18456,13 +18456,13 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F410" s="2">
-        <v>5617</v>
+        <v>5.617</v>
       </c>
       <c r="G410" s="1">
         <v>97.9</v>
       </c>
       <c r="H410" s="2">
-        <v>14547</v>
+        <v>1.4547000000000001</v>
       </c>
       <c r="I410" s="1">
         <v>24</v>
@@ -18485,7 +18485,7 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="2">
-        <v>144383</v>
+        <v>14.4383</v>
       </c>
       <c r="B411" s="1">
         <v>0</v>
@@ -18500,13 +18500,13 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F411" s="2">
-        <v>6852</v>
+        <v>6.8520000000000003</v>
       </c>
       <c r="G411" s="1">
         <v>100</v>
       </c>
       <c r="H411" s="2">
-        <v>14655</v>
+        <v>1.4655</v>
       </c>
       <c r="I411" s="1">
         <v>24</v>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="2">
-        <v>511358</v>
+        <v>51.135800000000003</v>
       </c>
       <c r="B412" s="1">
         <v>0</v>
@@ -18544,13 +18544,13 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F412" s="2">
-        <v>5757</v>
+        <v>5.7569999999999997</v>
       </c>
       <c r="G412" s="1">
         <v>100</v>
       </c>
       <c r="H412" s="2">
-        <v>1413</v>
+        <v>1.413</v>
       </c>
       <c r="I412" s="1">
         <v>24</v>
@@ -18573,7 +18573,7 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="2">
-        <v>140507</v>
+        <v>14.050700000000001</v>
       </c>
       <c r="B413" s="1">
         <v>0</v>
@@ -18588,13 +18588,13 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F413" s="2">
-        <v>6657</v>
+        <v>6.657</v>
       </c>
       <c r="G413" s="1">
         <v>100</v>
       </c>
       <c r="H413" s="2">
-        <v>15275</v>
+        <v>1.5275000000000001</v>
       </c>
       <c r="I413" s="1">
         <v>24</v>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="2">
-        <v>18811</v>
+        <v>18.811</v>
       </c>
       <c r="B414" s="1">
         <v>0</v>
@@ -18632,13 +18632,13 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F414" s="2">
-        <v>4628</v>
+        <v>4.6280000000000001</v>
       </c>
       <c r="G414" s="1">
         <v>100</v>
       </c>
       <c r="H414" s="2">
-        <v>15539</v>
+        <v>1.5539000000000001</v>
       </c>
       <c r="I414" s="1">
         <v>24</v>
@@ -18661,7 +18661,7 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="2">
-        <v>286558</v>
+        <v>28.655799999999999</v>
       </c>
       <c r="B415" s="1">
         <v>0</v>
@@ -18676,13 +18676,13 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F415" s="2">
-        <v>5155</v>
+        <v>5.1550000000000002</v>
       </c>
       <c r="G415" s="1">
         <v>100</v>
       </c>
       <c r="H415" s="2">
-        <v>15894</v>
+        <v>1.5893999999999999</v>
       </c>
       <c r="I415" s="1">
         <v>24</v>
@@ -18705,7 +18705,7 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="2">
-        <v>457461</v>
+        <v>45.746099999999998</v>
       </c>
       <c r="B416" s="1">
         <v>0</v>
@@ -18720,13 +18720,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F416" s="2">
-        <v>4519</v>
+        <v>4.5190000000000001</v>
       </c>
       <c r="G416" s="1">
         <v>100</v>
       </c>
       <c r="H416" s="2">
-        <v>16582</v>
+        <v>1.6581999999999999</v>
       </c>
       <c r="I416" s="1">
         <v>24</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="2">
-        <v>180846</v>
+        <v>18.084599999999998</v>
       </c>
       <c r="B417" s="1">
         <v>0</v>
@@ -18764,13 +18764,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="F417" s="2">
-        <v>6434</v>
+        <v>6.4340000000000002</v>
       </c>
       <c r="G417" s="1">
         <v>100</v>
       </c>
       <c r="H417" s="2">
-        <v>18347</v>
+        <v>1.8347</v>
       </c>
       <c r="I417" s="1">
         <v>24</v>
@@ -18793,7 +18793,7 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="2">
-        <v>108342</v>
+        <v>10.834199999999999</v>
       </c>
       <c r="B418" s="1">
         <v>0</v>
@@ -18808,13 +18808,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="F418" s="2">
-        <v>6782</v>
+        <v>6.782</v>
       </c>
       <c r="G418" s="1">
         <v>90.8</v>
       </c>
       <c r="H418" s="2">
-        <v>18195</v>
+        <v>1.8194999999999999</v>
       </c>
       <c r="I418" s="1">
         <v>24</v>
@@ -18837,7 +18837,7 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="2">
-        <v>259406</v>
+        <v>25.9406</v>
       </c>
       <c r="B419" s="1">
         <v>0</v>
@@ -18852,13 +18852,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="F419" s="2">
-        <v>5304</v>
+        <v>5.3040000000000003</v>
       </c>
       <c r="G419" s="1">
         <v>89.1</v>
       </c>
       <c r="H419" s="2">
-        <v>16475</v>
+        <v>1.6475</v>
       </c>
       <c r="I419" s="1">
         <v>24</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="2">
-        <v>735341</v>
+        <v>73.534099999999995</v>
       </c>
       <c r="B420" s="1">
         <v>0</v>
@@ -18896,13 +18896,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="F420" s="2">
-        <v>5957</v>
+        <v>5.9569999999999999</v>
       </c>
       <c r="G420" s="1">
         <v>100</v>
       </c>
       <c r="H420" s="2">
-        <v>18026</v>
+        <v>1.8026</v>
       </c>
       <c r="I420" s="1">
         <v>24</v>
@@ -18925,7 +18925,7 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="2">
-        <v>118123</v>
+        <v>11.8123</v>
       </c>
       <c r="B421" s="1">
         <v>0</v>
@@ -18940,13 +18940,13 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="F421" s="2">
-        <v>6824</v>
+        <v>6.8239999999999998</v>
       </c>
       <c r="G421" s="1">
         <v>76.5</v>
       </c>
       <c r="H421" s="2">
-        <v>1794</v>
+        <v>1.794</v>
       </c>
       <c r="I421" s="1">
         <v>24</v>
@@ -18969,7 +18969,7 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="2">
-        <v>110874</v>
+        <v>11.087400000000001</v>
       </c>
       <c r="B422" s="1">
         <v>0</v>
@@ -18984,13 +18984,13 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="F422" s="2">
-        <v>6411</v>
+        <v>6.4109999999999996</v>
       </c>
       <c r="G422" s="1">
         <v>100</v>
       </c>
       <c r="H422" s="2">
-        <v>18589</v>
+        <v>1.8589</v>
       </c>
       <c r="I422" s="1">
         <v>24</v>
@@ -19013,7 +19013,7 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="2">
-        <v>702259</v>
+        <v>7.0225900000000001</v>
       </c>
       <c r="B423" s="1">
         <v>0</v>
@@ -19028,13 +19028,13 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="F423" s="2">
-        <v>6006</v>
+        <v>6.0060000000000002</v>
       </c>
       <c r="G423" s="1">
         <v>95.3</v>
       </c>
       <c r="H423" s="2">
-        <v>18746</v>
+        <v>1.8746</v>
       </c>
       <c r="I423" s="1">
         <v>24</v>
@@ -19057,7 +19057,7 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="2">
-        <v>120482</v>
+        <v>12.0482</v>
       </c>
       <c r="B424" s="1">
         <v>0</v>
@@ -19072,13 +19072,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="F424" s="2">
-        <v>5648</v>
+        <v>5.6479999999999997</v>
       </c>
       <c r="G424" s="1">
         <v>87.6</v>
       </c>
       <c r="H424" s="2">
-        <v>19512</v>
+        <v>1.9512</v>
       </c>
       <c r="I424" s="1">
         <v>24</v>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="2">
-        <v>705042</v>
+        <v>7.0504199999999999</v>
       </c>
       <c r="B425" s="1">
         <v>0</v>
@@ -19116,13 +19116,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="F425" s="2">
-        <v>6103</v>
+        <v>6.1029999999999998</v>
       </c>
       <c r="G425" s="1">
         <v>85.1</v>
       </c>
       <c r="H425" s="2">
-        <v>20218</v>
+        <v>2.0217999999999998</v>
       </c>
       <c r="I425" s="1">
         <v>24</v>
@@ -19145,7 +19145,7 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="2">
-        <v>879212</v>
+        <v>8.7921200000000006</v>
       </c>
       <c r="B426" s="1">
         <v>0</v>
@@ -19160,13 +19160,13 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F426" s="2">
-        <v>5565</v>
+        <v>5.5650000000000004</v>
       </c>
       <c r="G426" s="1">
         <v>70.599999999999994</v>
       </c>
       <c r="H426" s="2">
-        <v>20635</v>
+        <v>2.0634999999999999</v>
       </c>
       <c r="I426" s="1">
         <v>24</v>
@@ -19189,7 +19189,7 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="2">
-        <v>158603</v>
+        <v>15.860300000000001</v>
       </c>
       <c r="B427" s="1">
         <v>0</v>
@@ -19204,13 +19204,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="F427" s="2">
-        <v>5896</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="G427" s="1">
         <v>95.4</v>
       </c>
       <c r="H427" s="2">
-        <v>19096</v>
+        <v>1.9096</v>
       </c>
       <c r="I427" s="1">
         <v>24</v>
@@ -19233,7 +19233,7 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="2">
-        <v>122472</v>
+        <v>12.247199999999999</v>
       </c>
       <c r="B428" s="1">
         <v>0</v>
@@ -19248,13 +19248,13 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F428" s="2">
-        <v>5837</v>
+        <v>5.8369999999999997</v>
       </c>
       <c r="G428" s="1">
         <v>59.7</v>
       </c>
       <c r="H428" s="2">
-        <v>19976</v>
+        <v>1.9976</v>
       </c>
       <c r="I428" s="1">
         <v>24</v>
@@ -19277,7 +19277,7 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="2">
-        <v>376619</v>
+        <v>37.661900000000003</v>
       </c>
       <c r="B429" s="1">
         <v>0</v>
@@ -19292,13 +19292,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="F429" s="2">
-        <v>6202</v>
+        <v>6.202</v>
       </c>
       <c r="G429" s="1">
         <v>78.7</v>
       </c>
       <c r="H429" s="2">
-        <v>18629</v>
+        <v>1.8629</v>
       </c>
       <c r="I429" s="1">
         <v>24</v>
@@ -19321,7 +19321,7 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="2">
-        <v>736711</v>
+        <v>7.3671100000000003</v>
       </c>
       <c r="B430" s="1">
         <v>0</v>
@@ -19336,13 +19336,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="F430" s="2">
-        <v>6193</v>
+        <v>6.1929999999999996</v>
       </c>
       <c r="G430" s="1">
         <v>78.099999999999994</v>
       </c>
       <c r="H430" s="2">
-        <v>19356</v>
+        <v>1.9356</v>
       </c>
       <c r="I430" s="1">
         <v>24</v>
@@ -19365,7 +19365,7 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="2">
-        <v>933889</v>
+        <v>9.3388899999999992</v>
       </c>
       <c r="B431" s="1">
         <v>0</v>
@@ -19386,7 +19386,7 @@
         <v>95.6</v>
       </c>
       <c r="H431" s="2">
-        <v>19682</v>
+        <v>1.9681999999999999</v>
       </c>
       <c r="I431" s="1">
         <v>24</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="2">
-        <v>849213</v>
+        <v>8.4921299999999995</v>
       </c>
       <c r="B432" s="1">
         <v>0</v>
@@ -19424,13 +19424,13 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F432" s="2">
-        <v>6348</v>
+        <v>6.3479999999999999</v>
       </c>
       <c r="G432" s="1">
         <v>86.1</v>
       </c>
       <c r="H432" s="2">
-        <v>20527</v>
+        <v>2.0527000000000002</v>
       </c>
       <c r="I432" s="1">
         <v>24</v>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="2">
-        <v>100623</v>
+        <v>10.0623</v>
       </c>
       <c r="B433" s="1">
         <v>0</v>
@@ -19468,13 +19468,13 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F433" s="2">
-        <v>6833</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="G433" s="1">
         <v>94.3</v>
       </c>
       <c r="H433" s="2">
-        <v>20882</v>
+        <v>2.0882000000000001</v>
       </c>
       <c r="I433" s="1">
         <v>24</v>
@@ -19497,7 +19497,7 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="2">
-        <v>644405</v>
+        <v>6.4440499999999998</v>
       </c>
       <c r="B434" s="1">
         <v>0</v>
@@ -19512,13 +19512,13 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F434" s="2">
-        <v>6425</v>
+        <v>6.4249999999999998</v>
       </c>
       <c r="G434" s="1">
         <v>74.8</v>
       </c>
       <c r="H434" s="2">
-        <v>22004</v>
+        <v>2.2004000000000001</v>
       </c>
       <c r="I434" s="1">
         <v>24</v>
@@ -19541,7 +19541,7 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="2">
-        <v>558107</v>
+        <v>5.5810700000000004</v>
       </c>
       <c r="B435" s="1">
         <v>0</v>
@@ -19556,13 +19556,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F435" s="2">
-        <v>6436</v>
+        <v>6.4359999999999999</v>
       </c>
       <c r="G435" s="1">
         <v>87.9</v>
       </c>
       <c r="H435" s="2">
-        <v>23158</v>
+        <v>2.3157999999999999</v>
       </c>
       <c r="I435" s="1">
         <v>24</v>
@@ -19585,7 +19585,7 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="2">
-        <v>139134</v>
+        <v>13.913399999999999</v>
       </c>
       <c r="B436" s="1">
         <v>0</v>
@@ -19600,13 +19600,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F436" s="2">
-        <v>6208</v>
+        <v>6.2080000000000002</v>
       </c>
       <c r="G436" s="1">
         <v>95</v>
       </c>
       <c r="H436" s="2">
-        <v>22222</v>
+        <v>2.2222</v>
       </c>
       <c r="I436" s="1">
         <v>24</v>
@@ -19629,7 +19629,7 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="2">
-        <v>111604</v>
+        <v>11.160399999999999</v>
       </c>
       <c r="B437" s="1">
         <v>0</v>
@@ -19644,13 +19644,13 @@
         <v>0.74</v>
       </c>
       <c r="F437" s="2">
-        <v>6629</v>
+        <v>6.6289999999999996</v>
       </c>
       <c r="G437" s="1">
         <v>94.6</v>
       </c>
       <c r="H437" s="2">
-        <v>21247</v>
+        <v>2.1246999999999998</v>
       </c>
       <c r="I437" s="1">
         <v>24</v>
@@ -19673,7 +19673,7 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="2">
-        <v>144208</v>
+        <v>14.4208</v>
       </c>
       <c r="B438" s="1">
         <v>0</v>
@@ -19688,13 +19688,13 @@
         <v>0.74</v>
       </c>
       <c r="F438" s="2">
-        <v>6461</v>
+        <v>6.4610000000000003</v>
       </c>
       <c r="G438" s="1">
         <v>93.3</v>
       </c>
       <c r="H438" s="2">
-        <v>20026</v>
+        <v>2.0026000000000002</v>
       </c>
       <c r="I438" s="1">
         <v>24</v>
@@ -19717,7 +19717,7 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="2">
-        <v>151772</v>
+        <v>15.177199999999999</v>
       </c>
       <c r="B439" s="1">
         <v>0</v>
@@ -19732,13 +19732,13 @@
         <v>0.74</v>
       </c>
       <c r="F439" s="2">
-        <v>6152</v>
+        <v>6.1520000000000001</v>
       </c>
       <c r="G439" s="1">
         <v>100</v>
       </c>
       <c r="H439" s="2">
-        <v>19142</v>
+        <v>1.9141999999999999</v>
       </c>
       <c r="I439" s="1">
         <v>24</v>
@@ -19761,7 +19761,7 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="2">
-        <v>136781</v>
+        <v>13.678100000000001</v>
       </c>
       <c r="B440" s="1">
         <v>0</v>
@@ -19776,13 +19776,13 @@
         <v>0.74</v>
       </c>
       <c r="F440" s="2">
-        <v>5935</v>
+        <v>5.9349999999999996</v>
       </c>
       <c r="G440" s="1">
         <v>87.9</v>
       </c>
       <c r="H440" s="2">
-        <v>18206</v>
+        <v>1.8206</v>
       </c>
       <c r="I440" s="1">
         <v>24</v>
@@ -19805,7 +19805,7 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="2">
-        <v>939063</v>
+        <v>9.3906299999999998</v>
       </c>
       <c r="B441" s="1">
         <v>0</v>
@@ -19820,13 +19820,13 @@
         <v>0.74</v>
       </c>
       <c r="F441" s="2">
-        <v>5627</v>
+        <v>5.6269999999999998</v>
       </c>
       <c r="G441" s="1">
         <v>93.9</v>
       </c>
       <c r="H441" s="2">
-        <v>18172</v>
+        <v>1.8171999999999999</v>
       </c>
       <c r="I441" s="1">
         <v>24</v>
@@ -19849,7 +19849,7 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="2">
-        <v>220511</v>
+        <v>22.051100000000002</v>
       </c>
       <c r="B442" s="1">
         <v>0</v>
@@ -19864,13 +19864,13 @@
         <v>0.74</v>
       </c>
       <c r="F442" s="2">
-        <v>5818</v>
+        <v>5.8179999999999996</v>
       </c>
       <c r="G442" s="1">
         <v>92.4</v>
       </c>
       <c r="H442" s="2">
-        <v>18662</v>
+        <v>1.8662000000000001</v>
       </c>
       <c r="I442" s="1">
         <v>24</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="2">
-        <v>972418</v>
+        <v>9.7241800000000005</v>
       </c>
       <c r="B443" s="1">
         <v>0</v>
@@ -19908,13 +19908,13 @@
         <v>0.74</v>
       </c>
       <c r="F443" s="2">
-        <v>6406</v>
+        <v>6.4059999999999997</v>
       </c>
       <c r="G443" s="1">
         <v>97.2</v>
       </c>
       <c r="H443" s="2">
-        <v>20651</v>
+        <v>2.0651000000000002</v>
       </c>
       <c r="I443" s="1">
         <v>24</v>
@@ -19937,7 +19937,7 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="2">
-        <v>566637</v>
+        <v>5.6663699999999997</v>
       </c>
       <c r="B444" s="1">
         <v>0</v>
@@ -19952,13 +19952,13 @@
         <v>0.74</v>
       </c>
       <c r="F444" s="2">
-        <v>6219</v>
+        <v>6.2190000000000003</v>
       </c>
       <c r="G444" s="1">
         <v>100</v>
       </c>
       <c r="H444" s="2">
-        <v>20048</v>
+        <v>2.0047999999999999</v>
       </c>
       <c r="I444" s="1">
         <v>24</v>
@@ -19981,7 +19981,7 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="2">
-        <v>996654</v>
+        <v>9.9665400000000002</v>
       </c>
       <c r="B445" s="1">
         <v>0</v>
@@ -19996,13 +19996,13 @@
         <v>0.74</v>
       </c>
       <c r="F445" s="2">
-        <v>6485</v>
+        <v>6.4850000000000003</v>
       </c>
       <c r="G445" s="1">
         <v>100</v>
       </c>
       <c r="H445" s="2">
-        <v>19784</v>
+        <v>1.9783999999999999</v>
       </c>
       <c r="I445" s="1">
         <v>24</v>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="2">
-        <v>128023</v>
+        <v>12.802300000000001</v>
       </c>
       <c r="B446" s="1">
         <v>0</v>
@@ -20040,13 +20040,13 @@
         <v>0.74</v>
       </c>
       <c r="F446" s="2">
-        <v>5854</v>
+        <v>5.8540000000000001</v>
       </c>
       <c r="G446" s="1">
         <v>96.6</v>
       </c>
       <c r="H446" s="2">
-        <v>18956</v>
+        <v>1.8956</v>
       </c>
       <c r="I446" s="1">
         <v>24</v>
@@ -20069,7 +20069,7 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="2">
-        <v>106718</v>
+        <v>10.671799999999999</v>
       </c>
       <c r="B447" s="1">
         <v>0</v>
@@ -20084,13 +20084,13 @@
         <v>0.74</v>
       </c>
       <c r="F447" s="2">
-        <v>6459</v>
+        <v>6.4589999999999996</v>
       </c>
       <c r="G447" s="1">
         <v>94.8</v>
       </c>
       <c r="H447" s="2">
-        <v>19879</v>
+        <v>1.9879</v>
       </c>
       <c r="I447" s="1">
         <v>24</v>
@@ -20113,7 +20113,7 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="2">
-        <v>628807</v>
+        <v>6.2880700000000003</v>
       </c>
       <c r="B448" s="1">
         <v>0</v>
@@ -20128,13 +20128,13 @@
         <v>0.74</v>
       </c>
       <c r="F448" s="2">
-        <v>6341</v>
+        <v>6.3410000000000002</v>
       </c>
       <c r="G448" s="1">
         <v>96.4</v>
       </c>
       <c r="H448" s="2">
-        <v>2072</v>
+        <v>2.0720000000000001</v>
       </c>
       <c r="I448" s="1">
         <v>24</v>
@@ -20157,7 +20157,7 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="2">
-        <v>992485</v>
+        <v>9.9248499999999993</v>
       </c>
       <c r="B449" s="1">
         <v>0</v>
@@ -20172,13 +20172,13 @@
         <v>0.74</v>
       </c>
       <c r="F449" s="2">
-        <v>6251</v>
+        <v>6.2510000000000003</v>
       </c>
       <c r="G449" s="1">
         <v>96.6</v>
       </c>
       <c r="H449" s="2">
-        <v>2198</v>
+        <v>2.198</v>
       </c>
       <c r="I449" s="1">
         <v>24</v>
@@ -20201,7 +20201,7 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="2">
-        <v>932909</v>
+        <v>9.3290900000000008</v>
       </c>
       <c r="B450" s="1">
         <v>0</v>
@@ -20216,13 +20216,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F450" s="2">
-        <v>6185</v>
+        <v>6.1849999999999996</v>
       </c>
       <c r="G450" s="1">
         <v>98.7</v>
       </c>
       <c r="H450" s="2">
-        <v>22616</v>
+        <v>2.2616000000000001</v>
       </c>
       <c r="I450" s="1">
         <v>24</v>
@@ -20245,7 +20245,7 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="2">
-        <v>752601</v>
+        <v>7.5260100000000003</v>
       </c>
       <c r="B451" s="1">
         <v>0</v>
@@ -20260,13 +20260,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F451" s="2">
-        <v>6417</v>
+        <v>6.4169999999999998</v>
       </c>
       <c r="G451" s="1">
         <v>98.3</v>
       </c>
       <c r="H451" s="2">
-        <v>2185</v>
+        <v>2.1850000000000001</v>
       </c>
       <c r="I451" s="1">
         <v>24</v>
@@ -20289,7 +20289,7 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="2">
-        <v>671772</v>
+        <v>6.7177199999999999</v>
       </c>
       <c r="B452" s="1">
         <v>0</v>
@@ -20304,13 +20304,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F452" s="2">
-        <v>6749</v>
+        <v>6.7489999999999997</v>
       </c>
       <c r="G452" s="1">
         <v>92.6</v>
       </c>
       <c r="H452" s="2">
-        <v>23236</v>
+        <v>2.3235999999999999</v>
       </c>
       <c r="I452" s="1">
         <v>24</v>
@@ -20333,7 +20333,7 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="2">
-        <v>544114</v>
+        <v>5.4411399999999999</v>
       </c>
       <c r="B453" s="1">
         <v>0</v>
@@ -20348,13 +20348,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F453" s="2">
-        <v>6655</v>
+        <v>6.6550000000000002</v>
       </c>
       <c r="G453" s="1">
         <v>98.2</v>
       </c>
       <c r="H453" s="2">
-        <v>23552</v>
+        <v>2.3552</v>
       </c>
       <c r="I453" s="1">
         <v>24</v>
@@ -20377,7 +20377,7 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="2">
-        <v>509017</v>
+        <v>5.0901699999999996</v>
       </c>
       <c r="B454" s="1">
         <v>0</v>
@@ -20392,13 +20392,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F454" s="2">
-        <v>6297</v>
+        <v>6.2969999999999997</v>
       </c>
       <c r="G454" s="1">
         <v>91.8</v>
       </c>
       <c r="H454" s="2">
-        <v>23682</v>
+        <v>2.3681999999999999</v>
       </c>
       <c r="I454" s="1">
         <v>24</v>
@@ -20421,7 +20421,7 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="2">
-        <v>824809</v>
+        <v>8.2480899999999995</v>
       </c>
       <c r="B455" s="1">
         <v>0</v>
@@ -20436,13 +20436,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F455" s="2">
-        <v>7393</v>
+        <v>7.3929999999999998</v>
       </c>
       <c r="G455" s="1">
         <v>99.3</v>
       </c>
       <c r="H455" s="2">
-        <v>24527</v>
+        <v>2.4527000000000001</v>
       </c>
       <c r="I455" s="1">
         <v>24</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="2">
-        <v>951363</v>
+        <v>9.5136299999999991</v>
       </c>
       <c r="B456" s="1">
         <v>0</v>
@@ -20480,13 +20480,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F456" s="2">
-        <v>6728</v>
+        <v>6.7279999999999998</v>
       </c>
       <c r="G456" s="1">
         <v>94.1</v>
       </c>
       <c r="H456" s="2">
-        <v>24961</v>
+        <v>2.4961000000000002</v>
       </c>
       <c r="I456" s="1">
         <v>24</v>
@@ -20509,7 +20509,7 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="2">
-        <v>475237</v>
+        <v>4.75237</v>
       </c>
       <c r="B457" s="1">
         <v>0</v>
@@ -20524,13 +20524,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F457" s="2">
-        <v>6525</v>
+        <v>6.5250000000000004</v>
       </c>
       <c r="G457" s="1">
         <v>86.5</v>
       </c>
       <c r="H457" s="2">
-        <v>24358</v>
+        <v>2.4358</v>
       </c>
       <c r="I457" s="1">
         <v>24</v>
@@ -20553,7 +20553,7 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="2">
-        <v>466883</v>
+        <v>4.6688299999999998</v>
       </c>
       <c r="B458" s="1">
         <v>0</v>
@@ -20568,13 +20568,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F458" s="2">
-        <v>5976</v>
+        <v>5.976</v>
       </c>
       <c r="G458" s="1">
         <v>87.9</v>
       </c>
       <c r="H458" s="2">
-        <v>25806</v>
+        <v>2.5806</v>
       </c>
       <c r="I458" s="1">
         <v>24</v>
@@ -20597,7 +20597,7 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="2">
-        <v>820058</v>
+        <v>8.2005800000000004</v>
       </c>
       <c r="B459" s="1">
         <v>0</v>
@@ -20612,13 +20612,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F459" s="2">
-        <v>5936</v>
+        <v>5.9359999999999999</v>
       </c>
       <c r="G459" s="1">
         <v>80.3</v>
       </c>
       <c r="H459" s="2">
-        <v>27792</v>
+        <v>2.7791999999999999</v>
       </c>
       <c r="I459" s="1">
         <v>24</v>
@@ -20641,7 +20641,7 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="2">
-        <v>775223</v>
+        <v>7.75223</v>
       </c>
       <c r="B460" s="1">
         <v>0</v>
@@ -20656,13 +20656,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F460" s="2">
-        <v>6301</v>
+        <v>6.3010000000000002</v>
       </c>
       <c r="G460" s="1">
         <v>83.7</v>
       </c>
       <c r="H460" s="2">
-        <v>27831</v>
+        <v>2.7831000000000001</v>
       </c>
       <c r="I460" s="1">
         <v>24</v>
@@ -20685,7 +20685,7 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="2">
-        <v>680117</v>
+        <v>6.8011699999999999</v>
       </c>
       <c r="B461" s="1">
         <v>0</v>
@@ -20700,13 +20700,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F461" s="2">
-        <v>6081</v>
+        <v>6.0810000000000004</v>
       </c>
       <c r="G461" s="1">
         <v>84.4</v>
       </c>
       <c r="H461" s="2">
-        <v>27175</v>
+        <v>2.7174999999999998</v>
       </c>
       <c r="I461" s="1">
         <v>24</v>
@@ -20729,7 +20729,7 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="2">
-        <v>481213</v>
+        <v>4.8121299999999998</v>
       </c>
       <c r="B462" s="1">
         <v>0</v>
@@ -20744,13 +20744,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F462" s="2">
-        <v>6701</v>
+        <v>6.7009999999999996</v>
       </c>
       <c r="G462" s="1">
         <v>90</v>
       </c>
       <c r="H462" s="2">
-        <v>25975</v>
+        <v>2.5975000000000001</v>
       </c>
       <c r="I462" s="1">
         <v>24</v>
@@ -20773,7 +20773,7 @@
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="2">
-        <v>369311</v>
+        <v>3.6931099999999999</v>
       </c>
       <c r="B463" s="1">
         <v>0</v>
@@ -20788,13 +20788,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F463" s="2">
-        <v>6376</v>
+        <v>6.3760000000000003</v>
       </c>
       <c r="G463" s="1">
         <v>88.4</v>
       </c>
       <c r="H463" s="2">
-        <v>25671</v>
+        <v>2.5670999999999999</v>
       </c>
       <c r="I463" s="1">
         <v>24</v>
@@ -20817,7 +20817,7 @@
     </row>
     <row r="464" spans="1:14">
       <c r="A464" s="2">
-        <v>665492</v>
+        <v>6.6549199999999997</v>
       </c>
       <c r="B464" s="1">
         <v>0</v>
@@ -20832,13 +20832,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F464" s="2">
-        <v>6317</v>
+        <v>6.3170000000000002</v>
       </c>
       <c r="G464" s="1">
         <v>83</v>
       </c>
       <c r="H464" s="2">
-        <v>27344</v>
+        <v>2.7343999999999999</v>
       </c>
       <c r="I464" s="1">
         <v>24</v>
@@ -20861,7 +20861,7 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465" s="2">
-        <v>582115</v>
+        <v>5.8211500000000003</v>
       </c>
       <c r="B465" s="1">
         <v>0</v>
@@ -20876,13 +20876,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F465" s="2">
-        <v>6513</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="G465" s="1">
         <v>89.9</v>
       </c>
       <c r="H465" s="2">
-        <v>28016</v>
+        <v>2.8016000000000001</v>
       </c>
       <c r="I465" s="1">
         <v>24</v>
@@ -20905,7 +20905,7 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="2">
-        <v>783932</v>
+        <v>7.8393199999999998</v>
       </c>
       <c r="B466" s="1">
         <v>0</v>
@@ -20920,13 +20920,13 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="F466" s="2">
-        <v>6209</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="G466" s="1">
         <v>65.400000000000006</v>
       </c>
       <c r="H466" s="2">
-        <v>29634</v>
+        <v>2.9634</v>
       </c>
       <c r="I466" s="1">
         <v>24</v>
@@ -20949,7 +20949,7 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="2">
-        <v>31636</v>
+        <v>3.1636000000000002</v>
       </c>
       <c r="B467" s="1">
         <v>0</v>
@@ -20964,13 +20964,13 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="F467" s="2">
-        <v>5759</v>
+        <v>5.7590000000000003</v>
       </c>
       <c r="G467" s="1">
         <v>48.2</v>
       </c>
       <c r="H467" s="2">
-        <v>30665</v>
+        <v>3.0665</v>
       </c>
       <c r="I467" s="1">
         <v>24</v>
@@ -20993,7 +20993,7 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468" s="2">
-        <v>377498</v>
+        <v>3.7749799999999998</v>
       </c>
       <c r="B468" s="1">
         <v>0</v>
@@ -21008,13 +21008,13 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="F468" s="2">
-        <v>5952</v>
+        <v>5.952</v>
       </c>
       <c r="G468" s="1">
         <v>84.7</v>
       </c>
       <c r="H468" s="2">
-        <v>28715</v>
+        <v>2.8715000000000002</v>
       </c>
       <c r="I468" s="1">
         <v>24</v>
@@ -21037,7 +21037,7 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="2">
-        <v>442228</v>
+        <v>4.4222799999999998</v>
       </c>
       <c r="B469" s="1">
         <v>0</v>
@@ -21052,13 +21052,13 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F469" s="2">
-        <v>6003</v>
+        <v>6.0030000000000001</v>
       </c>
       <c r="G469" s="1">
         <v>94.5</v>
       </c>
       <c r="H469" s="2">
-        <v>25403</v>
+        <v>2.5402999999999998</v>
       </c>
       <c r="I469" s="1">
         <v>24</v>
@@ -21081,7 +21081,7 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470" s="2">
-        <v>155757</v>
+        <v>15.575699999999999</v>
       </c>
       <c r="B470" s="1">
         <v>0</v>
@@ -21096,13 +21096,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F470" s="2">
-        <v>5926</v>
+        <v>5.9260000000000002</v>
       </c>
       <c r="G470" s="1">
         <v>71</v>
       </c>
       <c r="H470" s="2">
-        <v>29084</v>
+        <v>2.9083999999999999</v>
       </c>
       <c r="I470" s="1">
         <v>24</v>
@@ -21125,7 +21125,7 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471" s="2">
-        <v>130751</v>
+        <v>13.075100000000001</v>
       </c>
       <c r="B471" s="1">
         <v>0</v>
@@ -21140,13 +21140,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F471" s="2">
-        <v>5713</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="G471" s="1">
         <v>56.7</v>
       </c>
       <c r="H471" s="2">
-        <v>28237</v>
+        <v>2.8237000000000001</v>
       </c>
       <c r="I471" s="1">
         <v>24</v>
@@ -21169,7 +21169,7 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472" s="2">
-        <v>434879</v>
+        <v>4.3487900000000002</v>
       </c>
       <c r="B472" s="1">
         <v>0</v>
@@ -21184,13 +21184,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F472" s="2">
-        <v>6167</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="G472" s="1">
         <v>84</v>
       </c>
       <c r="H472" s="2">
-        <v>30334</v>
+        <v>3.0333999999999999</v>
       </c>
       <c r="I472" s="1">
         <v>24</v>
@@ -21213,7 +21213,7 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473" s="2">
-        <v>403841</v>
+        <v>4.0384099999999998</v>
       </c>
       <c r="B473" s="1">
         <v>0</v>
@@ -21228,13 +21228,13 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="F473" s="2">
-        <v>6229</v>
+        <v>6.2290000000000001</v>
       </c>
       <c r="G473" s="1">
         <v>90.7</v>
       </c>
       <c r="H473" s="2">
-        <v>30993</v>
+        <v>3.0992999999999999</v>
       </c>
       <c r="I473" s="1">
         <v>24</v>
@@ -21257,7 +21257,7 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474" s="2">
-        <v>356868</v>
+        <v>3.5686800000000001</v>
       </c>
       <c r="B474" s="1">
         <v>0</v>
@@ -21272,13 +21272,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F474" s="2">
-        <v>6437</v>
+        <v>6.4370000000000003</v>
       </c>
       <c r="G474" s="1">
         <v>75</v>
       </c>
       <c r="H474" s="2">
-        <v>28965</v>
+        <v>2.8965000000000001</v>
       </c>
       <c r="I474" s="1">
         <v>24</v>
@@ -21301,7 +21301,7 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475" s="2">
-        <v>464689</v>
+        <v>4.64689</v>
       </c>
       <c r="B475" s="1">
         <v>0</v>
@@ -21322,7 +21322,7 @@
         <v>67.599999999999994</v>
       </c>
       <c r="H475" s="2">
-        <v>25329</v>
+        <v>2.5329000000000002</v>
       </c>
       <c r="I475" s="1">
         <v>24</v>
@@ -21345,7 +21345,7 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476" s="2">
-        <v>805579</v>
+        <v>8.05579</v>
       </c>
       <c r="B476" s="1">
         <v>0</v>
@@ -21360,13 +21360,13 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F476" s="2">
-        <v>5427</v>
+        <v>5.4269999999999996</v>
       </c>
       <c r="G476" s="1">
         <v>95.4</v>
       </c>
       <c r="H476" s="2">
-        <v>24298</v>
+        <v>2.4298000000000002</v>
       </c>
       <c r="I476" s="1">
         <v>24</v>
@@ -21389,7 +21389,7 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477" s="2">
-        <v>639312</v>
+        <v>6.3931199999999997</v>
       </c>
       <c r="B477" s="1">
         <v>0</v>
@@ -21404,13 +21404,13 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F477" s="2">
-        <v>6162</v>
+        <v>6.1619999999999999</v>
       </c>
       <c r="G477" s="1">
         <v>97.4</v>
       </c>
       <c r="H477" s="2">
-        <v>2206</v>
+        <v>2.206</v>
       </c>
       <c r="I477" s="1">
         <v>24</v>
@@ -21433,7 +21433,7 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478" s="2">
-        <v>487141</v>
+        <v>4.87141</v>
       </c>
       <c r="B478" s="1">
         <v>0</v>
@@ -21448,13 +21448,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="F478" s="2">
-        <v>6484</v>
+        <v>6.484</v>
       </c>
       <c r="G478" s="1">
         <v>93.6</v>
       </c>
       <c r="H478" s="2">
-        <v>23053</v>
+        <v>2.3052999999999999</v>
       </c>
       <c r="I478" s="1">
         <v>24</v>
@@ -21477,7 +21477,7 @@
     </row>
     <row r="479" spans="1:14">
       <c r="A479" s="2">
-        <v>150234</v>
+        <v>15.023400000000001</v>
       </c>
       <c r="B479" s="1">
         <v>0</v>
@@ -21492,13 +21492,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="F479" s="2">
-        <v>5304</v>
+        <v>5.3040000000000003</v>
       </c>
       <c r="G479" s="1">
         <v>97.3</v>
       </c>
       <c r="H479" s="2">
-        <v>21007</v>
+        <v>2.1006999999999998</v>
       </c>
       <c r="I479" s="1">
         <v>24</v>
@@ -21521,7 +21521,7 @@
     </row>
     <row r="480" spans="1:14">
       <c r="A480" s="2">
-        <v>10233</v>
+        <v>10.233000000000001</v>
       </c>
       <c r="B480" s="1">
         <v>0</v>
@@ -21536,13 +21536,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="F480" s="2">
-        <v>6185</v>
+        <v>6.1849999999999996</v>
       </c>
       <c r="G480" s="1">
         <v>96.7</v>
       </c>
       <c r="H480" s="2">
-        <v>21705</v>
+        <v>2.1705000000000001</v>
       </c>
       <c r="I480" s="1">
         <v>24</v>
@@ -21565,7 +21565,7 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="2">
-        <v>143337</v>
+        <v>14.3337</v>
       </c>
       <c r="B481" s="1">
         <v>0</v>
@@ -21580,13 +21580,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="F481" s="2">
-        <v>6229</v>
+        <v>6.2290000000000001</v>
       </c>
       <c r="G481" s="1">
         <v>88</v>
       </c>
       <c r="H481" s="2">
-        <v>19512</v>
+        <v>1.9512</v>
       </c>
       <c r="I481" s="1">
         <v>24</v>
@@ -21609,7 +21609,7 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="2">
-        <v>582401</v>
+        <v>5.8240100000000004</v>
       </c>
       <c r="B482" s="1">
         <v>0</v>
@@ -21624,13 +21624,13 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="F482" s="2">
-        <v>6242</v>
+        <v>6.242</v>
       </c>
       <c r="G482" s="1">
         <v>64.7</v>
       </c>
       <c r="H482" s="2">
-        <v>34242</v>
+        <v>3.4241999999999999</v>
       </c>
       <c r="I482" s="1">
         <v>24</v>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483" s="2">
-        <v>570818</v>
+        <v>5.7081799999999996</v>
       </c>
       <c r="B483" s="1">
         <v>0</v>
@@ -21674,7 +21674,7 @@
         <v>74.900000000000006</v>
       </c>
       <c r="H483" s="2">
-        <v>33317</v>
+        <v>3.3317000000000001</v>
       </c>
       <c r="I483" s="1">
         <v>24</v>
@@ -21697,7 +21697,7 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="2">
-        <v>573116</v>
+        <v>5.73116</v>
       </c>
       <c r="B484" s="1">
         <v>0</v>
@@ -21712,13 +21712,13 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="F484" s="2">
-        <v>7061</v>
+        <v>7.0609999999999999</v>
       </c>
       <c r="G484" s="1">
         <v>77</v>
       </c>
       <c r="H484" s="2">
-        <v>34106</v>
+        <v>3.4106000000000001</v>
       </c>
       <c r="I484" s="1">
         <v>24</v>
@@ -21741,7 +21741,7 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485" s="2">
-        <v>281838</v>
+        <v>2.8183799999999999</v>
       </c>
       <c r="B485" s="1">
         <v>0</v>
@@ -21756,13 +21756,13 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="F485" s="2">
-        <v>5762</v>
+        <v>5.7619999999999996</v>
       </c>
       <c r="G485" s="1">
         <v>40.299999999999997</v>
       </c>
       <c r="H485" s="2">
-        <v>40983</v>
+        <v>4.0983000000000001</v>
       </c>
       <c r="I485" s="1">
         <v>24</v>
@@ -21785,7 +21785,7 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="2">
-        <v>237857</v>
+        <v>2.3785699999999999</v>
       </c>
       <c r="B486" s="1">
         <v>0</v>
@@ -21800,13 +21800,13 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="F486" s="2">
-        <v>5871</v>
+        <v>5.8710000000000004</v>
       </c>
       <c r="G486" s="1">
         <v>41.9</v>
       </c>
       <c r="H486" s="2">
-        <v>3724</v>
+        <v>3.7240000000000002</v>
       </c>
       <c r="I486" s="1">
         <v>24</v>
@@ -21829,7 +21829,7 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487" s="2">
-        <v>367367</v>
+        <v>3.67367</v>
       </c>
       <c r="B487" s="1">
         <v>0</v>
@@ -21844,13 +21844,13 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="F487" s="2">
-        <v>6312</v>
+        <v>6.3120000000000003</v>
       </c>
       <c r="G487" s="1">
         <v>51.9</v>
       </c>
       <c r="H487" s="2">
-        <v>39917</v>
+        <v>3.9916999999999998</v>
       </c>
       <c r="I487" s="1">
         <v>24</v>
@@ -21873,7 +21873,7 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488" s="2">
-        <v>569175</v>
+        <v>5.6917499999999999</v>
       </c>
       <c r="B488" s="1">
         <v>0</v>
@@ -21888,13 +21888,13 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="F488" s="2">
-        <v>6114</v>
+        <v>6.1139999999999999</v>
       </c>
       <c r="G488" s="1">
         <v>79.8</v>
       </c>
       <c r="H488" s="2">
-        <v>35459</v>
+        <v>3.5459000000000001</v>
       </c>
       <c r="I488" s="1">
         <v>24</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="2">
-        <v>483567</v>
+        <v>4.8356700000000004</v>
       </c>
       <c r="B489" s="1">
         <v>0</v>
@@ -21932,13 +21932,13 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="F489" s="2">
-        <v>5905</v>
+        <v>5.9050000000000002</v>
       </c>
       <c r="G489" s="1">
         <v>53.2</v>
       </c>
       <c r="H489" s="2">
-        <v>31523</v>
+        <v>3.1522999999999999</v>
       </c>
       <c r="I489" s="1">
         <v>24</v>
@@ -21976,13 +21976,13 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="F490" s="2">
-        <v>5454</v>
+        <v>5.4539999999999997</v>
       </c>
       <c r="G490" s="1">
         <v>92.7</v>
       </c>
       <c r="H490" s="2">
-        <v>18209</v>
+        <v>1.8209</v>
       </c>
       <c r="I490" s="1">
         <v>4</v>
@@ -22020,13 +22020,13 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="F491" s="2">
-        <v>5414</v>
+        <v>5.4139999999999997</v>
       </c>
       <c r="G491" s="1">
         <v>98.3</v>
       </c>
       <c r="H491" s="2">
-        <v>17554</v>
+        <v>1.7554000000000001</v>
       </c>
       <c r="I491" s="1">
         <v>4</v>
@@ -22064,13 +22064,13 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="F492" s="2">
-        <v>5093</v>
+        <v>5.093</v>
       </c>
       <c r="G492" s="1">
         <v>98</v>
       </c>
       <c r="H492" s="2">
-        <v>18226</v>
+        <v>1.8226</v>
       </c>
       <c r="I492" s="1">
         <v>4</v>
@@ -22108,13 +22108,13 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="F493" s="2">
-        <v>5983</v>
+        <v>5.9829999999999997</v>
       </c>
       <c r="G493" s="1">
         <v>98.8</v>
       </c>
       <c r="H493" s="2">
-        <v>18681</v>
+        <v>1.8681000000000001</v>
       </c>
       <c r="I493" s="1">
         <v>4</v>
@@ -22152,13 +22152,13 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="F494" s="2">
-        <v>5983</v>
+        <v>5.9829999999999997</v>
       </c>
       <c r="G494" s="1">
         <v>83.5</v>
       </c>
       <c r="H494" s="2">
-        <v>21099</v>
+        <v>2.1099000000000001</v>
       </c>
       <c r="I494" s="1">
         <v>4</v>
@@ -22196,13 +22196,13 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="F495" s="2">
-        <v>5707</v>
+        <v>5.7069999999999999</v>
       </c>
       <c r="G495" s="1">
         <v>54</v>
       </c>
       <c r="H495" s="2">
-        <v>23817</v>
+        <v>2.3816999999999999</v>
       </c>
       <c r="I495" s="1">
         <v>6</v>
@@ -22240,13 +22240,13 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="F496" s="2">
-        <v>5926</v>
+        <v>5.9260000000000002</v>
       </c>
       <c r="G496" s="1">
         <v>42.6</v>
       </c>
       <c r="H496" s="2">
-        <v>23817</v>
+        <v>2.3816999999999999</v>
       </c>
       <c r="I496" s="1">
         <v>6</v>
@@ -22290,7 +22290,7 @@
         <v>28.8</v>
       </c>
       <c r="H497" s="2">
-        <v>27986</v>
+        <v>2.7986</v>
       </c>
       <c r="I497" s="1">
         <v>6</v>
@@ -22334,7 +22334,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="H498" s="2">
-        <v>27986</v>
+        <v>2.7986</v>
       </c>
       <c r="I498" s="1">
         <v>6</v>
@@ -22372,13 +22372,13 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="F499" s="2">
-        <v>5794</v>
+        <v>5.7939999999999996</v>
       </c>
       <c r="G499" s="1">
         <v>70.599999999999994</v>
       </c>
       <c r="H499" s="2">
-        <v>28927</v>
+        <v>2.8927</v>
       </c>
       <c r="I499" s="1">
         <v>6</v>
@@ -22416,13 +22416,13 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="F500" s="2">
-        <v>6019</v>
+        <v>6.0190000000000001</v>
       </c>
       <c r="G500" s="1">
         <v>65.3</v>
       </c>
       <c r="H500" s="2">
-        <v>24091</v>
+        <v>2.4091</v>
       </c>
       <c r="I500" s="1">
         <v>6</v>
@@ -22460,13 +22460,13 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="F501" s="2">
-        <v>5569</v>
+        <v>5.569</v>
       </c>
       <c r="G501" s="1">
         <v>73.5</v>
       </c>
       <c r="H501" s="2">
-        <v>23999</v>
+        <v>2.3999000000000001</v>
       </c>
       <c r="I501" s="1">
         <v>6</v>
@@ -22504,13 +22504,13 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="F502" s="2">
-        <v>6027</v>
+        <v>6.0270000000000001</v>
       </c>
       <c r="G502" s="1">
         <v>79.7</v>
       </c>
       <c r="H502" s="2">
-        <v>24982</v>
+        <v>2.4982000000000002</v>
       </c>
       <c r="I502" s="1">
         <v>6</v>
@@ -22548,13 +22548,13 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="F503" s="2">
-        <v>6593</v>
+        <v>6.593</v>
       </c>
       <c r="G503" s="1">
         <v>69.099999999999994</v>
       </c>
       <c r="H503" s="2">
-        <v>24786</v>
+        <v>2.4786000000000001</v>
       </c>
       <c r="I503" s="1">
         <v>1</v>
@@ -22598,7 +22598,7 @@
         <v>76.7</v>
       </c>
       <c r="H504" s="2">
-        <v>22875</v>
+        <v>2.2875000000000001</v>
       </c>
       <c r="I504" s="1">
         <v>1</v>
@@ -22636,13 +22636,13 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="F505" s="2">
-        <v>6976</v>
+        <v>6.976</v>
       </c>
       <c r="G505" s="1">
         <v>91</v>
       </c>
       <c r="H505" s="2">
-        <v>21675</v>
+        <v>2.1675</v>
       </c>
       <c r="I505" s="1">
         <v>1</v>
@@ -22680,13 +22680,13 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="F506" s="2">
-        <v>6794</v>
+        <v>6.7939999999999996</v>
       </c>
       <c r="G506" s="1">
         <v>89.3</v>
       </c>
       <c r="H506" s="2">
-        <v>23889</v>
+        <v>2.3889</v>
       </c>
       <c r="I506" s="1">
         <v>1</v>
@@ -22730,7 +22730,7 @@
         <v>80.8</v>
       </c>
       <c r="H507" s="2">
-        <v>2505</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="I507" s="1">
         <v>1</v>
